--- a/config_11.17/task_zajindan_server.xlsx
+++ b/config_11.17/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6584" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6603" uniqueCount="2010">
   <si>
     <t>id|任务id</t>
   </si>
@@ -11031,14 +11031,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>buy_gift</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>10350,10351,10352,10353,10354,10355,10356</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>小游戏福利</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12316,6 +12308,43 @@
   <si>
     <t>1,5,2,2,3</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利主任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_profit_task</t>
+  </si>
+  <si>
+    <t>1,-1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10350,10351,10352,10353,10354,10355,10356</t>
+  </si>
+  <si>
+    <t>10350,10351,10352,10353,10354,10355,10356</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_profit</t>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12640,7 +12669,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13131,9 +13160,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13189,6 +13215,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13475,11 +13516,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E489" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F508" sqref="F508"/>
+      <selection pane="bottomRight" activeCell="C516" sqref="C516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -31191,7 +31232,7 @@
       <c r="C457" s="16" t="s">
         <v>1629</v>
       </c>
-      <c r="D457" s="192" t="s">
+      <c r="D457" s="191" t="s">
         <v>1691</v>
       </c>
       <c r="E457" s="16" t="s">
@@ -31229,7 +31270,7 @@
       <c r="C458" s="16" t="s">
         <v>1630</v>
       </c>
-      <c r="D458" s="192" t="s">
+      <c r="D458" s="191" t="s">
         <v>1692</v>
       </c>
       <c r="E458" s="16" t="s">
@@ -31295,117 +31336,117 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="460" spans="1:12" s="190" customFormat="1">
-      <c r="A460" s="190">
+    <row r="460" spans="1:12" s="189" customFormat="1">
+      <c r="A460" s="189">
         <v>1000049</v>
       </c>
-      <c r="B460" s="190">
-        <v>1</v>
-      </c>
-      <c r="C460" s="190" t="s">
+      <c r="B460" s="189">
+        <v>1</v>
+      </c>
+      <c r="C460" s="189" t="s">
         <v>1638</v>
       </c>
-      <c r="D460" s="190" t="s">
+      <c r="D460" s="189" t="s">
         <v>1641</v>
       </c>
-      <c r="E460" s="191" t="s">
+      <c r="E460" s="190" t="s">
         <v>1766</v>
       </c>
-      <c r="F460" s="190" t="s">
+      <c r="F460" s="189" t="s">
         <v>1636</v>
       </c>
-      <c r="G460" s="190">
+      <c r="G460" s="189">
         <v>21407</v>
       </c>
-      <c r="H460" s="191" t="b">
-        <v>1</v>
-      </c>
-      <c r="I460" s="190">
-        <v>1</v>
-      </c>
-      <c r="J460" s="190">
+      <c r="H460" s="190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I460" s="189">
+        <v>1</v>
+      </c>
+      <c r="J460" s="189">
         <v>1602518400</v>
       </c>
-      <c r="K460" s="190">
+      <c r="K460" s="189">
         <v>1603123199</v>
       </c>
-      <c r="L460" s="190">
+      <c r="L460" s="189">
         <v>-1</v>
       </c>
     </row>
-    <row r="461" spans="1:12" s="190" customFormat="1">
-      <c r="A461" s="190">
+    <row r="461" spans="1:12" s="189" customFormat="1">
+      <c r="A461" s="189">
         <v>1000050</v>
       </c>
-      <c r="B461" s="190">
-        <v>1</v>
-      </c>
-      <c r="C461" s="190" t="s">
+      <c r="B461" s="189">
+        <v>1</v>
+      </c>
+      <c r="C461" s="189" t="s">
         <v>1639</v>
       </c>
-      <c r="D461" s="190" t="s">
+      <c r="D461" s="189" t="s">
         <v>1642</v>
       </c>
-      <c r="E461" s="190" t="s">
+      <c r="E461" s="189" t="s">
         <v>1637</v>
       </c>
-      <c r="F461" s="191" t="s">
+      <c r="F461" s="190" t="s">
         <v>1636</v>
       </c>
-      <c r="G461" s="190">
+      <c r="G461" s="189">
         <v>21408</v>
       </c>
-      <c r="H461" s="191" t="b">
-        <v>1</v>
-      </c>
-      <c r="I461" s="190">
-        <v>1</v>
-      </c>
-      <c r="J461" s="190">
+      <c r="H461" s="190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I461" s="189">
+        <v>1</v>
+      </c>
+      <c r="J461" s="189">
         <v>1602518400</v>
       </c>
-      <c r="K461" s="190">
+      <c r="K461" s="189">
         <v>1603123199</v>
       </c>
-      <c r="L461" s="190">
+      <c r="L461" s="189">
         <v>-1</v>
       </c>
     </row>
-    <row r="462" spans="1:12" s="190" customFormat="1">
-      <c r="A462" s="190">
+    <row r="462" spans="1:12" s="189" customFormat="1">
+      <c r="A462" s="189">
         <v>1000051</v>
       </c>
-      <c r="B462" s="190">
-        <v>1</v>
-      </c>
-      <c r="C462" s="190" t="s">
+      <c r="B462" s="189">
+        <v>1</v>
+      </c>
+      <c r="C462" s="189" t="s">
         <v>1640</v>
       </c>
-      <c r="D462" s="190" t="s">
+      <c r="D462" s="189" t="s">
         <v>1643</v>
       </c>
-      <c r="E462" s="190" t="s">
+      <c r="E462" s="189" t="s">
         <v>1637</v>
       </c>
-      <c r="F462" s="190" t="s">
+      <c r="F462" s="189" t="s">
         <v>1636</v>
       </c>
-      <c r="G462" s="190">
+      <c r="G462" s="189">
         <v>21409</v>
       </c>
-      <c r="H462" s="191" t="b">
-        <v>1</v>
-      </c>
-      <c r="I462" s="190">
-        <v>1</v>
-      </c>
-      <c r="J462" s="190">
+      <c r="H462" s="190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I462" s="189">
+        <v>1</v>
+      </c>
+      <c r="J462" s="189">
         <v>1602518400</v>
       </c>
-      <c r="K462" s="190">
+      <c r="K462" s="189">
         <v>1603123199</v>
       </c>
-      <c r="L462" s="190">
+      <c r="L462" s="189">
         <v>-1</v>
       </c>
     </row>
@@ -31457,7 +31498,7 @@
       <c r="C464" s="16" t="s">
         <v>1489</v>
       </c>
-      <c r="D464" s="192" t="s">
+      <c r="D464" s="191" t="s">
         <v>1667</v>
       </c>
       <c r="E464" s="16" t="s">
@@ -31495,7 +31536,7 @@
       <c r="C465" s="16" t="s">
         <v>1489</v>
       </c>
-      <c r="D465" s="192" t="s">
+      <c r="D465" s="191" t="s">
         <v>1668</v>
       </c>
       <c r="E465" s="16" t="s">
@@ -31647,7 +31688,7 @@
       <c r="C469" s="16" t="s">
         <v>1629</v>
       </c>
-      <c r="D469" s="192" t="s">
+      <c r="D469" s="191" t="s">
         <v>1694</v>
       </c>
       <c r="E469" s="16" t="s">
@@ -31685,7 +31726,7 @@
       <c r="C470" s="16" t="s">
         <v>1629</v>
       </c>
-      <c r="D470" s="192" t="s">
+      <c r="D470" s="191" t="s">
         <v>1695</v>
       </c>
       <c r="E470" s="16" t="s">
@@ -31917,10 +31958,10 @@
         <v>1708</v>
       </c>
       <c r="E476" s="48" t="s">
-        <v>1713</v>
+        <v>1501</v>
       </c>
       <c r="F476" s="48" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="G476" s="7">
         <v>21423</v>
@@ -32142,10 +32183,10 @@
         <v>1815</v>
       </c>
       <c r="D482" s="129" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="E482" s="130" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="F482" s="130" t="s">
         <v>13</v>
@@ -32177,13 +32218,13 @@
         <v>1</v>
       </c>
       <c r="C483" s="138" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D483" s="138" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E483" s="138" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="F483" s="137" t="s">
         <v>13</v>
@@ -32215,13 +32256,13 @@
         <v>1</v>
       </c>
       <c r="C484" s="138" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D484" s="138" t="s">
         <v>1826</v>
       </c>
-      <c r="D484" s="138" t="s">
-        <v>1828</v>
-      </c>
       <c r="E484" s="138" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="F484" s="137" t="s">
         <v>13</v>
@@ -32253,13 +32294,13 @@
         <v>1</v>
       </c>
       <c r="C485" s="138" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D485" s="138" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="E485" s="138" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="F485" s="137" t="s">
         <v>13</v>
@@ -32291,13 +32332,13 @@
         <v>1</v>
       </c>
       <c r="C486" s="138" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D486" s="138" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="E486" s="138" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="F486" s="137" t="s">
         <v>13</v>
@@ -32329,13 +32370,13 @@
         <v>1</v>
       </c>
       <c r="C487" s="138" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D487" s="138" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="E487" s="138" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="F487" s="137" t="s">
         <v>13</v>
@@ -32367,13 +32408,13 @@
         <v>1</v>
       </c>
       <c r="C488" s="138" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D488" s="138" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E488" s="138" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="F488" s="137" t="s">
         <v>13</v>
@@ -32405,13 +32446,13 @@
         <v>1</v>
       </c>
       <c r="C489" s="138" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D489" s="138" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="E489" s="138" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="F489" s="137" t="s">
         <v>13</v>
@@ -32443,13 +32484,13 @@
         <v>1</v>
       </c>
       <c r="C490" s="153" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D490" s="157" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E490" s="153" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="F490" s="158" t="s">
         <v>13</v>
@@ -32481,13 +32522,13 @@
         <v>1</v>
       </c>
       <c r="C491" s="153" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="D491" s="156" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="E491" s="153" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="F491" s="158" t="s">
         <v>13</v>
@@ -32519,13 +32560,13 @@
         <v>1</v>
       </c>
       <c r="C492" s="153" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D492" s="156" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E492" s="153" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="F492" s="158" t="s">
         <v>13</v>
@@ -32557,13 +32598,13 @@
         <v>1</v>
       </c>
       <c r="C493" s="153" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D493" s="156" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E493" s="153" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="F493" s="158" t="s">
         <v>13</v>
@@ -32595,13 +32636,13 @@
         <v>1</v>
       </c>
       <c r="C494" s="153" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D494" s="155" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="E494" s="153" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="F494" s="158" t="s">
         <v>13</v>
@@ -32633,13 +32674,13 @@
         <v>1</v>
       </c>
       <c r="C495" s="153" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D495" s="156" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E495" s="153" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="F495" s="158" t="s">
         <v>13</v>
@@ -32671,13 +32712,13 @@
         <v>1</v>
       </c>
       <c r="C496" s="153" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D496" s="156" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E496" s="153" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="F496" s="158" t="s">
         <v>13</v>
@@ -32709,13 +32750,13 @@
         <v>1</v>
       </c>
       <c r="C497" s="153" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="D497" s="156" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="E497" s="153" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="F497" s="158" t="s">
         <v>13</v>
@@ -32747,13 +32788,13 @@
         <v>1</v>
       </c>
       <c r="C498" s="153" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="D498" s="155" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="E498" s="153" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F498" s="158" t="s">
         <v>13</v>
@@ -32785,13 +32826,13 @@
         <v>1</v>
       </c>
       <c r="C499" s="153" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="D499" s="157" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="E499" s="153" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F499" s="158" t="s">
         <v>13</v>
@@ -32823,13 +32864,13 @@
         <v>1</v>
       </c>
       <c r="C500" s="153" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="D500" s="157" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="E500" s="153" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="F500" s="158" t="s">
         <v>13</v>
@@ -32861,13 +32902,13 @@
         <v>1</v>
       </c>
       <c r="C501" s="153" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="D501" s="157" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E501" s="153" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="F501" s="158" t="s">
         <v>13</v>
@@ -32899,13 +32940,13 @@
         <v>1</v>
       </c>
       <c r="C502" s="153" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="D502" s="155" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="E502" s="153" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="F502" s="158" t="s">
         <v>13</v>
@@ -32937,13 +32978,13 @@
         <v>1</v>
       </c>
       <c r="C503" s="153" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D503" s="155" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E503" s="153" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="F503" s="158" t="s">
         <v>13</v>
@@ -32975,13 +33016,13 @@
         <v>1</v>
       </c>
       <c r="C504" s="153" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D504" s="155" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="E504" s="153" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="F504" s="158" t="s">
         <v>13</v>
@@ -33013,16 +33054,16 @@
         <v>1</v>
       </c>
       <c r="C505" s="153" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D505" s="155" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="E505" s="153" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="F505" s="158" t="s">
-        <v>13</v>
+        <v>2002</v>
       </c>
       <c r="G505" s="152">
         <v>21452</v>
@@ -33051,16 +33092,16 @@
         <v>1</v>
       </c>
       <c r="C506" s="167" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D506" s="167" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E506" s="167" t="s">
         <v>1959</v>
       </c>
-      <c r="D506" s="167" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E506" s="167" t="s">
-        <v>1961</v>
-      </c>
       <c r="F506" s="168" t="s">
-        <v>13</v>
+        <v>2009</v>
       </c>
       <c r="G506" s="167">
         <v>21453</v>
@@ -33081,169 +33122,389 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="507" spans="1:12" s="190" customFormat="1">
+    <row r="507" spans="1:12" s="189" customFormat="1">
       <c r="A507" s="152">
         <v>1000096</v>
       </c>
-      <c r="B507" s="190">
-        <v>1</v>
-      </c>
-      <c r="C507" s="190" t="s">
+      <c r="B507" s="189">
+        <v>1</v>
+      </c>
+      <c r="C507" s="189" t="s">
         <v>1638</v>
       </c>
-      <c r="D507" s="190" t="s">
+      <c r="D507" s="189" t="s">
         <v>1641</v>
       </c>
-      <c r="E507" s="191" t="s">
+      <c r="E507" s="190" t="s">
         <v>1637</v>
       </c>
-      <c r="F507" s="191" t="s">
+      <c r="F507" s="190" t="s">
         <v>1636</v>
       </c>
-      <c r="G507" s="190">
+      <c r="G507" s="189">
         <v>21407</v>
       </c>
-      <c r="H507" s="191" t="b">
-        <v>1</v>
-      </c>
-      <c r="I507" s="190">
-        <v>1</v>
-      </c>
-      <c r="J507" s="190">
+      <c r="H507" s="190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I507" s="189">
+        <v>1</v>
+      </c>
+      <c r="J507" s="189">
         <v>1602518400</v>
       </c>
-      <c r="K507" s="190">
+      <c r="K507" s="189">
         <v>1603123199</v>
       </c>
-      <c r="L507" s="190">
+      <c r="L507" s="189">
         <v>-1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" s="190" customFormat="1">
+    <row r="508" spans="1:12" s="189" customFormat="1">
       <c r="A508" s="152">
         <v>1000097</v>
       </c>
-      <c r="B508" s="190">
-        <v>1</v>
-      </c>
-      <c r="C508" s="190" t="s">
+      <c r="B508" s="189">
+        <v>1</v>
+      </c>
+      <c r="C508" s="189" t="s">
         <v>1639</v>
       </c>
-      <c r="D508" s="190" t="s">
+      <c r="D508" s="189" t="s">
         <v>1642</v>
       </c>
-      <c r="E508" s="190" t="s">
+      <c r="E508" s="189" t="s">
         <v>1637</v>
       </c>
-      <c r="F508" s="191" t="s">
+      <c r="F508" s="190" t="s">
         <v>1636</v>
       </c>
-      <c r="G508" s="190">
+      <c r="G508" s="189">
         <v>21408</v>
       </c>
-      <c r="H508" s="191" t="b">
-        <v>1</v>
-      </c>
-      <c r="I508" s="190">
-        <v>1</v>
-      </c>
-      <c r="J508" s="190">
+      <c r="H508" s="190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I508" s="189">
+        <v>1</v>
+      </c>
+      <c r="J508" s="189">
         <v>1602518400</v>
       </c>
-      <c r="K508" s="190">
+      <c r="K508" s="189">
         <v>1603123199</v>
       </c>
-      <c r="L508" s="190">
+      <c r="L508" s="189">
         <v>-1</v>
       </c>
     </row>
-    <row r="509" spans="1:12" s="190" customFormat="1">
+    <row r="509" spans="1:12" s="189" customFormat="1">
       <c r="A509" s="152">
         <v>1000098</v>
       </c>
-      <c r="B509" s="190">
-        <v>1</v>
-      </c>
-      <c r="C509" s="190" t="s">
+      <c r="B509" s="189">
+        <v>1</v>
+      </c>
+      <c r="C509" s="189" t="s">
         <v>1640</v>
       </c>
-      <c r="D509" s="190" t="s">
+      <c r="D509" s="189" t="s">
         <v>1643</v>
       </c>
-      <c r="E509" s="190" t="s">
+      <c r="E509" s="189" t="s">
         <v>1637</v>
       </c>
-      <c r="F509" s="190" t="s">
+      <c r="F509" s="189" t="s">
         <v>1636</v>
       </c>
-      <c r="G509" s="190">
+      <c r="G509" s="189">
         <v>21409</v>
       </c>
-      <c r="H509" s="191" t="b">
-        <v>1</v>
-      </c>
-      <c r="I509" s="190">
-        <v>1</v>
-      </c>
-      <c r="J509" s="190">
+      <c r="H509" s="190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I509" s="189">
+        <v>1</v>
+      </c>
+      <c r="J509" s="189">
         <v>1602518400</v>
       </c>
-      <c r="K509" s="190">
+      <c r="K509" s="189">
         <v>1603123199</v>
       </c>
-      <c r="L509" s="190">
+      <c r="L509" s="189">
         <v>-1</v>
       </c>
     </row>
-    <row r="510" spans="1:12" s="12" customFormat="1" ht="16.5">
-      <c r="C510" s="16"/>
-      <c r="D510" s="176"/>
-      <c r="E510" s="16"/>
-      <c r="F510" s="175"/>
-    </row>
-    <row r="513" spans="3:6" s="12" customFormat="1" ht="16.5">
-      <c r="C513" s="16"/>
+    <row r="510" spans="1:12" s="146" customFormat="1" ht="16.5">
+      <c r="A510" s="146">
+        <v>1000099</v>
+      </c>
+      <c r="B510" s="146">
+        <v>1</v>
+      </c>
+      <c r="C510" s="199" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D510" s="200"/>
+      <c r="E510" s="199" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F510" s="201" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G510" s="146">
+        <v>21410</v>
+      </c>
+      <c r="H510" s="199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I510" s="146">
+        <v>1</v>
+      </c>
+      <c r="J510" s="146">
+        <v>1602518400</v>
+      </c>
+      <c r="K510" s="146">
+        <v>32503651200</v>
+      </c>
+      <c r="L510" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" ht="16.5">
+      <c r="A511" s="152">
+        <v>1000100</v>
+      </c>
+      <c r="B511" s="7">
+        <v>1</v>
+      </c>
+      <c r="C511" s="7">
+        <v>1</v>
+      </c>
+      <c r="E511" s="197" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F511" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G511" s="167">
+        <v>21392.2</v>
+      </c>
+      <c r="H511" s="199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I511" s="7">
+        <v>1</v>
+      </c>
+      <c r="J511" s="146">
+        <v>1602518400</v>
+      </c>
+      <c r="K511" s="146">
+        <v>32503651200</v>
+      </c>
+      <c r="L511" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" ht="16.5">
+      <c r="A512" s="152">
+        <v>1000101</v>
+      </c>
+      <c r="B512" s="7">
+        <v>1</v>
+      </c>
+      <c r="C512" s="7">
+        <v>2</v>
+      </c>
+      <c r="E512" s="197" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F512" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G512" s="189">
+        <v>21383.8</v>
+      </c>
+      <c r="H512" s="199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I512" s="7">
+        <v>1</v>
+      </c>
+      <c r="J512" s="146">
+        <v>1602518400</v>
+      </c>
+      <c r="K512" s="146">
+        <v>32503651200</v>
+      </c>
+      <c r="L512" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" s="12" customFormat="1" ht="16.5">
+      <c r="A513" s="152">
+        <v>1000102</v>
+      </c>
+      <c r="B513" s="7">
+        <v>1</v>
+      </c>
+      <c r="C513" s="16">
+        <v>3</v>
+      </c>
       <c r="D513" s="11"/>
-      <c r="E513" s="16"/>
-      <c r="F513" s="175"/>
-    </row>
-    <row r="514" spans="3:6" s="12" customFormat="1" ht="16.5">
-      <c r="C514" s="16"/>
+      <c r="E513" s="197" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F513" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G513" s="189">
+        <v>21375.4</v>
+      </c>
+      <c r="H513" s="199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I513" s="7">
+        <v>1</v>
+      </c>
+      <c r="J513" s="146">
+        <v>1602518400</v>
+      </c>
+      <c r="K513" s="146">
+        <v>32503651200</v>
+      </c>
+      <c r="L513" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" s="12" customFormat="1" ht="16.5">
+      <c r="A514" s="146">
+        <v>1000103</v>
+      </c>
+      <c r="B514" s="7">
+        <v>1</v>
+      </c>
+      <c r="C514" s="16">
+        <v>4</v>
+      </c>
       <c r="D514" s="11"/>
-      <c r="E514" s="16"/>
-      <c r="F514" s="175"/>
-    </row>
-    <row r="515" spans="3:6" s="12" customFormat="1" ht="16.5">
-      <c r="C515" s="16"/>
+      <c r="E514" s="197" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F514" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G514" s="189">
+        <v>21367</v>
+      </c>
+      <c r="H514" s="199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I514" s="7">
+        <v>1</v>
+      </c>
+      <c r="J514" s="146">
+        <v>1602518400</v>
+      </c>
+      <c r="K514" s="146">
+        <v>32503651200</v>
+      </c>
+      <c r="L514" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" s="12" customFormat="1" ht="16.5">
+      <c r="A515" s="152">
+        <v>1000104</v>
+      </c>
+      <c r="B515" s="7">
+        <v>1</v>
+      </c>
+      <c r="C515" s="16">
+        <v>5</v>
+      </c>
       <c r="D515" s="11"/>
-      <c r="E515" s="16"/>
-      <c r="F515" s="175"/>
-    </row>
-    <row r="516" spans="3:6" s="12" customFormat="1" ht="16.5">
-      <c r="C516" s="16"/>
+      <c r="E515" s="197" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F515" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G515" s="146">
+        <v>21358.6</v>
+      </c>
+      <c r="H515" s="199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I515" s="7">
+        <v>1</v>
+      </c>
+      <c r="J515" s="146">
+        <v>1602518400</v>
+      </c>
+      <c r="K515" s="146">
+        <v>32503651200</v>
+      </c>
+      <c r="L515" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" s="12" customFormat="1" ht="16.5">
+      <c r="A516" s="152">
+        <v>1000105</v>
+      </c>
+      <c r="B516" s="7">
+        <v>1</v>
+      </c>
+      <c r="C516" s="16">
+        <v>6</v>
+      </c>
       <c r="D516" s="11"/>
-      <c r="E516" s="16"/>
-      <c r="F516" s="175"/>
-    </row>
-    <row r="517" spans="3:6" s="12" customFormat="1" ht="16.5">
+      <c r="E516" s="197" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F516" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G516" s="167">
+        <v>21350.2</v>
+      </c>
+      <c r="H516" s="199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I516" s="7">
+        <v>1</v>
+      </c>
+      <c r="J516" s="146">
+        <v>1602518400</v>
+      </c>
+      <c r="K516" s="146">
+        <v>32503651200</v>
+      </c>
+      <c r="L516" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" s="12" customFormat="1" ht="16.5">
       <c r="C517" s="16"/>
       <c r="D517" s="11"/>
       <c r="E517" s="16"/>
       <c r="F517" s="175"/>
     </row>
-    <row r="518" spans="3:6" s="12" customFormat="1" ht="16.5">
+    <row r="518" spans="1:12" s="12" customFormat="1" ht="16.5">
       <c r="C518" s="16"/>
       <c r="D518" s="11"/>
       <c r="E518" s="16"/>
       <c r="F518" s="175"/>
     </row>
-    <row r="519" spans="3:6" s="12" customFormat="1" ht="16.5">
+    <row r="519" spans="1:12" s="12" customFormat="1" ht="16.5">
       <c r="C519" s="16"/>
       <c r="D519" s="11"/>
       <c r="E519" s="16"/>
       <c r="F519" s="175"/>
     </row>
-    <row r="526" spans="3:6">
+    <row r="526" spans="1:12">
       <c r="C526" s="48"/>
     </row>
   </sheetData>
@@ -33259,11 +33520,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K519"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G499" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L507" sqref="L507"/>
+      <selection pane="bottomRight" activeCell="D510" sqref="D510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -45226,7 +45487,7 @@
         <v>1716</v>
       </c>
       <c r="G472" s="107"/>
-      <c r="H472" s="180">
+      <c r="H472" s="179">
         <v>724</v>
       </c>
       <c r="I472" s="105" t="s">
@@ -45249,7 +45510,7 @@
         <v>1743</v>
       </c>
       <c r="G473" s="34"/>
-      <c r="H473" s="180">
+      <c r="H473" s="179">
         <v>724</v>
       </c>
       <c r="I473" s="13" t="s">
@@ -45272,7 +45533,7 @@
         <v>1744</v>
       </c>
       <c r="G474" s="34"/>
-      <c r="H474" s="180">
+      <c r="H474" s="179">
         <v>724</v>
       </c>
       <c r="I474" s="13" t="s">
@@ -45292,7 +45553,7 @@
       <c r="F475" s="110" t="s">
         <v>1726</v>
       </c>
-      <c r="H475" s="180">
+      <c r="H475" s="179">
         <v>724</v>
       </c>
       <c r="I475" s="14" t="s">
@@ -45312,7 +45573,7 @@
       <c r="F476" s="110" t="s">
         <v>1736</v>
       </c>
-      <c r="H476" s="180">
+      <c r="H476" s="179">
         <v>724</v>
       </c>
       <c r="I476" s="14" t="s">
@@ -45332,7 +45593,7 @@
       <c r="F477" s="110" t="s">
         <v>1738</v>
       </c>
-      <c r="H477" s="180">
+      <c r="H477" s="179">
         <v>724</v>
       </c>
       <c r="I477" s="14" t="s">
@@ -45352,7 +45613,7 @@
       <c r="F478" s="110" t="s">
         <v>1732</v>
       </c>
-      <c r="H478" s="180">
+      <c r="H478" s="179">
         <v>724</v>
       </c>
       <c r="I478" s="14" t="s">
@@ -45435,7 +45696,7 @@
       </c>
       <c r="E482" s="131"/>
       <c r="F482" s="135" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="G482" s="132"/>
       <c r="H482" s="136" t="s">
@@ -45458,14 +45719,14 @@
       </c>
       <c r="E483" s="139"/>
       <c r="F483" s="145" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="G483" s="140"/>
       <c r="H483" s="144" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="I483" s="143" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="484" spans="1:9" s="142" customFormat="1">
@@ -45481,14 +45742,14 @@
       </c>
       <c r="E484" s="139"/>
       <c r="F484" s="145" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="G484" s="140"/>
       <c r="H484" s="141" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I484" s="143" t="s">
         <v>1836</v>
-      </c>
-      <c r="I484" s="143" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="485" spans="1:9" s="142" customFormat="1">
@@ -45504,14 +45765,14 @@
       </c>
       <c r="E485" s="139"/>
       <c r="F485" s="145" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="G485" s="140"/>
       <c r="H485" s="144" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I485" s="143" t="s">
         <v>1836</v>
-      </c>
-      <c r="I485" s="143" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="486" spans="1:9" s="142" customFormat="1">
@@ -45527,14 +45788,14 @@
       </c>
       <c r="E486" s="139"/>
       <c r="F486" s="145" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="G486" s="140"/>
       <c r="H486" s="141" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I486" s="143" t="s">
         <v>1836</v>
-      </c>
-      <c r="I486" s="143" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="487" spans="1:9" s="142" customFormat="1">
@@ -45550,14 +45811,14 @@
       </c>
       <c r="E487" s="139"/>
       <c r="F487" s="145" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="G487" s="140"/>
       <c r="H487" s="144" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I487" s="143" t="s">
         <v>1836</v>
-      </c>
-      <c r="I487" s="143" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="488" spans="1:9" s="142" customFormat="1">
@@ -45573,14 +45834,14 @@
       </c>
       <c r="E488" s="139"/>
       <c r="F488" s="145" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="G488" s="140"/>
       <c r="H488" s="141" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I488" s="143" t="s">
         <v>1836</v>
-      </c>
-      <c r="I488" s="143" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="489" spans="1:9" s="142" customFormat="1">
@@ -45596,14 +45857,14 @@
       </c>
       <c r="E489" s="139"/>
       <c r="F489" s="145" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="G489" s="140"/>
       <c r="H489" s="144" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I489" s="143" t="s">
         <v>1836</v>
-      </c>
-      <c r="I489" s="143" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="490" spans="1:9" s="154" customFormat="1">
@@ -45619,16 +45880,16 @@
       </c>
       <c r="E490" s="155"/>
       <c r="F490" s="161" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G490" s="159" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H490" s="162" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="I490" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="491" spans="1:9" s="154" customFormat="1">
@@ -45644,14 +45905,14 @@
       </c>
       <c r="E491" s="155"/>
       <c r="F491" s="161" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="G491" s="159"/>
       <c r="H491" s="162" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="I491" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="492" spans="1:9" s="154" customFormat="1">
@@ -45667,14 +45928,14 @@
       </c>
       <c r="E492" s="155"/>
       <c r="F492" s="161" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="G492" s="159"/>
       <c r="H492" s="160">
         <v>747</v>
       </c>
       <c r="I492" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="493" spans="1:9" s="154" customFormat="1">
@@ -45690,14 +45951,14 @@
       </c>
       <c r="E493" s="155"/>
       <c r="F493" s="161" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="G493" s="159"/>
       <c r="H493" s="160">
         <v>748</v>
       </c>
       <c r="I493" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="494" spans="1:9" s="154" customFormat="1">
@@ -45713,14 +45974,14 @@
       </c>
       <c r="E494" s="155"/>
       <c r="F494" s="161" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="G494" s="159"/>
       <c r="H494" s="160">
         <v>749</v>
       </c>
       <c r="I494" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="495" spans="1:9" s="154" customFormat="1">
@@ -45736,14 +45997,14 @@
       </c>
       <c r="E495" s="155"/>
       <c r="F495" s="161" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="G495" s="159"/>
       <c r="H495" s="160">
         <v>750</v>
       </c>
       <c r="I495" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="496" spans="1:9" s="154" customFormat="1">
@@ -45759,14 +46020,14 @@
       </c>
       <c r="E496" s="155"/>
       <c r="F496" s="161" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="G496" s="159"/>
       <c r="H496" s="160">
         <v>751</v>
       </c>
       <c r="I496" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="497" spans="1:9" s="154" customFormat="1">
@@ -45782,14 +46043,14 @@
       </c>
       <c r="E497" s="155"/>
       <c r="F497" s="161" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="G497" s="159"/>
       <c r="H497" s="162" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="I497" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="498" spans="1:9" s="154" customFormat="1">
@@ -45805,14 +46066,14 @@
       </c>
       <c r="E498" s="155"/>
       <c r="F498" s="161" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="G498" s="159"/>
       <c r="H498" s="160">
         <v>757</v>
       </c>
       <c r="I498" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="499" spans="1:9" s="154" customFormat="1">
@@ -45828,14 +46089,14 @@
       </c>
       <c r="E499" s="155"/>
       <c r="F499" s="161" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="G499" s="159"/>
       <c r="H499" s="162" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="I499" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="500" spans="1:9" s="154" customFormat="1">
@@ -45851,14 +46112,14 @@
       </c>
       <c r="E500" s="155"/>
       <c r="F500" s="161" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="G500" s="159"/>
       <c r="H500" s="162" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="I500" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="501" spans="1:9" s="154" customFormat="1">
@@ -45881,7 +46142,7 @@
         <v>767</v>
       </c>
       <c r="I501" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="502" spans="1:9" s="154" customFormat="1">
@@ -45904,7 +46165,7 @@
         <v>768</v>
       </c>
       <c r="I502" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="503" spans="1:9" s="154" customFormat="1">
@@ -45920,14 +46181,14 @@
       </c>
       <c r="E503" s="155"/>
       <c r="F503" s="161" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="G503" s="159"/>
       <c r="H503" s="160">
         <v>769</v>
       </c>
       <c r="I503" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="504" spans="1:9" s="154" customFormat="1">
@@ -45943,14 +46204,14 @@
       </c>
       <c r="E504" s="155"/>
       <c r="F504" s="161" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="G504" s="159"/>
       <c r="H504" s="160">
         <v>770</v>
       </c>
       <c r="I504" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="505" spans="1:9" s="154" customFormat="1">
@@ -45966,14 +46227,14 @@
       </c>
       <c r="E505" s="155"/>
       <c r="F505" s="161" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="G505" s="159"/>
       <c r="H505" s="160">
         <v>771</v>
       </c>
       <c r="I505" s="157" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="506" spans="1:9" s="171" customFormat="1">
@@ -45987,77 +46248,91 @@
       <c r="D506" s="169"/>
       <c r="E506" s="169"/>
       <c r="F506" s="172" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="G506" s="170"/>
       <c r="H506" s="174" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I506" s="173" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" s="197" customFormat="1">
-      <c r="A507" s="193">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" s="196" customFormat="1">
+      <c r="A507" s="192">
         <v>506</v>
       </c>
-      <c r="B507" s="190">
+      <c r="B507" s="189">
         <v>21454</v>
       </c>
-      <c r="C507" s="193"/>
-      <c r="D507" s="193"/>
-      <c r="E507" s="193"/>
-      <c r="F507" s="194" t="s">
+      <c r="C507" s="192"/>
+      <c r="D507" s="192"/>
+      <c r="E507" s="192"/>
+      <c r="F507" s="193" t="s">
         <v>1644</v>
       </c>
-      <c r="G507" s="194" t="s">
+      <c r="G507" s="193" t="s">
         <v>969</v>
       </c>
-      <c r="H507" s="195"/>
-      <c r="I507" s="196" t="s">
+      <c r="H507" s="194"/>
+      <c r="I507" s="195" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="508" spans="1:9" s="197" customFormat="1">
-      <c r="A508" s="193">
+    <row r="508" spans="1:9" s="196" customFormat="1">
+      <c r="A508" s="192">
         <v>507</v>
       </c>
-      <c r="B508" s="190">
+      <c r="B508" s="189">
         <v>21455</v>
       </c>
-      <c r="C508" s="193"/>
-      <c r="D508" s="193"/>
-      <c r="E508" s="193"/>
-      <c r="F508" s="194" t="s">
+      <c r="C508" s="192"/>
+      <c r="D508" s="192"/>
+      <c r="E508" s="192"/>
+      <c r="F508" s="193" t="s">
         <v>1644</v>
       </c>
-      <c r="G508" s="194" t="s">
+      <c r="G508" s="193" t="s">
         <v>969</v>
       </c>
-      <c r="H508" s="195"/>
-      <c r="I508" s="196" t="s">
+      <c r="H508" s="194"/>
+      <c r="I508" s="195" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="509" spans="1:9" s="197" customFormat="1">
-      <c r="A509" s="193">
+    <row r="509" spans="1:9" s="196" customFormat="1">
+      <c r="A509" s="192">
         <v>508</v>
       </c>
-      <c r="B509" s="190">
+      <c r="B509" s="189">
         <v>21456</v>
       </c>
-      <c r="C509" s="193"/>
-      <c r="D509" s="193"/>
-      <c r="E509" s="193"/>
-      <c r="F509" s="194" t="s">
+      <c r="C509" s="192"/>
+      <c r="D509" s="192"/>
+      <c r="E509" s="192"/>
+      <c r="F509" s="193" t="s">
         <v>1644</v>
       </c>
-      <c r="G509" s="194" t="s">
+      <c r="G509" s="193" t="s">
         <v>969</v>
       </c>
-      <c r="H509" s="195"/>
-      <c r="I509" s="196" t="s">
+      <c r="H509" s="194"/>
+      <c r="I509" s="195" t="s">
         <v>856</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" s="1">
+        <v>509</v>
+      </c>
+      <c r="B510" s="189">
+        <v>21457</v>
+      </c>
+      <c r="D510" s="1">
+        <v>497</v>
+      </c>
+      <c r="F510" s="110" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="512" spans="1:9" s="6" customFormat="1">
@@ -46150,8 +46425,8 @@
   <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D704" sqref="D704"/>
+      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D705" sqref="D705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -56041,7 +56316,7 @@
         <v>473</v>
       </c>
       <c r="C681" s="134" t="s">
-        <v>1824</v>
+        <v>1030</v>
       </c>
       <c r="D681" s="131">
         <v>334</v>
@@ -56055,7 +56330,7 @@
         <v>474</v>
       </c>
       <c r="C682" s="143" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D682" s="139">
         <v>335</v>
@@ -56069,7 +56344,7 @@
         <v>475</v>
       </c>
       <c r="C683" s="139" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D683" s="139">
         <v>336</v>
@@ -56083,7 +56358,7 @@
         <v>476</v>
       </c>
       <c r="C684" s="143" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D684" s="139">
         <v>337</v>
@@ -56097,7 +56372,7 @@
         <v>477</v>
       </c>
       <c r="C685" s="143" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D685" s="139">
         <v>338</v>
@@ -56125,7 +56400,7 @@
         <v>479</v>
       </c>
       <c r="C687" s="143" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D687" s="139">
         <v>340</v>
@@ -56139,7 +56414,7 @@
         <v>480</v>
       </c>
       <c r="C688" s="143" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="D688" s="139">
         <v>341</v>
@@ -56153,7 +56428,7 @@
         <v>481</v>
       </c>
       <c r="C689" s="157" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="D689" s="152">
         <v>0</v>
@@ -56167,7 +56442,7 @@
         <v>482</v>
       </c>
       <c r="C690" s="157" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D690" s="152">
         <v>0</v>
@@ -56181,7 +56456,7 @@
         <v>483</v>
       </c>
       <c r="C691" s="155" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D691" s="152">
         <v>342</v>
@@ -56195,7 +56470,7 @@
         <v>484</v>
       </c>
       <c r="C692" s="157" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D692" s="152">
         <v>343</v>
@@ -56209,7 +56484,7 @@
         <v>485</v>
       </c>
       <c r="C693" s="155" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D693" s="152">
         <v>344</v>
@@ -56223,7 +56498,7 @@
         <v>486</v>
       </c>
       <c r="C694" s="157" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D694" s="152">
         <v>345</v>
@@ -56237,7 +56512,7 @@
         <v>487</v>
       </c>
       <c r="C695" s="155" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D695" s="152">
         <v>346</v>
@@ -56251,7 +56526,7 @@
         <v>488</v>
       </c>
       <c r="C696" s="156" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="D696" s="152">
         <v>0</v>
@@ -56265,7 +56540,7 @@
         <v>489</v>
       </c>
       <c r="C697" s="157" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="D697" s="152">
         <v>347</v>
@@ -56279,7 +56554,7 @@
         <v>490</v>
       </c>
       <c r="C698" s="157" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="D698" s="152">
         <v>348</v>
@@ -56293,7 +56568,7 @@
         <v>491</v>
       </c>
       <c r="C699" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D699" s="152">
         <v>349</v>
@@ -56321,7 +56596,7 @@
         <v>493</v>
       </c>
       <c r="C701" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D701" s="152">
         <v>351</v>
@@ -56335,7 +56610,7 @@
         <v>494</v>
       </c>
       <c r="C702" s="155" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D702" s="152">
         <v>352</v>
@@ -56349,7 +56624,7 @@
         <v>495</v>
       </c>
       <c r="C703" s="155" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="D703" s="152">
         <v>353</v>
@@ -56363,17 +56638,31 @@
         <v>496</v>
       </c>
       <c r="C704" s="157" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="D704" s="152">
         <v>354</v>
       </c>
     </row>
-    <row r="708" spans="1:4" s="179" customFormat="1">
-      <c r="A708" s="178"/>
-      <c r="B708" s="178"/>
-      <c r="C708" s="178"/>
-      <c r="D708" s="177"/>
+    <row r="705" spans="1:4">
+      <c r="A705" s="155">
+        <v>704</v>
+      </c>
+      <c r="B705" s="155">
+        <v>497</v>
+      </c>
+      <c r="C705" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="D705" s="28">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" s="178" customFormat="1">
+      <c r="A708" s="177"/>
+      <c r="B708" s="177"/>
+      <c r="C708" s="177"/>
+      <c r="D708" s="176"/>
     </row>
     <row r="711" spans="1:4" s="6" customFormat="1">
       <c r="A711" s="11"/>
@@ -56439,7 +56728,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C454" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D471" sqref="D471"/>
+      <selection pane="bottomRight" activeCell="C480" sqref="C480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -63162,7 +63451,7 @@
         <v>1329</v>
       </c>
       <c r="D359" s="150" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="E359" s="93">
         <v>2</v>
@@ -63764,7 +64053,7 @@
         <v>1584</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -64804,11 +65093,11 @@
       <c r="B455" s="146">
         <v>334</v>
       </c>
-      <c r="C455" s="147" t="s">
-        <v>681</v>
+      <c r="C455" s="198" t="s">
+        <v>2005</v>
       </c>
       <c r="D455" s="148" t="s">
-        <v>1825</v>
+        <v>2007</v>
       </c>
       <c r="E455" s="147">
         <v>2</v>
@@ -64823,10 +65112,10 @@
         <v>335</v>
       </c>
       <c r="C456" s="143" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D456" s="144" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="E456" s="139">
         <v>3</v>
@@ -64841,10 +65130,10 @@
         <v>336</v>
       </c>
       <c r="C457" s="143" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="D457" s="144" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="E457" s="139">
         <v>2</v>
@@ -64859,10 +65148,10 @@
         <v>337</v>
       </c>
       <c r="C458" s="143" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D458" s="144" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="E458" s="139">
         <v>3</v>
@@ -64877,10 +65166,10 @@
         <v>338</v>
       </c>
       <c r="C459" s="143" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D459" s="144" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="E459" s="139">
         <v>2</v>
@@ -64895,10 +65184,10 @@
         <v>338</v>
       </c>
       <c r="C460" s="143" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="D460" s="144" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="E460" s="139">
         <v>3</v>
@@ -64913,10 +65202,10 @@
         <v>339</v>
       </c>
       <c r="C461" s="143" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="D461" s="144" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="E461" s="139">
         <v>3</v>
@@ -64931,10 +65220,10 @@
         <v>339</v>
       </c>
       <c r="C462" s="143" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D462" s="144" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="E462" s="139">
         <v>3</v>
@@ -64949,10 +65238,10 @@
         <v>340</v>
       </c>
       <c r="C463" s="143" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="D463" s="144" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="E463" s="139">
         <v>3</v>
@@ -64967,10 +65256,10 @@
         <v>341</v>
       </c>
       <c r="C464" s="143" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D464" s="144" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="E464" s="139">
         <v>2</v>
@@ -64988,7 +65277,7 @@
         <v>731</v>
       </c>
       <c r="D465" s="162" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E465" s="155">
         <v>2</v>
@@ -65006,7 +65295,7 @@
         <v>731</v>
       </c>
       <c r="D466" s="162" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E466" s="155">
         <v>2</v>
@@ -65024,7 +65313,7 @@
         <v>731</v>
       </c>
       <c r="D467" s="162" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="E467" s="155">
         <v>2</v>
@@ -65042,7 +65331,7 @@
         <v>731</v>
       </c>
       <c r="D468" s="162" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E468" s="155">
         <v>2</v>
@@ -65060,7 +65349,7 @@
         <v>731</v>
       </c>
       <c r="D469" s="162" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E469" s="155">
         <v>2</v>
@@ -65075,10 +65364,10 @@
         <v>347</v>
       </c>
       <c r="C470" s="157" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D470" s="162" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="E470" s="155">
         <v>2</v>
@@ -65093,33 +65382,33 @@
         <v>348</v>
       </c>
       <c r="C471" s="157" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D471" s="160" t="s">
         <v>1903</v>
-      </c>
-      <c r="D471" s="160" t="s">
-        <v>1905</v>
       </c>
       <c r="E471" s="155">
         <v>2</v>
       </c>
       <c r="F471" s="155"/>
     </row>
-    <row r="472" spans="1:6" s="189" customFormat="1">
-      <c r="A472" s="186">
+    <row r="472" spans="1:6" s="188" customFormat="1">
+      <c r="A472" s="185">
         <v>501</v>
       </c>
-      <c r="B472" s="186">
+      <c r="B472" s="185">
         <v>349</v>
       </c>
-      <c r="C472" s="187" t="s">
+      <c r="C472" s="186" t="s">
         <v>1584</v>
       </c>
-      <c r="D472" s="188" t="s">
-        <v>1995</v>
-      </c>
-      <c r="E472" s="185">
+      <c r="D472" s="187" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E472" s="184">
         <v>2</v>
       </c>
-      <c r="F472" s="185"/>
+      <c r="F472" s="184"/>
     </row>
     <row r="473" spans="1:6" s="154" customFormat="1">
       <c r="A473" s="152">
@@ -65132,7 +65421,7 @@
         <v>718</v>
       </c>
       <c r="D473" s="162" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="E473" s="155">
         <v>3</v>
@@ -65147,10 +65436,10 @@
         <v>351</v>
       </c>
       <c r="C474" s="157" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="D474" s="162" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="E474" s="155">
         <v>3</v>
@@ -65165,10 +65454,10 @@
         <v>351</v>
       </c>
       <c r="C475" s="157" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="D475" s="162" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="E475" s="155">
         <v>3</v>
@@ -65176,7 +65465,7 @@
       <c r="F475" s="155"/>
     </row>
     <row r="476" spans="1:6" s="154" customFormat="1">
-      <c r="A476" s="186">
+      <c r="A476" s="185">
         <v>505</v>
       </c>
       <c r="B476" s="152">
@@ -65186,7 +65475,7 @@
         <v>718</v>
       </c>
       <c r="D476" s="162" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="E476" s="155">
         <v>3</v>
@@ -65201,10 +65490,10 @@
         <v>353</v>
       </c>
       <c r="C477" s="157" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="D477" s="162" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E477" s="155">
         <v>3</v>
@@ -65219,10 +65508,10 @@
         <v>353</v>
       </c>
       <c r="C478" s="157" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D478" s="162" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="E478" s="155">
         <v>3</v>
@@ -65240,12 +65529,29 @@
         <v>1419</v>
       </c>
       <c r="D479" s="162" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="E479" s="155">
         <v>3</v>
       </c>
       <c r="F479" s="155"/>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="12">
+        <v>509</v>
+      </c>
+      <c r="B480" s="12">
+        <v>355</v>
+      </c>
+      <c r="C480" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D480" s="27" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E480" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="482" spans="3:3">
       <c r="C482" s="13"/>
@@ -73527,7 +73833,7 @@
         <v>795</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="E387" s="27">
         <v>1000</v>
@@ -87851,7 +88157,7 @@
         <v>732</v>
       </c>
       <c r="D1109" s="14" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E1109" s="64" t="s">
         <v>1813</v>
@@ -87956,7 +88262,7 @@
         <v>877</v>
       </c>
       <c r="E1114" s="162" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="F1114" s="155">
         <v>1</v>
@@ -87974,10 +88280,10 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1115" s="162" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F1115" s="155">
         <v>1</v>
@@ -87998,7 +88304,7 @@
         <v>877</v>
       </c>
       <c r="E1116" s="162" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -88016,10 +88322,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1117" s="162" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -88040,7 +88346,7 @@
         <v>877</v>
       </c>
       <c r="E1118" s="162" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -88058,10 +88364,10 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1119" s="162" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F1119" s="155">
         <v>1</v>
@@ -88082,7 +88388,7 @@
         <v>877</v>
       </c>
       <c r="E1120" s="162" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="F1120" s="155">
         <v>1</v>
@@ -88100,10 +88406,10 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1121" s="162" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F1121" s="155">
         <v>1</v>
@@ -88124,7 +88430,7 @@
         <v>877</v>
       </c>
       <c r="E1122" s="162" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -88142,10 +88448,10 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1123" s="162" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F1123" s="155">
         <v>1</v>
@@ -88166,7 +88472,7 @@
         <v>877</v>
       </c>
       <c r="E1124" s="162" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -88184,10 +88490,10 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1125" s="162" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F1125" s="155">
         <v>1</v>
@@ -88208,7 +88514,7 @@
         <v>877</v>
       </c>
       <c r="E1126" s="162" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -88226,10 +88532,10 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1127" s="162" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F1127" s="155">
         <v>1</v>
@@ -88250,7 +88556,7 @@
         <v>877</v>
       </c>
       <c r="E1128" s="162" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -88268,10 +88574,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1129" s="162" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -88292,7 +88598,7 @@
         <v>877</v>
       </c>
       <c r="E1130" s="162" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -88310,10 +88616,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1131" s="162" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -88334,7 +88640,7 @@
         <v>877</v>
       </c>
       <c r="E1132" s="162" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -88352,10 +88658,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1133" s="162" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -88376,7 +88682,7 @@
         <v>877</v>
       </c>
       <c r="E1134" s="162" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="F1134" s="155">
         <v>1</v>
@@ -88394,10 +88700,10 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1135" s="162" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F1135" s="155">
         <v>1</v>
@@ -88418,7 +88724,7 @@
         <v>877</v>
       </c>
       <c r="E1136" s="162" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="F1136" s="155">
         <v>1</v>
@@ -88436,10 +88742,10 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1137" s="162" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F1137" s="155">
         <v>1</v>
@@ -88460,7 +88766,7 @@
         <v>877</v>
       </c>
       <c r="E1138" s="162" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="F1138" s="155">
         <v>1</v>
@@ -88478,10 +88784,10 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1139" s="162" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F1139" s="155">
         <v>1</v>
@@ -88502,7 +88808,7 @@
         <v>877</v>
       </c>
       <c r="E1140" s="162" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -88520,10 +88826,10 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1141" s="162" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F1141" s="155">
         <v>1</v>
@@ -88544,7 +88850,7 @@
         <v>877</v>
       </c>
       <c r="E1142" s="162" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -88562,10 +88868,10 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1143" s="162" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F1143" s="155">
         <v>1</v>
@@ -88586,7 +88892,7 @@
         <v>877</v>
       </c>
       <c r="E1144" s="162" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -88604,10 +88910,10 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1145" s="162" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F1145" s="155">
         <v>1</v>
@@ -88628,7 +88934,7 @@
         <v>877</v>
       </c>
       <c r="E1146" s="162" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -88646,10 +88952,10 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1147" s="162" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F1147" s="155">
         <v>1</v>
@@ -88670,7 +88976,7 @@
         <v>877</v>
       </c>
       <c r="E1148" s="162" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -88688,10 +88994,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1149" s="162" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -88712,7 +89018,7 @@
         <v>877</v>
       </c>
       <c r="E1150" s="162" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -88730,10 +89036,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1151" s="162" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -88754,7 +89060,7 @@
         <v>877</v>
       </c>
       <c r="E1152" s="162" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -88772,10 +89078,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1153" s="162" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -88796,7 +89102,7 @@
         <v>877</v>
       </c>
       <c r="E1154" s="162" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -88814,10 +89120,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1155" s="162" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -88838,7 +89144,7 @@
         <v>877</v>
       </c>
       <c r="E1156" s="162" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -88856,10 +89162,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1157" s="162" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -88880,7 +89186,7 @@
         <v>877</v>
       </c>
       <c r="E1158" s="162" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -88898,10 +89204,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1159" s="162" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -88922,7 +89228,7 @@
         <v>877</v>
       </c>
       <c r="E1160" s="162" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -88940,10 +89246,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1161" s="162" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -88964,7 +89270,7 @@
         <v>877</v>
       </c>
       <c r="E1162" s="162" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -88982,10 +89288,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1163" s="162" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -89006,7 +89312,7 @@
         <v>877</v>
       </c>
       <c r="E1164" s="162" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -89024,10 +89330,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1165" s="162" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -89048,7 +89354,7 @@
         <v>877</v>
       </c>
       <c r="E1166" s="162" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -89066,10 +89372,10 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1167" s="162" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F1167" s="155">
         <v>1</v>
@@ -89090,7 +89396,7 @@
         <v>877</v>
       </c>
       <c r="E1168" s="162" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -89108,10 +89414,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1169" s="162" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -89132,7 +89438,7 @@
         <v>877</v>
       </c>
       <c r="E1170" s="162" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -89150,10 +89456,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1171" s="162" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -89174,7 +89480,7 @@
         <v>877</v>
       </c>
       <c r="E1172" s="162" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -89192,10 +89498,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1173" s="162" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -89216,7 +89522,7 @@
         <v>877</v>
       </c>
       <c r="E1174" s="162" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -89234,10 +89540,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1175" s="162" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -89258,7 +89564,7 @@
         <v>877</v>
       </c>
       <c r="E1176" s="162" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -89276,10 +89582,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1177" s="162" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -89300,7 +89606,7 @@
         <v>877</v>
       </c>
       <c r="E1178" s="162" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -89318,10 +89624,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1179" s="162" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -89342,7 +89648,7 @@
         <v>877</v>
       </c>
       <c r="E1180" s="162" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -89360,10 +89666,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1181" s="162" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -89384,7 +89690,7 @@
         <v>877</v>
       </c>
       <c r="E1182" s="162" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -89402,10 +89708,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1183" s="162" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>
@@ -89414,26 +89720,26 @@
       <c r="H1183" s="155"/>
       <c r="I1183" s="155"/>
     </row>
-    <row r="1184" spans="1:9" s="184" customFormat="1">
-      <c r="A1184" s="182">
+    <row r="1184" spans="1:9" s="183" customFormat="1">
+      <c r="A1184" s="181">
         <v>1183</v>
       </c>
-      <c r="B1184" s="183">
+      <c r="B1184" s="182">
         <v>772</v>
       </c>
-      <c r="C1184" s="183"/>
-      <c r="D1184" s="183" t="s">
-        <v>1964</v>
-      </c>
-      <c r="E1184" s="181" t="s">
-        <v>1993</v>
-      </c>
-      <c r="F1184" s="183">
-        <v>1</v>
-      </c>
-      <c r="G1184" s="183"/>
-      <c r="H1184" s="183"/>
-      <c r="I1184" s="183"/>
+      <c r="C1184" s="182"/>
+      <c r="D1184" s="182" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E1184" s="180" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F1184" s="182">
+        <v>1</v>
+      </c>
+      <c r="G1184" s="182"/>
+      <c r="H1184" s="182"/>
+      <c r="I1184" s="182"/>
     </row>
     <row r="1185" spans="1:9" s="171" customFormat="1">
       <c r="A1185" s="166">
@@ -89447,7 +89753,7 @@
         <v>877</v>
       </c>
       <c r="E1185" s="174" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="F1185" s="169">
         <v>1</v>
@@ -89468,7 +89774,7 @@
         <v>758</v>
       </c>
       <c r="E1186" s="174" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="F1186" s="169">
         <v>1</v>
@@ -89489,7 +89795,7 @@
         <v>758</v>
       </c>
       <c r="E1187" s="174" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="F1187" s="169">
         <v>1</v>
@@ -89510,7 +89816,7 @@
         <v>758</v>
       </c>
       <c r="E1188" s="174" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="F1188" s="169">
         <v>1</v>
@@ -89528,10 +89834,10 @@
       </c>
       <c r="C1189" s="173"/>
       <c r="D1189" s="169" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="E1189" s="174" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="F1189" s="169">
         <v>1</v>

--- a/config_11.17/task_zajindan_server.xlsx
+++ b/config_11.17/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6603" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6824" uniqueCount="2098">
   <si>
     <t>id|任务id</t>
   </si>
@@ -11063,10 +11063,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>common</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12310,10 +12306,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>一本万利主任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>normal</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12322,9 +12314,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>big_profit_task</t>
-  </si>
-  <si>
     <t>1,-1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -12334,9 +12323,6 @@
   </si>
   <si>
     <t>10350,10351,10352,10353,10354,10355,10356</t>
-  </si>
-  <si>
-    <t>10350,10351,10352,10353,10354,10355,10356</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -12345,13 +12331,1057 @@
   <si>
     <t>common</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>主任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0393,10394,10395,10396,10397,10398</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,200000,300000,400000,4000000,5000000,40000000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>778,779,780,781,782,783,784</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>785,786,787,788,789,790,791</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>792,793,794,795,796,797,798</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>799,800,801,802,803,804,805</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>806,807,808,809,810,811,812</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>813,814,815,816,817,818,819</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30000000,50000000,400000000,500000000,2000000000,2000000000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,821,822,823,824,825,826</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27,828,829,830,831,832,833</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_profit_task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,500000,4000000,5000000,10000000,30000000,50000000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,4000000,5000000,20000000,20000000,30000000,70000000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,4000000,5000000,10000000,30000000,50000000,200000000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,5000000,10000000,30000000,50000000,100000000,200000000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000000,10000000,30000000,50000000,200000000,300000000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,20000000,20000000,50000000,200000000,200000000,500000000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12463,8 +13493,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12627,6 +13664,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -12669,7 +13730,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13160,17 +14221,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -13215,9 +14266,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13228,6 +14276,104 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13516,11 +14662,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D500" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F494" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C516" sqref="C516"/>
+      <selection pane="bottomRight" activeCell="G510" sqref="G510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -31232,7 +32378,7 @@
       <c r="C457" s="16" t="s">
         <v>1629</v>
       </c>
-      <c r="D457" s="191" t="s">
+      <c r="D457" s="187" t="s">
         <v>1691</v>
       </c>
       <c r="E457" s="16" t="s">
@@ -31270,7 +32416,7 @@
       <c r="C458" s="16" t="s">
         <v>1630</v>
       </c>
-      <c r="D458" s="191" t="s">
+      <c r="D458" s="187" t="s">
         <v>1692</v>
       </c>
       <c r="E458" s="16" t="s">
@@ -31336,117 +32482,117 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="460" spans="1:12" s="189" customFormat="1">
-      <c r="A460" s="189">
+    <row r="460" spans="1:12" s="185" customFormat="1">
+      <c r="A460" s="185">
         <v>1000049</v>
       </c>
-      <c r="B460" s="189">
-        <v>1</v>
-      </c>
-      <c r="C460" s="189" t="s">
+      <c r="B460" s="185">
+        <v>1</v>
+      </c>
+      <c r="C460" s="185" t="s">
         <v>1638</v>
       </c>
-      <c r="D460" s="189" t="s">
+      <c r="D460" s="185" t="s">
         <v>1641</v>
       </c>
-      <c r="E460" s="190" t="s">
+      <c r="E460" s="186" t="s">
         <v>1766</v>
       </c>
-      <c r="F460" s="189" t="s">
+      <c r="F460" s="185" t="s">
         <v>1636</v>
       </c>
-      <c r="G460" s="189">
+      <c r="G460" s="185">
         <v>21407</v>
       </c>
-      <c r="H460" s="190" t="b">
-        <v>1</v>
-      </c>
-      <c r="I460" s="189">
-        <v>1</v>
-      </c>
-      <c r="J460" s="189">
+      <c r="H460" s="186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I460" s="185">
+        <v>1</v>
+      </c>
+      <c r="J460" s="185">
         <v>1602518400</v>
       </c>
-      <c r="K460" s="189">
+      <c r="K460" s="185">
         <v>1603123199</v>
       </c>
-      <c r="L460" s="189">
+      <c r="L460" s="185">
         <v>-1</v>
       </c>
     </row>
-    <row r="461" spans="1:12" s="189" customFormat="1">
-      <c r="A461" s="189">
+    <row r="461" spans="1:12" s="185" customFormat="1">
+      <c r="A461" s="185">
         <v>1000050</v>
       </c>
-      <c r="B461" s="189">
-        <v>1</v>
-      </c>
-      <c r="C461" s="189" t="s">
+      <c r="B461" s="185">
+        <v>1</v>
+      </c>
+      <c r="C461" s="185" t="s">
         <v>1639</v>
       </c>
-      <c r="D461" s="189" t="s">
+      <c r="D461" s="185" t="s">
         <v>1642</v>
       </c>
-      <c r="E461" s="189" t="s">
+      <c r="E461" s="185" t="s">
         <v>1637</v>
       </c>
-      <c r="F461" s="190" t="s">
+      <c r="F461" s="186" t="s">
         <v>1636</v>
       </c>
-      <c r="G461" s="189">
+      <c r="G461" s="185">
         <v>21408</v>
       </c>
-      <c r="H461" s="190" t="b">
-        <v>1</v>
-      </c>
-      <c r="I461" s="189">
-        <v>1</v>
-      </c>
-      <c r="J461" s="189">
+      <c r="H461" s="186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I461" s="185">
+        <v>1</v>
+      </c>
+      <c r="J461" s="185">
         <v>1602518400</v>
       </c>
-      <c r="K461" s="189">
+      <c r="K461" s="185">
         <v>1603123199</v>
       </c>
-      <c r="L461" s="189">
+      <c r="L461" s="185">
         <v>-1</v>
       </c>
     </row>
-    <row r="462" spans="1:12" s="189" customFormat="1">
-      <c r="A462" s="189">
+    <row r="462" spans="1:12" s="185" customFormat="1">
+      <c r="A462" s="185">
         <v>1000051</v>
       </c>
-      <c r="B462" s="189">
-        <v>1</v>
-      </c>
-      <c r="C462" s="189" t="s">
+      <c r="B462" s="185">
+        <v>1</v>
+      </c>
+      <c r="C462" s="185" t="s">
         <v>1640</v>
       </c>
-      <c r="D462" s="189" t="s">
+      <c r="D462" s="185" t="s">
         <v>1643</v>
       </c>
-      <c r="E462" s="189" t="s">
+      <c r="E462" s="185" t="s">
         <v>1637</v>
       </c>
-      <c r="F462" s="189" t="s">
+      <c r="F462" s="185" t="s">
         <v>1636</v>
       </c>
-      <c r="G462" s="189">
+      <c r="G462" s="185">
         <v>21409</v>
       </c>
-      <c r="H462" s="190" t="b">
-        <v>1</v>
-      </c>
-      <c r="I462" s="189">
-        <v>1</v>
-      </c>
-      <c r="J462" s="189">
+      <c r="H462" s="186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I462" s="185">
+        <v>1</v>
+      </c>
+      <c r="J462" s="185">
         <v>1602518400</v>
       </c>
-      <c r="K462" s="189">
+      <c r="K462" s="185">
         <v>1603123199</v>
       </c>
-      <c r="L462" s="189">
+      <c r="L462" s="185">
         <v>-1</v>
       </c>
     </row>
@@ -31498,7 +32644,7 @@
       <c r="C464" s="16" t="s">
         <v>1489</v>
       </c>
-      <c r="D464" s="191" t="s">
+      <c r="D464" s="187" t="s">
         <v>1667</v>
       </c>
       <c r="E464" s="16" t="s">
@@ -31536,7 +32682,7 @@
       <c r="C465" s="16" t="s">
         <v>1489</v>
       </c>
-      <c r="D465" s="191" t="s">
+      <c r="D465" s="187" t="s">
         <v>1668</v>
       </c>
       <c r="E465" s="16" t="s">
@@ -31688,7 +32834,7 @@
       <c r="C469" s="16" t="s">
         <v>1629</v>
       </c>
-      <c r="D469" s="191" t="s">
+      <c r="D469" s="187" t="s">
         <v>1694</v>
       </c>
       <c r="E469" s="16" t="s">
@@ -31726,7 +32872,7 @@
       <c r="C470" s="16" t="s">
         <v>1629</v>
       </c>
-      <c r="D470" s="191" t="s">
+      <c r="D470" s="187" t="s">
         <v>1695</v>
       </c>
       <c r="E470" s="16" t="s">
@@ -31961,7 +33107,7 @@
         <v>1501</v>
       </c>
       <c r="F476" s="48" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G476" s="7">
         <v>21423</v>
@@ -32183,13 +33329,13 @@
         <v>1815</v>
       </c>
       <c r="D482" s="129" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E482" s="130" t="s">
-        <v>1832</v>
+        <v>2084</v>
       </c>
       <c r="F482" s="130" t="s">
-        <v>13</v>
+        <v>2085</v>
       </c>
       <c r="G482" s="129">
         <v>21429</v>
@@ -32224,7 +33370,7 @@
         <v>1825</v>
       </c>
       <c r="E483" s="138" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F483" s="137" t="s">
         <v>13</v>
@@ -32262,7 +33408,7 @@
         <v>1826</v>
       </c>
       <c r="E484" s="138" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F484" s="137" t="s">
         <v>13</v>
@@ -32300,7 +33446,7 @@
         <v>1827</v>
       </c>
       <c r="E485" s="138" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F485" s="137" t="s">
         <v>13</v>
@@ -32338,7 +33484,7 @@
         <v>1828</v>
       </c>
       <c r="E486" s="138" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F486" s="137" t="s">
         <v>13</v>
@@ -32376,7 +33522,7 @@
         <v>1829</v>
       </c>
       <c r="E487" s="138" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F487" s="137" t="s">
         <v>13</v>
@@ -32414,7 +33560,7 @@
         <v>1830</v>
       </c>
       <c r="E488" s="138" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F488" s="137" t="s">
         <v>13</v>
@@ -32452,7 +33598,7 @@
         <v>1831</v>
       </c>
       <c r="E489" s="138" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F489" s="137" t="s">
         <v>13</v>
@@ -32484,13 +33630,13 @@
         <v>1</v>
       </c>
       <c r="C490" s="153" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D490" s="157" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E490" s="153" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F490" s="158" t="s">
         <v>13</v>
@@ -32522,13 +33668,13 @@
         <v>1</v>
       </c>
       <c r="C491" s="153" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D491" s="156" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E491" s="153" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="F491" s="158" t="s">
         <v>13</v>
@@ -32560,13 +33706,13 @@
         <v>1</v>
       </c>
       <c r="C492" s="153" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D492" s="156" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E492" s="153" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F492" s="158" t="s">
         <v>13</v>
@@ -32598,13 +33744,13 @@
         <v>1</v>
       </c>
       <c r="C493" s="153" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D493" s="156" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E493" s="153" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F493" s="158" t="s">
         <v>13</v>
@@ -32636,13 +33782,13 @@
         <v>1</v>
       </c>
       <c r="C494" s="153" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D494" s="155" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E494" s="153" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F494" s="158" t="s">
         <v>13</v>
@@ -32674,13 +33820,13 @@
         <v>1</v>
       </c>
       <c r="C495" s="153" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D495" s="156" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E495" s="153" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F495" s="158" t="s">
         <v>13</v>
@@ -32712,13 +33858,13 @@
         <v>1</v>
       </c>
       <c r="C496" s="153" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D496" s="156" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E496" s="153" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F496" s="158" t="s">
         <v>13</v>
@@ -32750,13 +33896,13 @@
         <v>1</v>
       </c>
       <c r="C497" s="153" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D497" s="156" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E497" s="153" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F497" s="158" t="s">
         <v>13</v>
@@ -32788,13 +33934,13 @@
         <v>1</v>
       </c>
       <c r="C498" s="153" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D498" s="155" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E498" s="153" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F498" s="158" t="s">
         <v>13</v>
@@ -32826,13 +33972,13 @@
         <v>1</v>
       </c>
       <c r="C499" s="153" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D499" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E499" s="153" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F499" s="158" t="s">
         <v>13</v>
@@ -32864,13 +34010,13 @@
         <v>1</v>
       </c>
       <c r="C500" s="153" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D500" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E500" s="153" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F500" s="158" t="s">
         <v>13</v>
@@ -32902,13 +34048,13 @@
         <v>1</v>
       </c>
       <c r="C501" s="153" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D501" s="157" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E501" s="153" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F501" s="158" t="s">
         <v>13</v>
@@ -32940,13 +34086,13 @@
         <v>1</v>
       </c>
       <c r="C502" s="153" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D502" s="155" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E502" s="153" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F502" s="158" t="s">
         <v>13</v>
@@ -32978,13 +34124,13 @@
         <v>1</v>
       </c>
       <c r="C503" s="153" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D503" s="155" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E503" s="153" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F503" s="158" t="s">
         <v>13</v>
@@ -33016,13 +34162,13 @@
         <v>1</v>
       </c>
       <c r="C504" s="153" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D504" s="155" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E504" s="153" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F504" s="158" t="s">
         <v>13</v>
@@ -33054,16 +34200,16 @@
         <v>1</v>
       </c>
       <c r="C505" s="153" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D505" s="155" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E505" s="153" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F505" s="158" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G505" s="152">
         <v>21452</v>
@@ -33092,16 +34238,16 @@
         <v>1</v>
       </c>
       <c r="C506" s="167" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D506" s="167" t="s">
         <v>1957</v>
       </c>
-      <c r="D506" s="167" t="s">
+      <c r="E506" s="167" t="s">
         <v>1958</v>
       </c>
-      <c r="E506" s="167" t="s">
-        <v>1959</v>
-      </c>
       <c r="F506" s="168" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="G506" s="167">
         <v>21453</v>
@@ -33122,117 +34268,117 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="507" spans="1:12" s="189" customFormat="1">
+    <row r="507" spans="1:12" s="185" customFormat="1">
       <c r="A507" s="152">
         <v>1000096</v>
       </c>
-      <c r="B507" s="189">
-        <v>1</v>
-      </c>
-      <c r="C507" s="189" t="s">
+      <c r="B507" s="185">
+        <v>1</v>
+      </c>
+      <c r="C507" s="185" t="s">
         <v>1638</v>
       </c>
-      <c r="D507" s="189" t="s">
+      <c r="D507" s="185" t="s">
         <v>1641</v>
       </c>
-      <c r="E507" s="190" t="s">
+      <c r="E507" s="186" t="s">
         <v>1637</v>
       </c>
-      <c r="F507" s="190" t="s">
+      <c r="F507" s="186" t="s">
         <v>1636</v>
       </c>
-      <c r="G507" s="189">
-        <v>21407</v>
-      </c>
-      <c r="H507" s="190" t="b">
-        <v>1</v>
-      </c>
-      <c r="I507" s="189">
-        <v>1</v>
-      </c>
-      <c r="J507" s="189">
+      <c r="G507" s="185">
+        <v>21454</v>
+      </c>
+      <c r="H507" s="186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I507" s="185">
+        <v>1</v>
+      </c>
+      <c r="J507" s="185">
         <v>1602518400</v>
       </c>
-      <c r="K507" s="189">
+      <c r="K507" s="185">
         <v>1603123199</v>
       </c>
-      <c r="L507" s="189">
+      <c r="L507" s="185">
         <v>-1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" s="189" customFormat="1">
+    <row r="508" spans="1:12" s="185" customFormat="1">
       <c r="A508" s="152">
         <v>1000097</v>
       </c>
-      <c r="B508" s="189">
-        <v>1</v>
-      </c>
-      <c r="C508" s="189" t="s">
+      <c r="B508" s="185">
+        <v>1</v>
+      </c>
+      <c r="C508" s="185" t="s">
         <v>1639</v>
       </c>
-      <c r="D508" s="189" t="s">
+      <c r="D508" s="185" t="s">
         <v>1642</v>
       </c>
-      <c r="E508" s="189" t="s">
+      <c r="E508" s="185" t="s">
         <v>1637</v>
       </c>
-      <c r="F508" s="190" t="s">
+      <c r="F508" s="186" t="s">
         <v>1636</v>
       </c>
-      <c r="G508" s="189">
-        <v>21408</v>
-      </c>
-      <c r="H508" s="190" t="b">
-        <v>1</v>
-      </c>
-      <c r="I508" s="189">
-        <v>1</v>
-      </c>
-      <c r="J508" s="189">
+      <c r="G508" s="185">
+        <v>21455</v>
+      </c>
+      <c r="H508" s="186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I508" s="185">
+        <v>1</v>
+      </c>
+      <c r="J508" s="185">
         <v>1602518400</v>
       </c>
-      <c r="K508" s="189">
+      <c r="K508" s="185">
         <v>1603123199</v>
       </c>
-      <c r="L508" s="189">
+      <c r="L508" s="185">
         <v>-1</v>
       </c>
     </row>
-    <row r="509" spans="1:12" s="189" customFormat="1">
+    <row r="509" spans="1:12" s="185" customFormat="1">
       <c r="A509" s="152">
         <v>1000098</v>
       </c>
-      <c r="B509" s="189">
-        <v>1</v>
-      </c>
-      <c r="C509" s="189" t="s">
+      <c r="B509" s="185">
+        <v>1</v>
+      </c>
+      <c r="C509" s="186" t="s">
         <v>1640</v>
       </c>
-      <c r="D509" s="189" t="s">
+      <c r="D509" s="185" t="s">
         <v>1643</v>
       </c>
-      <c r="E509" s="189" t="s">
+      <c r="E509" s="185" t="s">
         <v>1637</v>
       </c>
-      <c r="F509" s="189" t="s">
+      <c r="F509" s="185" t="s">
         <v>1636</v>
       </c>
-      <c r="G509" s="189">
-        <v>21409</v>
-      </c>
-      <c r="H509" s="190" t="b">
-        <v>1</v>
-      </c>
-      <c r="I509" s="189">
-        <v>1</v>
-      </c>
-      <c r="J509" s="189">
+      <c r="G509" s="185">
+        <v>21456</v>
+      </c>
+      <c r="H509" s="186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I509" s="185">
+        <v>1</v>
+      </c>
+      <c r="J509" s="185">
         <v>1602518400</v>
       </c>
-      <c r="K509" s="189">
+      <c r="K509" s="185">
         <v>1603123199</v>
       </c>
-      <c r="L509" s="189">
+      <c r="L509" s="185">
         <v>-1</v>
       </c>
     </row>
@@ -33243,20 +34389,22 @@
       <c r="B510" s="146">
         <v>1</v>
       </c>
-      <c r="C510" s="199" t="s">
-        <v>2000</v>
-      </c>
-      <c r="D510" s="200"/>
-      <c r="E510" s="199" t="s">
-        <v>2001</v>
-      </c>
-      <c r="F510" s="201" t="s">
-        <v>2003</v>
+      <c r="C510" s="194" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D510" s="195" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E510" s="194" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F510" s="196" t="s">
+        <v>2091</v>
       </c>
       <c r="G510" s="146">
-        <v>21410</v>
-      </c>
-      <c r="H510" s="199" t="b">
+        <v>21457</v>
+      </c>
+      <c r="H510" s="194" t="b">
         <v>0</v>
       </c>
       <c r="I510" s="146">
@@ -33272,231 +34420,309 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="511" spans="1:12" ht="16.5">
-      <c r="A511" s="152">
+    <row r="511" spans="1:12" s="181" customFormat="1" ht="16.5">
+      <c r="A511" s="181">
         <v>1000100</v>
       </c>
-      <c r="B511" s="7">
-        <v>1</v>
-      </c>
-      <c r="C511" s="7">
-        <v>1</v>
-      </c>
-      <c r="E511" s="197" t="s">
+      <c r="B511" s="181">
+        <v>1</v>
+      </c>
+      <c r="C511" s="197" t="s">
         <v>2008</v>
       </c>
-      <c r="F511" s="7" t="s">
+      <c r="D511" s="198" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E511" s="199" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F511" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="G511" s="167">
-        <v>21392.2</v>
-      </c>
-      <c r="H511" s="199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I511" s="7">
-        <v>1</v>
-      </c>
-      <c r="J511" s="146">
+      <c r="G511" s="198">
+        <v>21458</v>
+      </c>
+      <c r="H511" s="198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I511" s="181">
+        <v>1</v>
+      </c>
+      <c r="J511" s="181">
         <v>1602518400</v>
       </c>
-      <c r="K511" s="146">
+      <c r="K511" s="181">
         <v>32503651200</v>
       </c>
-      <c r="L511" s="146">
+      <c r="L511" s="181">
         <v>-1</v>
       </c>
     </row>
-    <row r="512" spans="1:12" ht="16.5">
-      <c r="A512" s="152">
+    <row r="512" spans="1:12" s="181" customFormat="1" ht="16.5">
+      <c r="A512" s="181">
         <v>1000101</v>
       </c>
-      <c r="B512" s="7">
-        <v>1</v>
-      </c>
-      <c r="C512" s="7">
-        <v>2</v>
-      </c>
-      <c r="E512" s="197" t="s">
-        <v>2008</v>
-      </c>
-      <c r="F512" s="7" t="s">
+      <c r="B512" s="181">
+        <v>1</v>
+      </c>
+      <c r="C512" s="197" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D512" s="198" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E512" s="199" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F512" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="G512" s="189">
-        <v>21383.8</v>
-      </c>
-      <c r="H512" s="199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I512" s="7">
-        <v>1</v>
-      </c>
-      <c r="J512" s="146">
+      <c r="G512" s="181">
+        <v>21459</v>
+      </c>
+      <c r="H512" s="198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I512" s="181">
+        <v>1</v>
+      </c>
+      <c r="J512" s="181">
         <v>1602518400</v>
       </c>
-      <c r="K512" s="146">
+      <c r="K512" s="181">
         <v>32503651200</v>
       </c>
-      <c r="L512" s="146">
+      <c r="L512" s="181">
         <v>-1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" s="12" customFormat="1" ht="16.5">
-      <c r="A513" s="152">
+    <row r="513" spans="1:12" s="181" customFormat="1" ht="16.5">
+      <c r="A513" s="181">
         <v>1000102</v>
       </c>
-      <c r="B513" s="7">
-        <v>1</v>
-      </c>
-      <c r="C513" s="16">
-        <v>3</v>
-      </c>
-      <c r="D513" s="11"/>
-      <c r="E513" s="197" t="s">
-        <v>2008</v>
-      </c>
-      <c r="F513" s="7" t="s">
+      <c r="B513" s="181">
+        <v>1</v>
+      </c>
+      <c r="C513" s="197" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D513" s="198" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E513" s="199" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F513" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="G513" s="189">
-        <v>21375.4</v>
-      </c>
-      <c r="H513" s="199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I513" s="7">
-        <v>1</v>
-      </c>
-      <c r="J513" s="146">
+      <c r="G513" s="198">
+        <v>21460</v>
+      </c>
+      <c r="H513" s="198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I513" s="181">
+        <v>1</v>
+      </c>
+      <c r="J513" s="181">
         <v>1602518400</v>
       </c>
-      <c r="K513" s="146">
+      <c r="K513" s="181">
         <v>32503651200</v>
       </c>
-      <c r="L513" s="146">
+      <c r="L513" s="181">
         <v>-1</v>
       </c>
     </row>
-    <row r="514" spans="1:12" s="12" customFormat="1" ht="16.5">
-      <c r="A514" s="146">
+    <row r="514" spans="1:12" s="181" customFormat="1" ht="16.5">
+      <c r="A514" s="181">
         <v>1000103</v>
       </c>
-      <c r="B514" s="7">
-        <v>1</v>
-      </c>
-      <c r="C514" s="16">
-        <v>4</v>
-      </c>
-      <c r="D514" s="11"/>
-      <c r="E514" s="197" t="s">
-        <v>2008</v>
-      </c>
-      <c r="F514" s="7" t="s">
+      <c r="B514" s="181">
+        <v>1</v>
+      </c>
+      <c r="C514" s="197" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D514" s="198" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E514" s="199" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F514" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="G514" s="189">
-        <v>21367</v>
-      </c>
-      <c r="H514" s="199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I514" s="7">
-        <v>1</v>
-      </c>
-      <c r="J514" s="146">
+      <c r="G514" s="181">
+        <v>21461</v>
+      </c>
+      <c r="H514" s="198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I514" s="181">
+        <v>1</v>
+      </c>
+      <c r="J514" s="181">
         <v>1602518400</v>
       </c>
-      <c r="K514" s="146">
+      <c r="K514" s="181">
         <v>32503651200</v>
       </c>
-      <c r="L514" s="146">
+      <c r="L514" s="181">
         <v>-1</v>
       </c>
     </row>
-    <row r="515" spans="1:12" s="12" customFormat="1" ht="16.5">
-      <c r="A515" s="152">
+    <row r="515" spans="1:12" s="181" customFormat="1" ht="16.5">
+      <c r="A515" s="181">
         <v>1000104</v>
       </c>
-      <c r="B515" s="7">
-        <v>1</v>
-      </c>
-      <c r="C515" s="16">
-        <v>5</v>
-      </c>
-      <c r="D515" s="11"/>
-      <c r="E515" s="197" t="s">
-        <v>2008</v>
-      </c>
-      <c r="F515" s="7" t="s">
+      <c r="B515" s="181">
+        <v>1</v>
+      </c>
+      <c r="C515" s="197" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D515" s="198" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E515" s="199" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F515" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="G515" s="146">
-        <v>21358.6</v>
-      </c>
-      <c r="H515" s="199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I515" s="7">
-        <v>1</v>
-      </c>
-      <c r="J515" s="146">
+      <c r="G515" s="198">
+        <v>21462</v>
+      </c>
+      <c r="H515" s="198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I515" s="181">
+        <v>1</v>
+      </c>
+      <c r="J515" s="181">
         <v>1602518400</v>
       </c>
-      <c r="K515" s="146">
+      <c r="K515" s="181">
         <v>32503651200</v>
       </c>
-      <c r="L515" s="146">
+      <c r="L515" s="181">
         <v>-1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" s="12" customFormat="1" ht="16.5">
-      <c r="A516" s="152">
+    <row r="516" spans="1:12" s="181" customFormat="1" ht="16.5">
+      <c r="A516" s="181">
         <v>1000105</v>
       </c>
-      <c r="B516" s="7">
-        <v>1</v>
-      </c>
-      <c r="C516" s="16">
-        <v>6</v>
-      </c>
-      <c r="D516" s="11"/>
-      <c r="E516" s="197" t="s">
-        <v>2008</v>
-      </c>
-      <c r="F516" s="7" t="s">
+      <c r="B516" s="181">
+        <v>1</v>
+      </c>
+      <c r="C516" s="197" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D516" s="198" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E516" s="199" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F516" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="G516" s="167">
-        <v>21350.2</v>
-      </c>
-      <c r="H516" s="199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I516" s="7">
-        <v>1</v>
-      </c>
-      <c r="J516" s="146">
+      <c r="G516" s="181">
+        <v>21463</v>
+      </c>
+      <c r="H516" s="198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I516" s="181">
+        <v>1</v>
+      </c>
+      <c r="J516" s="181">
         <v>1602518400</v>
       </c>
-      <c r="K516" s="146">
+      <c r="K516" s="181">
         <v>32503651200</v>
       </c>
-      <c r="L516" s="146">
+      <c r="L516" s="181">
         <v>-1</v>
       </c>
     </row>
-    <row r="517" spans="1:12" s="12" customFormat="1" ht="16.5">
-      <c r="C517" s="16"/>
-      <c r="D517" s="11"/>
-      <c r="E517" s="16"/>
-      <c r="F517" s="175"/>
-    </row>
-    <row r="518" spans="1:12" s="12" customFormat="1" ht="16.5">
-      <c r="C518" s="16"/>
-      <c r="D518" s="11"/>
-      <c r="E518" s="16"/>
-      <c r="F518" s="175"/>
+    <row r="517" spans="1:12" s="146" customFormat="1">
+      <c r="A517" s="146">
+        <v>1000106</v>
+      </c>
+      <c r="B517" s="146">
+        <v>1</v>
+      </c>
+      <c r="C517" s="229" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D517" s="194" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E517" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F517" s="194" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G517" s="146">
+        <v>21464</v>
+      </c>
+      <c r="H517" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I517" s="146">
+        <v>1</v>
+      </c>
+      <c r="J517" s="146">
+        <v>1602518400</v>
+      </c>
+      <c r="K517" s="146">
+        <v>32503651200</v>
+      </c>
+      <c r="L517" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" s="146" customFormat="1">
+      <c r="A518" s="146">
+        <v>1000107</v>
+      </c>
+      <c r="B518" s="146">
+        <v>1</v>
+      </c>
+      <c r="C518" s="229" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D518" s="194" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E518" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F518" s="194" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G518" s="194">
+        <v>21465</v>
+      </c>
+      <c r="H518" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I518" s="146">
+        <v>1</v>
+      </c>
+      <c r="J518" s="146">
+        <v>1602518400</v>
+      </c>
+      <c r="K518" s="146">
+        <v>32503651200</v>
+      </c>
+      <c r="L518" s="146">
+        <v>-1</v>
+      </c>
     </row>
     <row r="519" spans="1:12" s="12" customFormat="1" ht="16.5">
       <c r="C519" s="16"/>
@@ -33521,17 +34747,17 @@
   <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C484" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E492" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D510" sqref="D510"/>
+      <selection pane="bottomRight" activeCell="H515" sqref="H515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="5" width="32.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="64.875" style="31" customWidth="1"/>
     <col min="7" max="7" width="38.25" style="31" customWidth="1"/>
     <col min="8" max="8" width="37.625" style="32" customWidth="1"/>
     <col min="9" max="9" width="26" style="1" customWidth="1"/>
@@ -33571,7 +34797,7 @@
       </c>
       <c r="K1" s="37"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="28.5">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -33598,7 +34824,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="28.5">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -33652,7 +34878,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="28.5">
+    <row r="5" spans="1:11" s="6" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -33707,7 +34933,7 @@
       </c>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="28.5">
+    <row r="7" spans="1:11" s="6" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -33734,7 +34960,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="28.5">
+    <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -33841,7 +35067,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="28.5">
+    <row r="12" spans="1:11" s="6" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -33920,7 +35146,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="57">
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="42.75">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -34943,7 +36169,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="53" spans="1:9" s="6" customFormat="1">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -34970,7 +36196,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="6" customFormat="1" ht="42.75">
+    <row r="54" spans="1:9" s="6" customFormat="1" ht="28.5">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -35321,7 +36547,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" ht="42.75">
+    <row r="67" spans="1:10" s="6" customFormat="1" ht="28.5">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -35348,7 +36574,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" ht="28.5">
+    <row r="68" spans="1:10" s="6" customFormat="1">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -35457,7 +36683,7 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="28.5">
+    <row r="72" spans="1:10" s="6" customFormat="1">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -40907,7 +42133,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="11">
         <v>275</v>
       </c>
@@ -40932,7 +42158,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="277" spans="1:9" s="6" customFormat="1">
       <c r="A277" s="11">
         <v>276</v>
       </c>
@@ -40957,7 +42183,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="278" spans="1:9" s="6" customFormat="1">
       <c r="A278" s="11">
         <v>277</v>
       </c>
@@ -40982,7 +42208,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="279" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="279" spans="1:9" s="6" customFormat="1">
       <c r="A279" s="11">
         <v>278</v>
       </c>
@@ -41007,7 +42233,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="280" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="280" spans="1:9" s="6" customFormat="1">
       <c r="A280" s="11">
         <v>279</v>
       </c>
@@ -41032,7 +42258,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="281" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="281" spans="1:9" s="6" customFormat="1">
       <c r="A281" s="11">
         <v>280</v>
       </c>
@@ -41057,7 +42283,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="282" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="282" spans="1:9" s="6" customFormat="1">
       <c r="A282" s="11">
         <v>281</v>
       </c>
@@ -41082,7 +42308,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="283" spans="1:9" s="6" customFormat="1">
       <c r="A283" s="11">
         <v>282</v>
       </c>
@@ -41107,7 +42333,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="284" spans="1:9" s="6" customFormat="1">
       <c r="A284" s="11">
         <v>283</v>
       </c>
@@ -41132,7 +42358,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="285" spans="1:9" s="6" customFormat="1">
       <c r="A285" s="11">
         <v>284</v>
       </c>
@@ -41157,7 +42383,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="286" spans="1:9" s="6" customFormat="1">
       <c r="A286" s="11">
         <v>285</v>
       </c>
@@ -41207,7 +42433,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="11">
         <v>287</v>
       </c>
@@ -41417,7 +42643,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="296" spans="1:9" s="6" customFormat="1" ht="57">
+    <row r="296" spans="1:9" s="6" customFormat="1" ht="42.75">
       <c r="A296" s="11">
         <v>295</v>
       </c>
@@ -43697,7 +44923,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="394" spans="1:9" s="6" customFormat="1" ht="42.75">
+    <row r="394" spans="1:9" s="6" customFormat="1" ht="28.5">
       <c r="A394" s="13">
         <v>393</v>
       </c>
@@ -45264,7 +46490,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="42.75">
+    <row r="463" spans="1:10" ht="28.5">
       <c r="A463" s="50">
         <v>462</v>
       </c>
@@ -45487,7 +46713,7 @@
         <v>1716</v>
       </c>
       <c r="G472" s="107"/>
-      <c r="H472" s="179">
+      <c r="H472" s="176">
         <v>724</v>
       </c>
       <c r="I472" s="105" t="s">
@@ -45510,7 +46736,7 @@
         <v>1743</v>
       </c>
       <c r="G473" s="34"/>
-      <c r="H473" s="179">
+      <c r="H473" s="176">
         <v>724</v>
       </c>
       <c r="I473" s="13" t="s">
@@ -45533,7 +46759,7 @@
         <v>1744</v>
       </c>
       <c r="G474" s="34"/>
-      <c r="H474" s="179">
+      <c r="H474" s="176">
         <v>724</v>
       </c>
       <c r="I474" s="13" t="s">
@@ -45553,7 +46779,7 @@
       <c r="F475" s="110" t="s">
         <v>1726</v>
       </c>
-      <c r="H475" s="179">
+      <c r="H475" s="176">
         <v>724</v>
       </c>
       <c r="I475" s="14" t="s">
@@ -45573,7 +46799,7 @@
       <c r="F476" s="110" t="s">
         <v>1736</v>
       </c>
-      <c r="H476" s="179">
+      <c r="H476" s="176">
         <v>724</v>
       </c>
       <c r="I476" s="14" t="s">
@@ -45593,7 +46819,7 @@
       <c r="F477" s="110" t="s">
         <v>1738</v>
       </c>
-      <c r="H477" s="179">
+      <c r="H477" s="176">
         <v>724</v>
       </c>
       <c r="I477" s="14" t="s">
@@ -45613,7 +46839,7 @@
       <c r="F478" s="110" t="s">
         <v>1732</v>
       </c>
-      <c r="H478" s="179">
+      <c r="H478" s="176">
         <v>724</v>
       </c>
       <c r="I478" s="14" t="s">
@@ -45696,7 +46922,7 @@
       </c>
       <c r="E482" s="131"/>
       <c r="F482" s="135" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G482" s="132"/>
       <c r="H482" s="136" t="s">
@@ -45719,14 +46945,14 @@
       </c>
       <c r="E483" s="139"/>
       <c r="F483" s="145" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G483" s="140"/>
       <c r="H483" s="144" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I483" s="143" t="s">
         <v>1835</v>
-      </c>
-      <c r="I483" s="143" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="484" spans="1:9" s="142" customFormat="1">
@@ -45742,14 +46968,14 @@
       </c>
       <c r="E484" s="139"/>
       <c r="F484" s="145" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G484" s="140"/>
       <c r="H484" s="141" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="I484" s="143" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="485" spans="1:9" s="142" customFormat="1">
@@ -45765,14 +46991,14 @@
       </c>
       <c r="E485" s="139"/>
       <c r="F485" s="145" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G485" s="140"/>
       <c r="H485" s="144" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="I485" s="143" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="486" spans="1:9" s="142" customFormat="1">
@@ -45788,14 +47014,14 @@
       </c>
       <c r="E486" s="139"/>
       <c r="F486" s="145" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G486" s="140"/>
       <c r="H486" s="141" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="I486" s="143" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="487" spans="1:9" s="142" customFormat="1">
@@ -45811,14 +47037,14 @@
       </c>
       <c r="E487" s="139"/>
       <c r="F487" s="145" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G487" s="140"/>
       <c r="H487" s="144" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="I487" s="143" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="488" spans="1:9" s="142" customFormat="1">
@@ -45834,14 +47060,14 @@
       </c>
       <c r="E488" s="139"/>
       <c r="F488" s="145" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G488" s="140"/>
       <c r="H488" s="141" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="I488" s="143" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="489" spans="1:9" s="142" customFormat="1">
@@ -45857,14 +47083,14 @@
       </c>
       <c r="E489" s="139"/>
       <c r="F489" s="145" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G489" s="140"/>
       <c r="H489" s="144" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="I489" s="143" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="490" spans="1:9" s="154" customFormat="1">
@@ -45880,16 +47106,16 @@
       </c>
       <c r="E490" s="155"/>
       <c r="F490" s="161" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G490" s="159" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H490" s="162" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="I490" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="491" spans="1:9" s="154" customFormat="1">
@@ -45905,14 +47131,14 @@
       </c>
       <c r="E491" s="155"/>
       <c r="F491" s="161" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G491" s="159"/>
       <c r="H491" s="162" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="I491" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="492" spans="1:9" s="154" customFormat="1">
@@ -45928,14 +47154,14 @@
       </c>
       <c r="E492" s="155"/>
       <c r="F492" s="161" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G492" s="159"/>
       <c r="H492" s="160">
         <v>747</v>
       </c>
       <c r="I492" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="493" spans="1:9" s="154" customFormat="1">
@@ -45951,14 +47177,14 @@
       </c>
       <c r="E493" s="155"/>
       <c r="F493" s="161" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G493" s="159"/>
       <c r="H493" s="160">
         <v>748</v>
       </c>
       <c r="I493" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="494" spans="1:9" s="154" customFormat="1">
@@ -45974,14 +47200,14 @@
       </c>
       <c r="E494" s="155"/>
       <c r="F494" s="161" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G494" s="159"/>
       <c r="H494" s="160">
         <v>749</v>
       </c>
       <c r="I494" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="495" spans="1:9" s="154" customFormat="1">
@@ -45997,14 +47223,14 @@
       </c>
       <c r="E495" s="155"/>
       <c r="F495" s="161" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G495" s="159"/>
       <c r="H495" s="160">
         <v>750</v>
       </c>
       <c r="I495" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="496" spans="1:9" s="154" customFormat="1">
@@ -46020,14 +47246,14 @@
       </c>
       <c r="E496" s="155"/>
       <c r="F496" s="161" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G496" s="159"/>
       <c r="H496" s="160">
         <v>751</v>
       </c>
       <c r="I496" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="497" spans="1:9" s="154" customFormat="1">
@@ -46043,14 +47269,14 @@
       </c>
       <c r="E497" s="155"/>
       <c r="F497" s="161" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G497" s="159"/>
       <c r="H497" s="162" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I497" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="498" spans="1:9" s="154" customFormat="1">
@@ -46066,14 +47292,14 @@
       </c>
       <c r="E498" s="155"/>
       <c r="F498" s="161" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G498" s="159"/>
       <c r="H498" s="160">
         <v>757</v>
       </c>
       <c r="I498" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="499" spans="1:9" s="154" customFormat="1">
@@ -46089,14 +47315,14 @@
       </c>
       <c r="E499" s="155"/>
       <c r="F499" s="161" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G499" s="159"/>
       <c r="H499" s="162" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="I499" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="500" spans="1:9" s="154" customFormat="1">
@@ -46112,14 +47338,14 @@
       </c>
       <c r="E500" s="155"/>
       <c r="F500" s="161" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G500" s="159"/>
       <c r="H500" s="162" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="I500" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="501" spans="1:9" s="154" customFormat="1">
@@ -46142,7 +47368,7 @@
         <v>767</v>
       </c>
       <c r="I501" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="502" spans="1:9" s="154" customFormat="1">
@@ -46165,7 +47391,7 @@
         <v>768</v>
       </c>
       <c r="I502" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="503" spans="1:9" s="154" customFormat="1">
@@ -46181,14 +47407,14 @@
       </c>
       <c r="E503" s="155"/>
       <c r="F503" s="161" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G503" s="159"/>
       <c r="H503" s="160">
         <v>769</v>
       </c>
       <c r="I503" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="504" spans="1:9" s="154" customFormat="1">
@@ -46204,14 +47430,14 @@
       </c>
       <c r="E504" s="155"/>
       <c r="F504" s="161" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G504" s="159"/>
       <c r="H504" s="160">
         <v>770</v>
       </c>
       <c r="I504" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="505" spans="1:9" s="154" customFormat="1">
@@ -46227,14 +47453,14 @@
       </c>
       <c r="E505" s="155"/>
       <c r="F505" s="161" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G505" s="159"/>
       <c r="H505" s="160">
         <v>771</v>
       </c>
       <c r="I505" s="157" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="506" spans="1:9" s="171" customFormat="1">
@@ -46248,158 +47474,281 @@
       <c r="D506" s="169"/>
       <c r="E506" s="169"/>
       <c r="F506" s="172" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="G506" s="170"/>
       <c r="H506" s="174" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="I506" s="173" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" s="196" customFormat="1">
-      <c r="A507" s="192">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" s="192" customFormat="1">
+      <c r="A507" s="188">
         <v>506</v>
       </c>
-      <c r="B507" s="189">
+      <c r="B507" s="185">
         <v>21454</v>
       </c>
-      <c r="C507" s="192"/>
-      <c r="D507" s="192"/>
-      <c r="E507" s="192"/>
-      <c r="F507" s="193" t="s">
+      <c r="C507" s="188"/>
+      <c r="D507" s="188"/>
+      <c r="E507" s="188"/>
+      <c r="F507" s="189" t="s">
         <v>1644</v>
       </c>
-      <c r="G507" s="193" t="s">
+      <c r="G507" s="189" t="s">
         <v>969</v>
       </c>
-      <c r="H507" s="194"/>
-      <c r="I507" s="195" t="s">
+      <c r="H507" s="190"/>
+      <c r="I507" s="191" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="508" spans="1:9" s="196" customFormat="1">
-      <c r="A508" s="192">
+    <row r="508" spans="1:9" s="192" customFormat="1">
+      <c r="A508" s="188">
         <v>507</v>
       </c>
-      <c r="B508" s="189">
+      <c r="B508" s="185">
         <v>21455</v>
       </c>
-      <c r="C508" s="192"/>
-      <c r="D508" s="192"/>
-      <c r="E508" s="192"/>
-      <c r="F508" s="193" t="s">
+      <c r="C508" s="188"/>
+      <c r="D508" s="188"/>
+      <c r="E508" s="188"/>
+      <c r="F508" s="189" t="s">
         <v>1644</v>
       </c>
-      <c r="G508" s="193" t="s">
+      <c r="G508" s="189" t="s">
         <v>969</v>
       </c>
-      <c r="H508" s="194"/>
-      <c r="I508" s="195" t="s">
+      <c r="H508" s="190"/>
+      <c r="I508" s="191" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="509" spans="1:9" s="196" customFormat="1">
-      <c r="A509" s="192">
+    <row r="509" spans="1:9" s="192" customFormat="1">
+      <c r="A509" s="188">
         <v>508</v>
       </c>
-      <c r="B509" s="189">
+      <c r="B509" s="185">
         <v>21456</v>
       </c>
-      <c r="C509" s="192"/>
-      <c r="D509" s="192"/>
-      <c r="E509" s="192"/>
-      <c r="F509" s="193" t="s">
+      <c r="C509" s="188"/>
+      <c r="D509" s="188"/>
+      <c r="E509" s="188"/>
+      <c r="F509" s="189" t="s">
         <v>1644</v>
       </c>
-      <c r="G509" s="193" t="s">
+      <c r="G509" s="189" t="s">
         <v>969</v>
       </c>
-      <c r="H509" s="194"/>
-      <c r="I509" s="195" t="s">
+      <c r="H509" s="190"/>
+      <c r="I509" s="191" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
-      <c r="A510" s="1">
+    <row r="510" spans="1:9" s="184" customFormat="1">
+      <c r="A510" s="180">
         <v>509</v>
       </c>
-      <c r="B510" s="189">
+      <c r="B510" s="181">
         <v>21457</v>
       </c>
-      <c r="D510" s="1">
+      <c r="C510" s="180"/>
+      <c r="D510" s="180">
         <v>497</v>
       </c>
-      <c r="F510" s="110" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" s="6" customFormat="1">
-      <c r="A512" s="11"/>
-      <c r="B512" s="12"/>
-      <c r="C512" s="11"/>
-      <c r="D512" s="11"/>
-      <c r="E512" s="11"/>
-      <c r="F512" s="39"/>
-      <c r="G512" s="34"/>
-      <c r="H512" s="27"/>
-      <c r="I512" s="13"/>
-    </row>
-    <row r="513" spans="1:9" s="6" customFormat="1">
-      <c r="A513" s="11"/>
-      <c r="B513" s="12"/>
-      <c r="C513" s="11"/>
-      <c r="D513" s="11"/>
-      <c r="E513" s="11"/>
-      <c r="F513" s="39"/>
-      <c r="G513" s="34"/>
-      <c r="H513" s="27"/>
-      <c r="I513" s="13"/>
-    </row>
-    <row r="514" spans="1:9" s="6" customFormat="1">
-      <c r="A514" s="11"/>
-      <c r="B514" s="12"/>
-      <c r="C514" s="11"/>
-      <c r="D514" s="11"/>
-      <c r="E514" s="11"/>
-      <c r="F514" s="39"/>
-      <c r="G514" s="34"/>
-      <c r="H514" s="27"/>
-      <c r="I514" s="13"/>
-    </row>
-    <row r="516" spans="1:9" s="6" customFormat="1">
-      <c r="A516" s="11"/>
-      <c r="B516" s="12"/>
-      <c r="C516" s="11"/>
-      <c r="D516" s="11"/>
-      <c r="E516" s="11"/>
-      <c r="F516" s="39"/>
-      <c r="G516" s="34"/>
-      <c r="H516" s="27"/>
-      <c r="I516" s="13"/>
-    </row>
-    <row r="517" spans="1:9" s="6" customFormat="1">
-      <c r="A517" s="11"/>
-      <c r="B517" s="12"/>
-      <c r="C517" s="11"/>
-      <c r="D517" s="11"/>
-      <c r="E517" s="11"/>
-      <c r="F517" s="39"/>
-      <c r="G517" s="34"/>
-      <c r="H517" s="27"/>
-      <c r="I517" s="13"/>
-    </row>
-    <row r="518" spans="1:9" s="6" customFormat="1">
-      <c r="A518" s="11"/>
-      <c r="B518" s="12"/>
-      <c r="C518" s="11"/>
-      <c r="D518" s="11"/>
-      <c r="E518" s="11"/>
-      <c r="F518" s="39"/>
-      <c r="G518" s="34"/>
-      <c r="H518" s="27"/>
-      <c r="I518" s="13"/>
+      <c r="E510" s="180"/>
+      <c r="F510" s="200" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G510" s="201"/>
+      <c r="H510" s="202"/>
+      <c r="I510" s="180"/>
+    </row>
+    <row r="511" spans="1:9" s="205" customFormat="1">
+      <c r="A511" s="203">
+        <v>510</v>
+      </c>
+      <c r="B511" s="203">
+        <v>21458</v>
+      </c>
+      <c r="C511" s="203"/>
+      <c r="D511" s="203">
+        <v>498</v>
+      </c>
+      <c r="E511" s="203"/>
+      <c r="F511" s="207" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G511" s="204"/>
+      <c r="H511" s="220" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I511" s="203" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" s="205" customFormat="1">
+      <c r="A512" s="203">
+        <v>511</v>
+      </c>
+      <c r="B512" s="206">
+        <v>21459</v>
+      </c>
+      <c r="C512" s="203"/>
+      <c r="D512" s="203">
+        <v>499</v>
+      </c>
+      <c r="E512" s="203"/>
+      <c r="F512" s="207" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G512" s="204"/>
+      <c r="H512" s="220" t="s">
+        <v>2067</v>
+      </c>
+      <c r="I512" s="203" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" s="205" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A513" s="203">
+        <v>512</v>
+      </c>
+      <c r="B513" s="203">
+        <v>21460</v>
+      </c>
+      <c r="C513" s="203"/>
+      <c r="D513" s="203">
+        <v>500</v>
+      </c>
+      <c r="E513" s="203"/>
+      <c r="F513" s="207" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G513" s="204"/>
+      <c r="H513" s="220" t="s">
+        <v>2068</v>
+      </c>
+      <c r="I513" s="203" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" s="205" customFormat="1">
+      <c r="A514" s="203">
+        <v>513</v>
+      </c>
+      <c r="B514" s="206">
+        <v>21461</v>
+      </c>
+      <c r="C514" s="203"/>
+      <c r="D514" s="203">
+        <v>501</v>
+      </c>
+      <c r="E514" s="203"/>
+      <c r="F514" s="207" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G514" s="204"/>
+      <c r="H514" s="220" t="s">
+        <v>2069</v>
+      </c>
+      <c r="I514" s="203" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" s="205" customFormat="1" ht="15" customHeight="1">
+      <c r="A515" s="203">
+        <v>514</v>
+      </c>
+      <c r="B515" s="203">
+        <v>21462</v>
+      </c>
+      <c r="C515" s="203"/>
+      <c r="D515" s="203">
+        <v>502</v>
+      </c>
+      <c r="E515" s="203"/>
+      <c r="F515" s="207" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G515" s="204"/>
+      <c r="H515" s="220" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I515" s="203" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" s="205" customFormat="1">
+      <c r="A516" s="203">
+        <v>515</v>
+      </c>
+      <c r="B516" s="206">
+        <v>21463</v>
+      </c>
+      <c r="C516" s="203"/>
+      <c r="D516" s="203">
+        <v>503</v>
+      </c>
+      <c r="E516" s="203"/>
+      <c r="F516" s="207" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G516" s="204"/>
+      <c r="H516" s="220" t="s">
+        <v>2071</v>
+      </c>
+      <c r="I516" s="208" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" s="226" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A517" s="223">
+        <v>516</v>
+      </c>
+      <c r="B517" s="223">
+        <v>21464</v>
+      </c>
+      <c r="C517" s="223"/>
+      <c r="D517" s="223">
+        <v>504</v>
+      </c>
+      <c r="E517" s="223"/>
+      <c r="F517" s="230" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G517" s="231"/>
+      <c r="H517" s="232" t="s">
+        <v>2087</v>
+      </c>
+      <c r="I517" s="224" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" s="226" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A518" s="223">
+        <v>517</v>
+      </c>
+      <c r="B518" s="225">
+        <v>21465</v>
+      </c>
+      <c r="C518" s="223"/>
+      <c r="D518" s="223">
+        <v>505</v>
+      </c>
+      <c r="E518" s="223"/>
+      <c r="F518" s="230" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G518" s="231"/>
+      <c r="H518" s="232" t="s">
+        <v>2088</v>
+      </c>
+      <c r="I518" s="224" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="519" spans="1:9" s="6" customFormat="1">
       <c r="A519" s="11"/>
@@ -46422,11 +47771,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I724"/>
+  <dimension ref="A1:I769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D705" sqref="D705"/>
+      <pane ySplit="1" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D681" sqref="D681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -56330,7 +57679,7 @@
         <v>474</v>
       </c>
       <c r="C682" s="143" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D682" s="139">
         <v>335</v>
@@ -56344,7 +57693,7 @@
         <v>475</v>
       </c>
       <c r="C683" s="139" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D683" s="139">
         <v>336</v>
@@ -56358,7 +57707,7 @@
         <v>476</v>
       </c>
       <c r="C684" s="143" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D684" s="139">
         <v>337</v>
@@ -56372,7 +57721,7 @@
         <v>477</v>
       </c>
       <c r="C685" s="143" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D685" s="139">
         <v>338</v>
@@ -56400,7 +57749,7 @@
         <v>479</v>
       </c>
       <c r="C687" s="143" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D687" s="139">
         <v>340</v>
@@ -56414,7 +57763,7 @@
         <v>480</v>
       </c>
       <c r="C688" s="143" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D688" s="139">
         <v>341</v>
@@ -56428,7 +57777,7 @@
         <v>481</v>
       </c>
       <c r="C689" s="157" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D689" s="152">
         <v>0</v>
@@ -56442,7 +57791,7 @@
         <v>482</v>
       </c>
       <c r="C690" s="157" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D690" s="152">
         <v>0</v>
@@ -56456,7 +57805,7 @@
         <v>483</v>
       </c>
       <c r="C691" s="155" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D691" s="152">
         <v>342</v>
@@ -56470,7 +57819,7 @@
         <v>484</v>
       </c>
       <c r="C692" s="157" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D692" s="152">
         <v>343</v>
@@ -56484,7 +57833,7 @@
         <v>485</v>
       </c>
       <c r="C693" s="155" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D693" s="152">
         <v>344</v>
@@ -56498,7 +57847,7 @@
         <v>486</v>
       </c>
       <c r="C694" s="157" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D694" s="152">
         <v>345</v>
@@ -56512,7 +57861,7 @@
         <v>487</v>
       </c>
       <c r="C695" s="155" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D695" s="152">
         <v>346</v>
@@ -56526,7 +57875,7 @@
         <v>488</v>
       </c>
       <c r="C696" s="156" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D696" s="152">
         <v>0</v>
@@ -56540,7 +57889,7 @@
         <v>489</v>
       </c>
       <c r="C697" s="157" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D697" s="152">
         <v>347</v>
@@ -56554,7 +57903,7 @@
         <v>490</v>
       </c>
       <c r="C698" s="157" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D698" s="152">
         <v>348</v>
@@ -56568,7 +57917,7 @@
         <v>491</v>
       </c>
       <c r="C699" s="157" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D699" s="152">
         <v>349</v>
@@ -56596,7 +57945,7 @@
         <v>493</v>
       </c>
       <c r="C701" s="157" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D701" s="152">
         <v>351</v>
@@ -56610,7 +57959,7 @@
         <v>494</v>
       </c>
       <c r="C702" s="155" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D702" s="152">
         <v>352</v>
@@ -56624,7 +57973,7 @@
         <v>495</v>
       </c>
       <c r="C703" s="155" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D703" s="152">
         <v>353</v>
@@ -56638,79 +57987,921 @@
         <v>496</v>
       </c>
       <c r="C704" s="157" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D704" s="152">
         <v>354</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
-      <c r="A705" s="155">
+    <row r="705" spans="1:4" s="184" customFormat="1">
+      <c r="A705" s="180">
         <v>704</v>
       </c>
-      <c r="B705" s="155">
+      <c r="B705" s="180">
         <v>497</v>
       </c>
-      <c r="C705" s="28" t="s">
+      <c r="C705" s="180" t="s">
         <v>435</v>
       </c>
-      <c r="D705" s="28">
+      <c r="D705" s="180">
         <v>355</v>
       </c>
     </row>
-    <row r="708" spans="1:4" s="178" customFormat="1">
-      <c r="A708" s="177"/>
-      <c r="B708" s="177"/>
-      <c r="C708" s="177"/>
-      <c r="D708" s="176"/>
-    </row>
-    <row r="711" spans="1:4" s="6" customFormat="1">
-      <c r="A711" s="11"/>
-      <c r="B711" s="11"/>
-      <c r="C711" s="13"/>
-      <c r="D711" s="12"/>
-    </row>
-    <row r="712" spans="1:4" s="6" customFormat="1">
-      <c r="A712" s="11"/>
-      <c r="B712" s="11"/>
-      <c r="C712" s="13"/>
-      <c r="D712" s="12"/>
-    </row>
-    <row r="713" spans="1:4" s="6" customFormat="1">
-      <c r="A713" s="11"/>
-      <c r="B713" s="11"/>
-      <c r="C713" s="13"/>
-      <c r="D713" s="12"/>
-    </row>
-    <row r="715" spans="1:4" s="6" customFormat="1">
-      <c r="A715" s="11"/>
-      <c r="B715" s="11"/>
-      <c r="C715" s="11"/>
-      <c r="D715" s="12"/>
-    </row>
-    <row r="716" spans="1:4" s="6" customFormat="1">
-      <c r="A716" s="11"/>
-      <c r="B716" s="11"/>
-      <c r="C716" s="11"/>
-      <c r="D716" s="12"/>
-    </row>
-    <row r="717" spans="1:4" s="6" customFormat="1">
-      <c r="A717" s="11"/>
-      <c r="B717" s="11"/>
-      <c r="C717" s="11"/>
-      <c r="D717" s="12"/>
-    </row>
-    <row r="718" spans="1:4" s="6" customFormat="1">
-      <c r="A718" s="11"/>
-      <c r="B718" s="11"/>
-      <c r="C718" s="11"/>
-      <c r="D718" s="12"/>
-    </row>
-    <row r="724" spans="1:4" s="6" customFormat="1">
-      <c r="A724" s="11"/>
-      <c r="B724" s="11"/>
-      <c r="C724" s="11"/>
-      <c r="D724" s="11"/>
+    <row r="706" spans="1:4" s="205" customFormat="1">
+      <c r="A706" s="203">
+        <v>705</v>
+      </c>
+      <c r="B706" s="203">
+        <v>498</v>
+      </c>
+      <c r="C706" s="208" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D706" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" s="205" customFormat="1">
+      <c r="A707" s="203">
+        <v>706</v>
+      </c>
+      <c r="B707" s="203">
+        <v>498</v>
+      </c>
+      <c r="C707" s="208" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D707" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" s="227" customFormat="1">
+      <c r="A708" s="208">
+        <v>707</v>
+      </c>
+      <c r="B708" s="208">
+        <v>498</v>
+      </c>
+      <c r="C708" s="208" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D708" s="228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" s="205" customFormat="1">
+      <c r="A709" s="203">
+        <v>708</v>
+      </c>
+      <c r="B709" s="203">
+        <v>498</v>
+      </c>
+      <c r="C709" s="208" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D709" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" s="205" customFormat="1">
+      <c r="A710" s="203">
+        <v>709</v>
+      </c>
+      <c r="B710" s="203">
+        <v>498</v>
+      </c>
+      <c r="C710" s="208" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D710" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" s="205" customFormat="1">
+      <c r="A711" s="203">
+        <v>710</v>
+      </c>
+      <c r="B711" s="203">
+        <v>498</v>
+      </c>
+      <c r="C711" s="208" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D711" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" s="205" customFormat="1">
+      <c r="A712" s="203">
+        <v>711</v>
+      </c>
+      <c r="B712" s="203">
+        <v>498</v>
+      </c>
+      <c r="C712" s="208" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D712" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" s="205" customFormat="1">
+      <c r="A713" s="203">
+        <v>712</v>
+      </c>
+      <c r="B713" s="203">
+        <v>498</v>
+      </c>
+      <c r="C713" s="208" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D713" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" s="210" customFormat="1">
+      <c r="A714" s="209">
+        <v>713</v>
+      </c>
+      <c r="B714" s="209">
+        <v>499</v>
+      </c>
+      <c r="C714" s="211" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D714" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" s="210" customFormat="1">
+      <c r="A715" s="209">
+        <v>714</v>
+      </c>
+      <c r="B715" s="209">
+        <v>499</v>
+      </c>
+      <c r="C715" s="211" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D715" s="212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" s="210" customFormat="1">
+      <c r="A716" s="209">
+        <v>715</v>
+      </c>
+      <c r="B716" s="209">
+        <v>499</v>
+      </c>
+      <c r="C716" s="211" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D716" s="212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" s="210" customFormat="1">
+      <c r="A717" s="209">
+        <v>716</v>
+      </c>
+      <c r="B717" s="209">
+        <v>499</v>
+      </c>
+      <c r="C717" s="211" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D717" s="212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" s="210" customFormat="1">
+      <c r="A718" s="209">
+        <v>717</v>
+      </c>
+      <c r="B718" s="209">
+        <v>499</v>
+      </c>
+      <c r="C718" s="211" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D718" s="212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" s="210" customFormat="1">
+      <c r="A719" s="209">
+        <v>718</v>
+      </c>
+      <c r="B719" s="209">
+        <v>499</v>
+      </c>
+      <c r="C719" s="211" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D719" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" s="210" customFormat="1">
+      <c r="A720" s="209">
+        <v>719</v>
+      </c>
+      <c r="B720" s="209">
+        <v>499</v>
+      </c>
+      <c r="C720" s="211" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D720" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" s="210" customFormat="1">
+      <c r="A721" s="209">
+        <v>720</v>
+      </c>
+      <c r="B721" s="209">
+        <v>499</v>
+      </c>
+      <c r="C721" s="211" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D721" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" s="205" customFormat="1">
+      <c r="A722" s="203">
+        <v>721</v>
+      </c>
+      <c r="B722" s="203">
+        <v>500</v>
+      </c>
+      <c r="C722" s="208" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D722" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" s="205" customFormat="1">
+      <c r="A723" s="203">
+        <v>722</v>
+      </c>
+      <c r="B723" s="203">
+        <v>500</v>
+      </c>
+      <c r="C723" s="208" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D723" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" s="205" customFormat="1">
+      <c r="A724" s="203">
+        <v>723</v>
+      </c>
+      <c r="B724" s="203">
+        <v>500</v>
+      </c>
+      <c r="C724" s="208" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D724" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" s="205" customFormat="1">
+      <c r="A725" s="203">
+        <v>724</v>
+      </c>
+      <c r="B725" s="203">
+        <v>500</v>
+      </c>
+      <c r="C725" s="208" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D725" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" s="205" customFormat="1">
+      <c r="A726" s="203">
+        <v>725</v>
+      </c>
+      <c r="B726" s="203">
+        <v>500</v>
+      </c>
+      <c r="C726" s="208" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D726" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" s="205" customFormat="1">
+      <c r="A727" s="203">
+        <v>726</v>
+      </c>
+      <c r="B727" s="203">
+        <v>500</v>
+      </c>
+      <c r="C727" s="208" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D727" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" s="205" customFormat="1">
+      <c r="A728" s="203">
+        <v>727</v>
+      </c>
+      <c r="B728" s="203">
+        <v>500</v>
+      </c>
+      <c r="C728" s="208" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D728" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" s="205" customFormat="1">
+      <c r="A729" s="203">
+        <v>728</v>
+      </c>
+      <c r="B729" s="203">
+        <v>500</v>
+      </c>
+      <c r="C729" s="208" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D729" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" s="210" customFormat="1">
+      <c r="A730" s="209">
+        <v>729</v>
+      </c>
+      <c r="B730" s="209">
+        <v>501</v>
+      </c>
+      <c r="C730" s="211" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D730" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" s="210" customFormat="1">
+      <c r="A731" s="209">
+        <v>730</v>
+      </c>
+      <c r="B731" s="209">
+        <v>501</v>
+      </c>
+      <c r="C731" s="211" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D731" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" s="210" customFormat="1">
+      <c r="A732" s="209">
+        <v>731</v>
+      </c>
+      <c r="B732" s="209">
+        <v>501</v>
+      </c>
+      <c r="C732" s="211" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D732" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" s="210" customFormat="1">
+      <c r="A733" s="209">
+        <v>732</v>
+      </c>
+      <c r="B733" s="209">
+        <v>501</v>
+      </c>
+      <c r="C733" s="211" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D733" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" s="210" customFormat="1">
+      <c r="A734" s="209">
+        <v>733</v>
+      </c>
+      <c r="B734" s="209">
+        <v>501</v>
+      </c>
+      <c r="C734" s="211" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D734" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" s="210" customFormat="1">
+      <c r="A735" s="209">
+        <v>734</v>
+      </c>
+      <c r="B735" s="209">
+        <v>501</v>
+      </c>
+      <c r="C735" s="211" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D735" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" s="210" customFormat="1">
+      <c r="A736" s="209">
+        <v>735</v>
+      </c>
+      <c r="B736" s="209">
+        <v>501</v>
+      </c>
+      <c r="C736" s="211" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D736" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" s="210" customFormat="1">
+      <c r="A737" s="209">
+        <v>736</v>
+      </c>
+      <c r="B737" s="209">
+        <v>501</v>
+      </c>
+      <c r="C737" s="211" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D737" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" s="205" customFormat="1">
+      <c r="A738" s="203">
+        <v>737</v>
+      </c>
+      <c r="B738" s="203">
+        <v>502</v>
+      </c>
+      <c r="C738" s="208" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D738" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" s="205" customFormat="1">
+      <c r="A739" s="203">
+        <v>738</v>
+      </c>
+      <c r="B739" s="203">
+        <v>502</v>
+      </c>
+      <c r="C739" s="208" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D739" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" s="205" customFormat="1">
+      <c r="A740" s="203">
+        <v>739</v>
+      </c>
+      <c r="B740" s="203">
+        <v>502</v>
+      </c>
+      <c r="C740" s="208" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D740" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" s="205" customFormat="1">
+      <c r="A741" s="203">
+        <v>740</v>
+      </c>
+      <c r="B741" s="203">
+        <v>502</v>
+      </c>
+      <c r="C741" s="208" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D741" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" s="205" customFormat="1">
+      <c r="A742" s="203">
+        <v>741</v>
+      </c>
+      <c r="B742" s="203">
+        <v>502</v>
+      </c>
+      <c r="C742" s="208" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D742" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" s="205" customFormat="1">
+      <c r="A743" s="203">
+        <v>742</v>
+      </c>
+      <c r="B743" s="203">
+        <v>502</v>
+      </c>
+      <c r="C743" s="208" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D743" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" s="205" customFormat="1">
+      <c r="A744" s="203">
+        <v>743</v>
+      </c>
+      <c r="B744" s="203">
+        <v>502</v>
+      </c>
+      <c r="C744" s="208" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D744" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" s="205" customFormat="1">
+      <c r="A745" s="203">
+        <v>744</v>
+      </c>
+      <c r="B745" s="203">
+        <v>502</v>
+      </c>
+      <c r="C745" s="208" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D745" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" s="210" customFormat="1">
+      <c r="A746" s="209">
+        <v>745</v>
+      </c>
+      <c r="B746" s="209">
+        <v>503</v>
+      </c>
+      <c r="C746" s="211" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D746" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" s="210" customFormat="1">
+      <c r="A747" s="209">
+        <v>746</v>
+      </c>
+      <c r="B747" s="209">
+        <v>503</v>
+      </c>
+      <c r="C747" s="211" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D747" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" s="210" customFormat="1">
+      <c r="A748" s="209">
+        <v>747</v>
+      </c>
+      <c r="B748" s="209">
+        <v>503</v>
+      </c>
+      <c r="C748" s="211" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D748" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" s="210" customFormat="1">
+      <c r="A749" s="209">
+        <v>748</v>
+      </c>
+      <c r="B749" s="209">
+        <v>503</v>
+      </c>
+      <c r="C749" s="211" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D749" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" s="210" customFormat="1">
+      <c r="A750" s="209">
+        <v>749</v>
+      </c>
+      <c r="B750" s="209">
+        <v>503</v>
+      </c>
+      <c r="C750" s="211" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D750" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" s="210" customFormat="1">
+      <c r="A751" s="209">
+        <v>750</v>
+      </c>
+      <c r="B751" s="209">
+        <v>503</v>
+      </c>
+      <c r="C751" s="211" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D751" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" s="210" customFormat="1">
+      <c r="A752" s="209">
+        <v>751</v>
+      </c>
+      <c r="B752" s="209">
+        <v>503</v>
+      </c>
+      <c r="C752" s="211" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D752" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" s="210" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A753" s="209">
+        <v>752</v>
+      </c>
+      <c r="B753" s="209">
+        <v>503</v>
+      </c>
+      <c r="C753" s="211" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D753" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" s="205" customFormat="1">
+      <c r="A754" s="203">
+        <v>753</v>
+      </c>
+      <c r="B754" s="203">
+        <v>504</v>
+      </c>
+      <c r="C754" s="208" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D754" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" s="205" customFormat="1">
+      <c r="A755" s="203">
+        <v>754</v>
+      </c>
+      <c r="B755" s="203">
+        <v>504</v>
+      </c>
+      <c r="C755" s="208" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D755" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" s="205" customFormat="1">
+      <c r="A756" s="203">
+        <v>755</v>
+      </c>
+      <c r="B756" s="203">
+        <v>504</v>
+      </c>
+      <c r="C756" s="208" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D756" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" s="205" customFormat="1">
+      <c r="A757" s="203">
+        <v>756</v>
+      </c>
+      <c r="B757" s="203">
+        <v>504</v>
+      </c>
+      <c r="C757" s="208" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D757" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" s="205" customFormat="1">
+      <c r="A758" s="203">
+        <v>757</v>
+      </c>
+      <c r="B758" s="203">
+        <v>504</v>
+      </c>
+      <c r="C758" s="208" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D758" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" s="205" customFormat="1">
+      <c r="A759" s="203">
+        <v>758</v>
+      </c>
+      <c r="B759" s="203">
+        <v>504</v>
+      </c>
+      <c r="C759" s="208" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D759" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" s="205" customFormat="1">
+      <c r="A760" s="203">
+        <v>759</v>
+      </c>
+      <c r="B760" s="203">
+        <v>504</v>
+      </c>
+      <c r="C760" s="208" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D760" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" s="205" customFormat="1">
+      <c r="A761" s="203">
+        <v>760</v>
+      </c>
+      <c r="B761" s="203">
+        <v>504</v>
+      </c>
+      <c r="C761" s="208" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D761" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" s="210" customFormat="1">
+      <c r="A762" s="209">
+        <v>761</v>
+      </c>
+      <c r="B762" s="209">
+        <v>505</v>
+      </c>
+      <c r="C762" s="211" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D762" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" s="210" customFormat="1">
+      <c r="A763" s="209">
+        <v>762</v>
+      </c>
+      <c r="B763" s="209">
+        <v>505</v>
+      </c>
+      <c r="C763" s="211" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D763" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" s="210" customFormat="1">
+      <c r="A764" s="209">
+        <v>763</v>
+      </c>
+      <c r="B764" s="209">
+        <v>505</v>
+      </c>
+      <c r="C764" s="211" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D764" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" s="210" customFormat="1">
+      <c r="A765" s="209">
+        <v>764</v>
+      </c>
+      <c r="B765" s="209">
+        <v>505</v>
+      </c>
+      <c r="C765" s="211" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D765" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" s="210" customFormat="1">
+      <c r="A766" s="209">
+        <v>765</v>
+      </c>
+      <c r="B766" s="209">
+        <v>505</v>
+      </c>
+      <c r="C766" s="211" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D766" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" s="210" customFormat="1">
+      <c r="A767" s="209">
+        <v>766</v>
+      </c>
+      <c r="B767" s="209">
+        <v>505</v>
+      </c>
+      <c r="C767" s="211" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D767" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" s="210" customFormat="1">
+      <c r="A768" s="209">
+        <v>767</v>
+      </c>
+      <c r="B768" s="209">
+        <v>505</v>
+      </c>
+      <c r="C768" s="211" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D768" s="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" s="210" customFormat="1">
+      <c r="A769" s="209">
+        <v>768</v>
+      </c>
+      <c r="B769" s="209">
+        <v>505</v>
+      </c>
+      <c r="C769" s="211" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D769" s="209">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -56725,7 +58916,7 @@
   <dimension ref="A1:M484"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C454" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C480" sqref="C480"/>
@@ -63451,7 +65642,7 @@
         <v>1329</v>
       </c>
       <c r="D359" s="150" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E359" s="93">
         <v>2</v>
@@ -64053,7 +66244,7 @@
         <v>1584</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -65093,11 +67284,11 @@
       <c r="B455" s="146">
         <v>334</v>
       </c>
-      <c r="C455" s="198" t="s">
-        <v>2005</v>
+      <c r="C455" s="193" t="s">
+        <v>2002</v>
       </c>
       <c r="D455" s="148" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E455" s="147">
         <v>2</v>
@@ -65112,10 +67303,10 @@
         <v>335</v>
       </c>
       <c r="C456" s="143" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D456" s="144" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E456" s="139">
         <v>3</v>
@@ -65130,10 +67321,10 @@
         <v>336</v>
       </c>
       <c r="C457" s="143" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D457" s="144" t="s">
         <v>1843</v>
-      </c>
-      <c r="D457" s="144" t="s">
-        <v>1844</v>
       </c>
       <c r="E457" s="139">
         <v>2</v>
@@ -65148,10 +67339,10 @@
         <v>337</v>
       </c>
       <c r="C458" s="143" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D458" s="144" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E458" s="139">
         <v>3</v>
@@ -65166,10 +67357,10 @@
         <v>338</v>
       </c>
       <c r="C459" s="143" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D459" s="144" t="s">
         <v>1849</v>
-      </c>
-      <c r="D459" s="144" t="s">
-        <v>1850</v>
       </c>
       <c r="E459" s="139">
         <v>2</v>
@@ -65184,10 +67375,10 @@
         <v>338</v>
       </c>
       <c r="C460" s="143" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D460" s="144" t="s">
         <v>1847</v>
-      </c>
-      <c r="D460" s="144" t="s">
-        <v>1848</v>
       </c>
       <c r="E460" s="139">
         <v>3</v>
@@ -65202,10 +67393,10 @@
         <v>339</v>
       </c>
       <c r="C461" s="143" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D461" s="144" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E461" s="139">
         <v>3</v>
@@ -65220,10 +67411,10 @@
         <v>339</v>
       </c>
       <c r="C462" s="143" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D462" s="144" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E462" s="139">
         <v>3</v>
@@ -65238,10 +67429,10 @@
         <v>340</v>
       </c>
       <c r="C463" s="143" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D463" s="144" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E463" s="139">
         <v>3</v>
@@ -65256,10 +67447,10 @@
         <v>341</v>
       </c>
       <c r="C464" s="143" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D464" s="144" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E464" s="139">
         <v>2</v>
@@ -65277,7 +67468,7 @@
         <v>731</v>
       </c>
       <c r="D465" s="162" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E465" s="155">
         <v>2</v>
@@ -65295,7 +67486,7 @@
         <v>731</v>
       </c>
       <c r="D466" s="162" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E466" s="155">
         <v>2</v>
@@ -65313,7 +67504,7 @@
         <v>731</v>
       </c>
       <c r="D467" s="162" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E467" s="155">
         <v>2</v>
@@ -65331,7 +67522,7 @@
         <v>731</v>
       </c>
       <c r="D468" s="162" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E468" s="155">
         <v>2</v>
@@ -65349,7 +67540,7 @@
         <v>731</v>
       </c>
       <c r="D469" s="162" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E469" s="155">
         <v>2</v>
@@ -65364,10 +67555,10 @@
         <v>347</v>
       </c>
       <c r="C470" s="157" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D470" s="162" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E470" s="155">
         <v>2</v>
@@ -65382,33 +67573,33 @@
         <v>348</v>
       </c>
       <c r="C471" s="157" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D471" s="160" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E471" s="155">
         <v>2</v>
       </c>
       <c r="F471" s="155"/>
     </row>
-    <row r="472" spans="1:6" s="188" customFormat="1">
-      <c r="A472" s="185">
+    <row r="472" spans="1:6" s="184" customFormat="1">
+      <c r="A472" s="181">
         <v>501</v>
       </c>
-      <c r="B472" s="185">
+      <c r="B472" s="181">
         <v>349</v>
       </c>
-      <c r="C472" s="186" t="s">
+      <c r="C472" s="182" t="s">
         <v>1584</v>
       </c>
-      <c r="D472" s="187" t="s">
-        <v>1993</v>
-      </c>
-      <c r="E472" s="184">
+      <c r="D472" s="183" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E472" s="180">
         <v>2</v>
       </c>
-      <c r="F472" s="184"/>
+      <c r="F472" s="180"/>
     </row>
     <row r="473" spans="1:6" s="154" customFormat="1">
       <c r="A473" s="152">
@@ -65421,7 +67612,7 @@
         <v>718</v>
       </c>
       <c r="D473" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E473" s="155">
         <v>3</v>
@@ -65436,10 +67627,10 @@
         <v>351</v>
       </c>
       <c r="C474" s="157" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D474" s="162" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E474" s="155">
         <v>3</v>
@@ -65454,10 +67645,10 @@
         <v>351</v>
       </c>
       <c r="C475" s="157" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D475" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E475" s="155">
         <v>3</v>
@@ -65465,7 +67656,7 @@
       <c r="F475" s="155"/>
     </row>
     <row r="476" spans="1:6" s="154" customFormat="1">
-      <c r="A476" s="185">
+      <c r="A476" s="181">
         <v>505</v>
       </c>
       <c r="B476" s="152">
@@ -65475,7 +67666,7 @@
         <v>718</v>
       </c>
       <c r="D476" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E476" s="155">
         <v>3</v>
@@ -65490,10 +67681,10 @@
         <v>353</v>
       </c>
       <c r="C477" s="157" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D477" s="162" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E477" s="155">
         <v>3</v>
@@ -65508,10 +67699,10 @@
         <v>353</v>
       </c>
       <c r="C478" s="157" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D478" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E478" s="155">
         <v>3</v>
@@ -65529,29 +67720,30 @@
         <v>1419</v>
       </c>
       <c r="D479" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E479" s="155">
         <v>3</v>
       </c>
       <c r="F479" s="155"/>
     </row>
-    <row r="480" spans="1:6">
-      <c r="A480" s="12">
+    <row r="480" spans="1:6" s="184" customFormat="1">
+      <c r="A480" s="181">
         <v>509</v>
       </c>
-      <c r="B480" s="12">
+      <c r="B480" s="181">
         <v>355</v>
       </c>
-      <c r="C480" s="11" t="s">
+      <c r="C480" s="180" t="s">
         <v>681</v>
       </c>
-      <c r="D480" s="27" t="s">
-        <v>2006</v>
-      </c>
-      <c r="E480" s="11">
+      <c r="D480" s="183" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E480" s="180">
         <v>2</v>
       </c>
+      <c r="F480" s="180"/>
     </row>
     <row r="482" spans="3:3">
       <c r="C482" s="13"/>
@@ -65572,13 +67764,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W1189"/>
+  <dimension ref="A1:W1245"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1171" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1205" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1190" sqref="A1190"/>
+      <selection pane="bottomRight" activeCell="E1224" sqref="E1224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -73833,7 +76025,7 @@
         <v>795</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E387" s="27">
         <v>1000</v>
@@ -88157,7 +90349,7 @@
         <v>732</v>
       </c>
       <c r="D1109" s="14" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E1109" s="64" t="s">
         <v>1813</v>
@@ -88262,7 +90454,7 @@
         <v>877</v>
       </c>
       <c r="E1114" s="162" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1114" s="155">
         <v>1</v>
@@ -88280,10 +90472,10 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1115" s="162" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F1115" s="155">
         <v>1</v>
@@ -88304,7 +90496,7 @@
         <v>877</v>
       </c>
       <c r="E1116" s="162" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -88322,10 +90514,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1117" s="162" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -88346,7 +90538,7 @@
         <v>877</v>
       </c>
       <c r="E1118" s="162" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -88364,10 +90556,10 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1119" s="162" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F1119" s="155">
         <v>1</v>
@@ -88388,7 +90580,7 @@
         <v>877</v>
       </c>
       <c r="E1120" s="162" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F1120" s="155">
         <v>1</v>
@@ -88406,10 +90598,10 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1121" s="162" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F1121" s="155">
         <v>1</v>
@@ -88430,7 +90622,7 @@
         <v>877</v>
       </c>
       <c r="E1122" s="162" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -88448,10 +90640,10 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1123" s="162" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F1123" s="155">
         <v>1</v>
@@ -88472,7 +90664,7 @@
         <v>877</v>
       </c>
       <c r="E1124" s="162" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -88490,10 +90682,10 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1125" s="162" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F1125" s="155">
         <v>1</v>
@@ -88514,7 +90706,7 @@
         <v>877</v>
       </c>
       <c r="E1126" s="162" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -88532,10 +90724,10 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1127" s="162" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F1127" s="155">
         <v>1</v>
@@ -88556,7 +90748,7 @@
         <v>877</v>
       </c>
       <c r="E1128" s="162" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -88574,10 +90766,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1129" s="162" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -88598,7 +90790,7 @@
         <v>877</v>
       </c>
       <c r="E1130" s="162" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -88616,10 +90808,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1131" s="162" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -88640,7 +90832,7 @@
         <v>877</v>
       </c>
       <c r="E1132" s="162" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -88658,10 +90850,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1133" s="162" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -88682,7 +90874,7 @@
         <v>877</v>
       </c>
       <c r="E1134" s="162" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1134" s="155">
         <v>1</v>
@@ -88700,10 +90892,10 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1135" s="162" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F1135" s="155">
         <v>1</v>
@@ -88724,7 +90916,7 @@
         <v>877</v>
       </c>
       <c r="E1136" s="162" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1136" s="155">
         <v>1</v>
@@ -88742,10 +90934,10 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1137" s="162" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F1137" s="155">
         <v>1</v>
@@ -88766,7 +90958,7 @@
         <v>877</v>
       </c>
       <c r="E1138" s="162" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1138" s="155">
         <v>1</v>
@@ -88784,10 +90976,10 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1139" s="162" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F1139" s="155">
         <v>1</v>
@@ -88808,7 +91000,7 @@
         <v>877</v>
       </c>
       <c r="E1140" s="162" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -88826,10 +91018,10 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1141" s="162" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F1141" s="155">
         <v>1</v>
@@ -88850,7 +91042,7 @@
         <v>877</v>
       </c>
       <c r="E1142" s="162" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -88868,10 +91060,10 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1143" s="162" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F1143" s="155">
         <v>1</v>
@@ -88892,7 +91084,7 @@
         <v>877</v>
       </c>
       <c r="E1144" s="162" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -88910,10 +91102,10 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1145" s="162" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F1145" s="155">
         <v>1</v>
@@ -88934,7 +91126,7 @@
         <v>877</v>
       </c>
       <c r="E1146" s="162" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -88952,10 +91144,10 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1147" s="162" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F1147" s="155">
         <v>1</v>
@@ -88976,7 +91168,7 @@
         <v>877</v>
       </c>
       <c r="E1148" s="162" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -88994,10 +91186,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1149" s="162" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -89018,7 +91210,7 @@
         <v>877</v>
       </c>
       <c r="E1150" s="162" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -89036,10 +91228,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1151" s="162" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -89060,7 +91252,7 @@
         <v>877</v>
       </c>
       <c r="E1152" s="162" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -89078,10 +91270,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1153" s="162" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -89102,7 +91294,7 @@
         <v>877</v>
       </c>
       <c r="E1154" s="162" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -89120,10 +91312,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1155" s="162" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -89144,7 +91336,7 @@
         <v>877</v>
       </c>
       <c r="E1156" s="162" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -89162,10 +91354,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1157" s="162" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -89186,7 +91378,7 @@
         <v>877</v>
       </c>
       <c r="E1158" s="162" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -89204,10 +91396,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1159" s="162" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -89228,7 +91420,7 @@
         <v>877</v>
       </c>
       <c r="E1160" s="162" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -89246,10 +91438,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1161" s="162" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -89270,7 +91462,7 @@
         <v>877</v>
       </c>
       <c r="E1162" s="162" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -89288,10 +91480,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1163" s="162" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -89312,7 +91504,7 @@
         <v>877</v>
       </c>
       <c r="E1164" s="162" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -89330,10 +91522,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1165" s="162" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -89354,7 +91546,7 @@
         <v>877</v>
       </c>
       <c r="E1166" s="162" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -89372,10 +91564,10 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1167" s="162" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F1167" s="155">
         <v>1</v>
@@ -89396,7 +91588,7 @@
         <v>877</v>
       </c>
       <c r="E1168" s="162" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -89414,10 +91606,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1169" s="162" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -89438,7 +91630,7 @@
         <v>877</v>
       </c>
       <c r="E1170" s="162" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -89456,10 +91648,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1171" s="162" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -89480,7 +91672,7 @@
         <v>877</v>
       </c>
       <c r="E1172" s="162" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -89498,10 +91690,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1173" s="162" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -89522,7 +91714,7 @@
         <v>877</v>
       </c>
       <c r="E1174" s="162" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -89540,10 +91732,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1175" s="162" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -89564,7 +91756,7 @@
         <v>877</v>
       </c>
       <c r="E1176" s="162" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -89582,10 +91774,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1177" s="162" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -89606,7 +91798,7 @@
         <v>877</v>
       </c>
       <c r="E1178" s="162" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -89624,10 +91816,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1179" s="162" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -89648,7 +91840,7 @@
         <v>877</v>
       </c>
       <c r="E1180" s="162" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -89666,10 +91858,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1181" s="162" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -89687,10 +91879,10 @@
       </c>
       <c r="C1182" s="155"/>
       <c r="D1182" s="157" t="s">
-        <v>877</v>
+        <v>2017</v>
       </c>
       <c r="E1182" s="162" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -89708,10 +91900,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1183" s="162" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>
@@ -89720,26 +91912,26 @@
       <c r="H1183" s="155"/>
       <c r="I1183" s="155"/>
     </row>
-    <row r="1184" spans="1:9" s="183" customFormat="1">
-      <c r="A1184" s="181">
+    <row r="1184" spans="1:9" s="179" customFormat="1">
+      <c r="A1184" s="177">
         <v>1183</v>
       </c>
-      <c r="B1184" s="182">
+      <c r="B1184" s="178">
         <v>772</v>
       </c>
-      <c r="C1184" s="182"/>
-      <c r="D1184" s="182" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E1184" s="180" t="s">
-        <v>1991</v>
-      </c>
-      <c r="F1184" s="182">
-        <v>1</v>
-      </c>
-      <c r="G1184" s="182"/>
-      <c r="H1184" s="182"/>
-      <c r="I1184" s="182"/>
+      <c r="C1184" s="178"/>
+      <c r="D1184" s="178" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1184" s="213" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F1184" s="178">
+        <v>1</v>
+      </c>
+      <c r="G1184" s="178"/>
+      <c r="H1184" s="178"/>
+      <c r="I1184" s="178"/>
     </row>
     <row r="1185" spans="1:9" s="171" customFormat="1">
       <c r="A1185" s="166">
@@ -89753,7 +91945,7 @@
         <v>877</v>
       </c>
       <c r="E1185" s="174" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F1185" s="169">
         <v>1</v>
@@ -89774,7 +91966,7 @@
         <v>758</v>
       </c>
       <c r="E1186" s="174" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F1186" s="169">
         <v>1</v>
@@ -89795,7 +91987,7 @@
         <v>758</v>
       </c>
       <c r="E1187" s="174" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F1187" s="169">
         <v>1</v>
@@ -89816,7 +92008,7 @@
         <v>758</v>
       </c>
       <c r="E1188" s="174" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="F1188" s="169">
         <v>1</v>
@@ -89834,10 +92026,10 @@
       </c>
       <c r="C1189" s="173"/>
       <c r="D1189" s="169" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E1189" s="174" t="s">
         <v>1968</v>
-      </c>
-      <c r="E1189" s="174" t="s">
-        <v>1969</v>
       </c>
       <c r="F1189" s="169">
         <v>1</v>
@@ -89845,6 +92037,1182 @@
       <c r="G1189" s="169"/>
       <c r="H1189" s="169"/>
       <c r="I1189" s="169"/>
+    </row>
+    <row r="1190" spans="1:9" s="95" customFormat="1">
+      <c r="A1190" s="221">
+        <v>1189</v>
+      </c>
+      <c r="B1190" s="222">
+        <v>778</v>
+      </c>
+      <c r="C1190" s="93"/>
+      <c r="D1190" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1190" s="150" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F1190" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1190" s="93"/>
+      <c r="H1190" s="93"/>
+      <c r="I1190" s="93"/>
+    </row>
+    <row r="1191" spans="1:9" s="95" customFormat="1">
+      <c r="A1191" s="221">
+        <v>1190</v>
+      </c>
+      <c r="B1191" s="93">
+        <v>779</v>
+      </c>
+      <c r="C1191" s="93"/>
+      <c r="D1191" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1191" s="150" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F1191" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1191" s="93"/>
+      <c r="H1191" s="93"/>
+      <c r="I1191" s="93"/>
+    </row>
+    <row r="1192" spans="1:9" s="95" customFormat="1">
+      <c r="A1192" s="221">
+        <v>1191</v>
+      </c>
+      <c r="B1192" s="93">
+        <v>780</v>
+      </c>
+      <c r="C1192" s="93"/>
+      <c r="D1192" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1192" s="150" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F1192" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1192" s="93"/>
+      <c r="H1192" s="93"/>
+      <c r="I1192" s="93"/>
+    </row>
+    <row r="1193" spans="1:9" s="95" customFormat="1">
+      <c r="A1193" s="221">
+        <v>1192</v>
+      </c>
+      <c r="B1193" s="93">
+        <v>781</v>
+      </c>
+      <c r="C1193" s="93"/>
+      <c r="D1193" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1193" s="150" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F1193" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1193" s="93"/>
+      <c r="H1193" s="93"/>
+      <c r="I1193" s="93"/>
+    </row>
+    <row r="1194" spans="1:9" s="95" customFormat="1">
+      <c r="A1194" s="221">
+        <v>1193</v>
+      </c>
+      <c r="B1194" s="93">
+        <v>782</v>
+      </c>
+      <c r="C1194" s="93"/>
+      <c r="D1194" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1194" s="150" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F1194" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1194" s="93"/>
+      <c r="H1194" s="93"/>
+      <c r="I1194" s="93"/>
+    </row>
+    <row r="1195" spans="1:9" s="95" customFormat="1">
+      <c r="A1195" s="221">
+        <v>1194</v>
+      </c>
+      <c r="B1195" s="93">
+        <v>783</v>
+      </c>
+      <c r="C1195" s="93"/>
+      <c r="D1195" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1195" s="150" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F1195" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1195" s="93"/>
+      <c r="H1195" s="93"/>
+      <c r="I1195" s="93"/>
+    </row>
+    <row r="1196" spans="1:9" s="95" customFormat="1">
+      <c r="A1196" s="221">
+        <v>1195</v>
+      </c>
+      <c r="B1196" s="222">
+        <v>784</v>
+      </c>
+      <c r="C1196" s="93"/>
+      <c r="D1196" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1196" s="150" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1196" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1196" s="93"/>
+      <c r="H1196" s="93"/>
+      <c r="I1196" s="93"/>
+    </row>
+    <row r="1197" spans="1:9" s="219" customFormat="1">
+      <c r="A1197" s="214">
+        <v>1196</v>
+      </c>
+      <c r="B1197" s="216">
+        <v>785</v>
+      </c>
+      <c r="C1197" s="216"/>
+      <c r="D1197" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1197" s="218" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F1197" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1197" s="216"/>
+      <c r="H1197" s="216"/>
+      <c r="I1197" s="216"/>
+    </row>
+    <row r="1198" spans="1:9" s="219" customFormat="1">
+      <c r="A1198" s="214">
+        <v>1197</v>
+      </c>
+      <c r="B1198" s="216">
+        <v>786</v>
+      </c>
+      <c r="C1198" s="216"/>
+      <c r="D1198" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1198" s="218" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F1198" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1198" s="216"/>
+      <c r="H1198" s="216"/>
+      <c r="I1198" s="216"/>
+    </row>
+    <row r="1199" spans="1:9" s="219" customFormat="1">
+      <c r="A1199" s="214">
+        <v>1198</v>
+      </c>
+      <c r="B1199" s="216">
+        <v>787</v>
+      </c>
+      <c r="C1199" s="216"/>
+      <c r="D1199" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1199" s="218" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F1199" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1199" s="216"/>
+      <c r="H1199" s="216"/>
+      <c r="I1199" s="216"/>
+    </row>
+    <row r="1200" spans="1:9" s="219" customFormat="1">
+      <c r="A1200" s="214">
+        <v>1199</v>
+      </c>
+      <c r="B1200" s="216">
+        <v>788</v>
+      </c>
+      <c r="C1200" s="216"/>
+      <c r="D1200" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1200" s="218" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F1200" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1200" s="216"/>
+      <c r="H1200" s="216"/>
+      <c r="I1200" s="216"/>
+    </row>
+    <row r="1201" spans="1:9" s="219" customFormat="1">
+      <c r="A1201" s="214">
+        <v>1200</v>
+      </c>
+      <c r="B1201" s="216">
+        <v>789</v>
+      </c>
+      <c r="C1201" s="216"/>
+      <c r="D1201" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1201" s="218" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F1201" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1201" s="216"/>
+      <c r="H1201" s="216"/>
+      <c r="I1201" s="216"/>
+    </row>
+    <row r="1202" spans="1:9" s="219" customFormat="1">
+      <c r="A1202" s="214">
+        <v>1201</v>
+      </c>
+      <c r="B1202" s="215">
+        <v>790</v>
+      </c>
+      <c r="C1202" s="216"/>
+      <c r="D1202" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1202" s="218" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F1202" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1202" s="216"/>
+      <c r="H1202" s="216"/>
+      <c r="I1202" s="216"/>
+    </row>
+    <row r="1203" spans="1:9" s="219" customFormat="1">
+      <c r="A1203" s="214">
+        <v>1202</v>
+      </c>
+      <c r="B1203" s="216">
+        <v>791</v>
+      </c>
+      <c r="C1203" s="216"/>
+      <c r="D1203" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1203" s="218" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F1203" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1203" s="216"/>
+      <c r="H1203" s="216"/>
+      <c r="I1203" s="216"/>
+    </row>
+    <row r="1204" spans="1:9" s="95" customFormat="1">
+      <c r="A1204" s="221">
+        <v>1203</v>
+      </c>
+      <c r="B1204" s="93">
+        <v>792</v>
+      </c>
+      <c r="C1204" s="93"/>
+      <c r="D1204" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1204" s="150" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F1204" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1204" s="93"/>
+      <c r="H1204" s="93"/>
+      <c r="I1204" s="93"/>
+    </row>
+    <row r="1205" spans="1:9" s="95" customFormat="1">
+      <c r="A1205" s="221">
+        <v>1204</v>
+      </c>
+      <c r="B1205" s="93">
+        <v>793</v>
+      </c>
+      <c r="C1205" s="93"/>
+      <c r="D1205" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1205" s="150" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F1205" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1205" s="93"/>
+      <c r="H1205" s="93"/>
+      <c r="I1205" s="93"/>
+    </row>
+    <row r="1206" spans="1:9" s="95" customFormat="1">
+      <c r="A1206" s="221">
+        <v>1205</v>
+      </c>
+      <c r="B1206" s="93">
+        <v>794</v>
+      </c>
+      <c r="C1206" s="93"/>
+      <c r="D1206" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1206" s="150" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F1206" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1206" s="93"/>
+      <c r="H1206" s="93"/>
+      <c r="I1206" s="93"/>
+    </row>
+    <row r="1207" spans="1:9" s="95" customFormat="1">
+      <c r="A1207" s="221">
+        <v>1206</v>
+      </c>
+      <c r="B1207" s="93">
+        <v>795</v>
+      </c>
+      <c r="C1207" s="93"/>
+      <c r="D1207" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1207" s="150" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F1207" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1207" s="93"/>
+      <c r="H1207" s="93"/>
+      <c r="I1207" s="93"/>
+    </row>
+    <row r="1208" spans="1:9" s="95" customFormat="1">
+      <c r="A1208" s="221">
+        <v>1207</v>
+      </c>
+      <c r="B1208" s="222">
+        <v>796</v>
+      </c>
+      <c r="C1208" s="93"/>
+      <c r="D1208" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1208" s="150" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1208" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1208" s="93"/>
+      <c r="H1208" s="93"/>
+      <c r="I1208" s="93"/>
+    </row>
+    <row r="1209" spans="1:9" s="95" customFormat="1">
+      <c r="A1209" s="221">
+        <v>1208</v>
+      </c>
+      <c r="B1209" s="93">
+        <v>797</v>
+      </c>
+      <c r="C1209" s="93"/>
+      <c r="D1209" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1209" s="150" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1209" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1209" s="93"/>
+      <c r="H1209" s="93"/>
+      <c r="I1209" s="93"/>
+    </row>
+    <row r="1210" spans="1:9" s="95" customFormat="1">
+      <c r="A1210" s="221">
+        <v>1209</v>
+      </c>
+      <c r="B1210" s="93">
+        <v>798</v>
+      </c>
+      <c r="C1210" s="93"/>
+      <c r="D1210" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1210" s="150" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F1210" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1210" s="93"/>
+      <c r="H1210" s="93"/>
+      <c r="I1210" s="93"/>
+    </row>
+    <row r="1211" spans="1:9" s="219" customFormat="1">
+      <c r="A1211" s="214">
+        <v>1210</v>
+      </c>
+      <c r="B1211" s="216">
+        <v>799</v>
+      </c>
+      <c r="C1211" s="216"/>
+      <c r="D1211" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1211" s="218" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F1211" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1211" s="216"/>
+      <c r="H1211" s="216"/>
+      <c r="I1211" s="216"/>
+    </row>
+    <row r="1212" spans="1:9" s="219" customFormat="1">
+      <c r="A1212" s="214">
+        <v>1211</v>
+      </c>
+      <c r="B1212" s="216">
+        <v>800</v>
+      </c>
+      <c r="C1212" s="216"/>
+      <c r="D1212" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1212" s="218" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1212" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1212" s="216"/>
+      <c r="H1212" s="216"/>
+      <c r="I1212" s="216"/>
+    </row>
+    <row r="1213" spans="1:9" s="219" customFormat="1">
+      <c r="A1213" s="214">
+        <v>1212</v>
+      </c>
+      <c r="B1213" s="216">
+        <v>801</v>
+      </c>
+      <c r="C1213" s="216"/>
+      <c r="D1213" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1213" s="218" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F1213" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1213" s="216"/>
+      <c r="H1213" s="216"/>
+      <c r="I1213" s="216"/>
+    </row>
+    <row r="1214" spans="1:9" s="219" customFormat="1">
+      <c r="A1214" s="214">
+        <v>1213</v>
+      </c>
+      <c r="B1214" s="215">
+        <v>802</v>
+      </c>
+      <c r="C1214" s="216"/>
+      <c r="D1214" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1214" s="218" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F1214" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1214" s="216"/>
+      <c r="H1214" s="216"/>
+      <c r="I1214" s="216"/>
+    </row>
+    <row r="1215" spans="1:9" s="219" customFormat="1">
+      <c r="A1215" s="214">
+        <v>1214</v>
+      </c>
+      <c r="B1215" s="216">
+        <v>803</v>
+      </c>
+      <c r="C1215" s="216"/>
+      <c r="D1215" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1215" s="218" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F1215" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1215" s="216"/>
+      <c r="H1215" s="216"/>
+      <c r="I1215" s="216"/>
+    </row>
+    <row r="1216" spans="1:9" s="219" customFormat="1">
+      <c r="A1216" s="214">
+        <v>1215</v>
+      </c>
+      <c r="B1216" s="216">
+        <v>804</v>
+      </c>
+      <c r="C1216" s="216"/>
+      <c r="D1216" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1216" s="218" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F1216" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1216" s="216"/>
+      <c r="H1216" s="216"/>
+      <c r="I1216" s="216"/>
+    </row>
+    <row r="1217" spans="1:9" s="219" customFormat="1">
+      <c r="A1217" s="214">
+        <v>1216</v>
+      </c>
+      <c r="B1217" s="216">
+        <v>805</v>
+      </c>
+      <c r="C1217" s="216"/>
+      <c r="D1217" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1217" s="218" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F1217" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1217" s="216"/>
+      <c r="H1217" s="216"/>
+      <c r="I1217" s="216"/>
+    </row>
+    <row r="1218" spans="1:9" s="95" customFormat="1">
+      <c r="A1218" s="221">
+        <v>1217</v>
+      </c>
+      <c r="B1218" s="93">
+        <v>806</v>
+      </c>
+      <c r="C1218" s="93"/>
+      <c r="D1218" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1218" s="150" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F1218" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1218" s="93"/>
+      <c r="H1218" s="93"/>
+      <c r="I1218" s="93"/>
+    </row>
+    <row r="1219" spans="1:9" s="95" customFormat="1">
+      <c r="A1219" s="221">
+        <v>1218</v>
+      </c>
+      <c r="B1219" s="93">
+        <v>807</v>
+      </c>
+      <c r="C1219" s="93"/>
+      <c r="D1219" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1219" s="150" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F1219" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1219" s="93"/>
+      <c r="H1219" s="93"/>
+      <c r="I1219" s="93"/>
+    </row>
+    <row r="1220" spans="1:9" s="95" customFormat="1">
+      <c r="A1220" s="221">
+        <v>1219</v>
+      </c>
+      <c r="B1220" s="222">
+        <v>808</v>
+      </c>
+      <c r="C1220" s="93"/>
+      <c r="D1220" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1220" s="150" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F1220" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1220" s="93"/>
+      <c r="H1220" s="93"/>
+      <c r="I1220" s="93"/>
+    </row>
+    <row r="1221" spans="1:9" s="95" customFormat="1">
+      <c r="A1221" s="221">
+        <v>1220</v>
+      </c>
+      <c r="B1221" s="93">
+        <v>809</v>
+      </c>
+      <c r="C1221" s="93"/>
+      <c r="D1221" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1221" s="150" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F1221" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1221" s="93"/>
+      <c r="H1221" s="93"/>
+      <c r="I1221" s="93"/>
+    </row>
+    <row r="1222" spans="1:9" s="95" customFormat="1">
+      <c r="A1222" s="221">
+        <v>1221</v>
+      </c>
+      <c r="B1222" s="93">
+        <v>810</v>
+      </c>
+      <c r="C1222" s="93"/>
+      <c r="D1222" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1222" s="150" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F1222" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1222" s="93"/>
+      <c r="H1222" s="93"/>
+      <c r="I1222" s="93"/>
+    </row>
+    <row r="1223" spans="1:9" s="95" customFormat="1">
+      <c r="A1223" s="221">
+        <v>1222</v>
+      </c>
+      <c r="B1223" s="93">
+        <v>811</v>
+      </c>
+      <c r="C1223" s="93"/>
+      <c r="D1223" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1223" s="150" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F1223" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1223" s="93"/>
+      <c r="H1223" s="93"/>
+      <c r="I1223" s="93"/>
+    </row>
+    <row r="1224" spans="1:9" s="95" customFormat="1">
+      <c r="A1224" s="221">
+        <v>1223</v>
+      </c>
+      <c r="B1224" s="93">
+        <v>812</v>
+      </c>
+      <c r="C1224" s="93"/>
+      <c r="D1224" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1224" s="150" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F1224" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1224" s="93"/>
+      <c r="H1224" s="93"/>
+      <c r="I1224" s="93"/>
+    </row>
+    <row r="1225" spans="1:9" s="219" customFormat="1">
+      <c r="A1225" s="214">
+        <v>1224</v>
+      </c>
+      <c r="B1225" s="216">
+        <v>813</v>
+      </c>
+      <c r="C1225" s="216"/>
+      <c r="D1225" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1225" s="218" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F1225" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1225" s="216"/>
+      <c r="H1225" s="216"/>
+      <c r="I1225" s="216"/>
+    </row>
+    <row r="1226" spans="1:9" s="219" customFormat="1">
+      <c r="A1226" s="214">
+        <v>1225</v>
+      </c>
+      <c r="B1226" s="215">
+        <v>814</v>
+      </c>
+      <c r="C1226" s="216"/>
+      <c r="D1226" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1226" s="218" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F1226" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1226" s="216"/>
+      <c r="H1226" s="216"/>
+      <c r="I1226" s="216"/>
+    </row>
+    <row r="1227" spans="1:9" s="219" customFormat="1">
+      <c r="A1227" s="214">
+        <v>1226</v>
+      </c>
+      <c r="B1227" s="216">
+        <v>815</v>
+      </c>
+      <c r="C1227" s="216"/>
+      <c r="D1227" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1227" s="218" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F1227" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1227" s="216"/>
+      <c r="H1227" s="216"/>
+      <c r="I1227" s="216"/>
+    </row>
+    <row r="1228" spans="1:9" s="219" customFormat="1">
+      <c r="A1228" s="214">
+        <v>1227</v>
+      </c>
+      <c r="B1228" s="216">
+        <v>816</v>
+      </c>
+      <c r="C1228" s="216"/>
+      <c r="D1228" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1228" s="218" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F1228" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1228" s="216"/>
+      <c r="H1228" s="216"/>
+      <c r="I1228" s="216"/>
+    </row>
+    <row r="1229" spans="1:9" s="219" customFormat="1">
+      <c r="A1229" s="214">
+        <v>1228</v>
+      </c>
+      <c r="B1229" s="216">
+        <v>817</v>
+      </c>
+      <c r="C1229" s="216"/>
+      <c r="D1229" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1229" s="218" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F1229" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1229" s="216"/>
+      <c r="H1229" s="216"/>
+      <c r="I1229" s="216"/>
+    </row>
+    <row r="1230" spans="1:9" s="219" customFormat="1">
+      <c r="A1230" s="214">
+        <v>1229</v>
+      </c>
+      <c r="B1230" s="216">
+        <v>818</v>
+      </c>
+      <c r="C1230" s="216"/>
+      <c r="D1230" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1230" s="218" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F1230" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1230" s="216"/>
+      <c r="H1230" s="216"/>
+      <c r="I1230" s="216"/>
+    </row>
+    <row r="1231" spans="1:9" s="219" customFormat="1">
+      <c r="A1231" s="214">
+        <v>1230</v>
+      </c>
+      <c r="B1231" s="216">
+        <v>819</v>
+      </c>
+      <c r="C1231" s="216"/>
+      <c r="D1231" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1231" s="218" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F1231" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1231" s="216"/>
+      <c r="H1231" s="216"/>
+      <c r="I1231" s="216"/>
+    </row>
+    <row r="1232" spans="1:9" s="95" customFormat="1">
+      <c r="A1232" s="221">
+        <v>1231</v>
+      </c>
+      <c r="B1232" s="222">
+        <v>820</v>
+      </c>
+      <c r="C1232" s="93"/>
+      <c r="D1232" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1232" s="150" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F1232" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1232" s="93"/>
+      <c r="H1232" s="93"/>
+      <c r="I1232" s="93"/>
+    </row>
+    <row r="1233" spans="1:9" s="95" customFormat="1">
+      <c r="A1233" s="221">
+        <v>1232</v>
+      </c>
+      <c r="B1233" s="93">
+        <v>821</v>
+      </c>
+      <c r="C1233" s="93"/>
+      <c r="D1233" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1233" s="150" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F1233" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1233" s="93"/>
+      <c r="H1233" s="93"/>
+      <c r="I1233" s="93"/>
+    </row>
+    <row r="1234" spans="1:9" s="95" customFormat="1">
+      <c r="A1234" s="221">
+        <v>1233</v>
+      </c>
+      <c r="B1234" s="93">
+        <v>822</v>
+      </c>
+      <c r="C1234" s="93"/>
+      <c r="D1234" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1234" s="150" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F1234" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1234" s="93"/>
+      <c r="H1234" s="93"/>
+      <c r="I1234" s="93"/>
+    </row>
+    <row r="1235" spans="1:9" s="95" customFormat="1">
+      <c r="A1235" s="221">
+        <v>1234</v>
+      </c>
+      <c r="B1235" s="93">
+        <v>823</v>
+      </c>
+      <c r="C1235" s="93"/>
+      <c r="D1235" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1235" s="150" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F1235" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1235" s="93"/>
+      <c r="H1235" s="93"/>
+      <c r="I1235" s="93"/>
+    </row>
+    <row r="1236" spans="1:9" s="95" customFormat="1">
+      <c r="A1236" s="221">
+        <v>1235</v>
+      </c>
+      <c r="B1236" s="93">
+        <v>824</v>
+      </c>
+      <c r="C1236" s="93"/>
+      <c r="D1236" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1236" s="150" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F1236" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1236" s="93"/>
+      <c r="H1236" s="93"/>
+      <c r="I1236" s="93"/>
+    </row>
+    <row r="1237" spans="1:9" s="95" customFormat="1">
+      <c r="A1237" s="221">
+        <v>1236</v>
+      </c>
+      <c r="B1237" s="93">
+        <v>825</v>
+      </c>
+      <c r="C1237" s="93"/>
+      <c r="D1237" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1237" s="150" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F1237" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1237" s="93"/>
+      <c r="H1237" s="93"/>
+      <c r="I1237" s="93"/>
+    </row>
+    <row r="1238" spans="1:9" s="95" customFormat="1">
+      <c r="A1238" s="221">
+        <v>1237</v>
+      </c>
+      <c r="B1238" s="222">
+        <v>826</v>
+      </c>
+      <c r="C1238" s="93"/>
+      <c r="D1238" s="94" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1238" s="150" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F1238" s="93">
+        <v>1</v>
+      </c>
+      <c r="G1238" s="93"/>
+      <c r="H1238" s="93"/>
+      <c r="I1238" s="93"/>
+    </row>
+    <row r="1239" spans="1:9" s="219" customFormat="1">
+      <c r="A1239" s="214">
+        <v>1238</v>
+      </c>
+      <c r="B1239" s="216">
+        <v>827</v>
+      </c>
+      <c r="C1239" s="216"/>
+      <c r="D1239" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1239" s="218" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F1239" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1239" s="216"/>
+      <c r="H1239" s="216"/>
+      <c r="I1239" s="216"/>
+    </row>
+    <row r="1240" spans="1:9" s="219" customFormat="1">
+      <c r="A1240" s="214">
+        <v>1239</v>
+      </c>
+      <c r="B1240" s="216">
+        <v>828</v>
+      </c>
+      <c r="C1240" s="216"/>
+      <c r="D1240" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1240" s="218" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F1240" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1240" s="216"/>
+      <c r="H1240" s="216"/>
+      <c r="I1240" s="216"/>
+    </row>
+    <row r="1241" spans="1:9" s="219" customFormat="1">
+      <c r="A1241" s="214">
+        <v>1240</v>
+      </c>
+      <c r="B1241" s="216">
+        <v>829</v>
+      </c>
+      <c r="C1241" s="216"/>
+      <c r="D1241" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1241" s="218" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F1241" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1241" s="216"/>
+      <c r="H1241" s="216"/>
+      <c r="I1241" s="216"/>
+    </row>
+    <row r="1242" spans="1:9" s="219" customFormat="1">
+      <c r="A1242" s="214">
+        <v>1241</v>
+      </c>
+      <c r="B1242" s="216">
+        <v>830</v>
+      </c>
+      <c r="C1242" s="216"/>
+      <c r="D1242" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1242" s="218" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F1242" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1242" s="216"/>
+      <c r="H1242" s="216"/>
+      <c r="I1242" s="216"/>
+    </row>
+    <row r="1243" spans="1:9" s="219" customFormat="1">
+      <c r="A1243" s="214">
+        <v>1242</v>
+      </c>
+      <c r="B1243" s="216">
+        <v>831</v>
+      </c>
+      <c r="C1243" s="216"/>
+      <c r="D1243" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1243" s="218" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F1243" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1243" s="216"/>
+      <c r="H1243" s="216"/>
+      <c r="I1243" s="216"/>
+    </row>
+    <row r="1244" spans="1:9" s="219" customFormat="1">
+      <c r="A1244" s="214">
+        <v>1243</v>
+      </c>
+      <c r="B1244" s="215">
+        <v>832</v>
+      </c>
+      <c r="C1244" s="216"/>
+      <c r="D1244" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1244" s="218" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F1244" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1244" s="216"/>
+      <c r="H1244" s="216"/>
+      <c r="I1244" s="216"/>
+    </row>
+    <row r="1245" spans="1:9" s="219" customFormat="1">
+      <c r="A1245" s="214">
+        <v>1244</v>
+      </c>
+      <c r="B1245" s="216">
+        <v>833</v>
+      </c>
+      <c r="C1245" s="216"/>
+      <c r="D1245" s="217" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1245" s="218" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F1245" s="216">
+        <v>1</v>
+      </c>
+      <c r="G1245" s="216"/>
+      <c r="H1245" s="216"/>
+      <c r="I1245" s="216"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_11.17/task_zajindan_server.xlsx
+++ b/config_11.17/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="2103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="2105">
   <si>
     <t>id|任务id</t>
   </si>
@@ -12362,23 +12362,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0393,10394,10395,10396,10397,10398</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>100000,200000,300000,400000,4000000,5000000,40000000</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -13395,6 +13378,18 @@
   </si>
   <si>
     <t>condition_id|来源的条件id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_profit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_profit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10393,10394,10395,10396,10397,10398,10399,10400</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -14684,7 +14679,7 @@
   <dimension ref="A1:T526"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F494" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G510" sqref="G510"/>
@@ -33353,10 +33348,10 @@
         <v>1859</v>
       </c>
       <c r="E482" s="130" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F482" s="130" t="s">
         <v>2082</v>
-      </c>
-      <c r="F482" s="130" t="s">
-        <v>2083</v>
       </c>
       <c r="G482" s="129">
         <v>21429</v>
@@ -34420,7 +34415,7 @@
         <v>1997</v>
       </c>
       <c r="F510" s="196" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G510" s="146">
         <v>21457</v>
@@ -34607,7 +34602,7 @@
         <v>2012</v>
       </c>
       <c r="E515" s="199" t="s">
-        <v>2002</v>
+        <v>2102</v>
       </c>
       <c r="F515" s="181" t="s">
         <v>13</v>
@@ -34645,7 +34640,7 @@
         <v>2012</v>
       </c>
       <c r="E516" s="199" t="s">
-        <v>2002</v>
+        <v>2103</v>
       </c>
       <c r="F516" s="181" t="s">
         <v>13</v>
@@ -34677,16 +34672,16 @@
         <v>1</v>
       </c>
       <c r="C517" s="229" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D517" s="194" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E517" s="194" t="s">
-        <v>12</v>
+        <v>2103</v>
       </c>
       <c r="F517" s="194" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G517" s="146">
         <v>21464</v>
@@ -34715,16 +34710,16 @@
         <v>1</v>
       </c>
       <c r="C518" s="229" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D518" s="194" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E518" s="194" t="s">
-        <v>12</v>
+        <v>2103</v>
       </c>
       <c r="F518" s="194" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G518" s="194">
         <v>21465</v>
@@ -34768,10 +34763,10 @@
   <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E492" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C495" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H515" sqref="H515"/>
+      <selection pane="bottomRight" activeCell="D510" sqref="D510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -47600,11 +47595,11 @@
       </c>
       <c r="E511" s="203"/>
       <c r="F511" s="207" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G511" s="204"/>
       <c r="H511" s="220" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="I511" s="203" t="s">
         <v>387</v>
@@ -47623,11 +47618,11 @@
       </c>
       <c r="E512" s="203"/>
       <c r="F512" s="207" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G512" s="204"/>
       <c r="H512" s="220" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="I512" s="203" t="s">
         <v>387</v>
@@ -47646,11 +47641,11 @@
       </c>
       <c r="E513" s="203"/>
       <c r="F513" s="207" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G513" s="204"/>
       <c r="H513" s="220" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="I513" s="203" t="s">
         <v>387</v>
@@ -47669,11 +47664,11 @@
       </c>
       <c r="E514" s="203"/>
       <c r="F514" s="207" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G514" s="204"/>
       <c r="H514" s="220" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="I514" s="203" t="s">
         <v>387</v>
@@ -47692,11 +47687,11 @@
       </c>
       <c r="E515" s="203"/>
       <c r="F515" s="207" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="G515" s="204"/>
       <c r="H515" s="220" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="I515" s="203" t="s">
         <v>387</v>
@@ -47715,14 +47710,14 @@
       </c>
       <c r="E516" s="203"/>
       <c r="F516" s="207" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G516" s="204"/>
       <c r="H516" s="220" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="I516" s="208" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="517" spans="1:9" s="226" customFormat="1" ht="14.25" customHeight="1">
@@ -47738,11 +47733,11 @@
       </c>
       <c r="E517" s="223"/>
       <c r="F517" s="230" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G517" s="231"/>
       <c r="H517" s="232" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="I517" s="224" t="s">
         <v>387</v>
@@ -47761,11 +47756,11 @@
       </c>
       <c r="E518" s="223"/>
       <c r="F518" s="230" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G518" s="231"/>
       <c r="H518" s="232" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="I518" s="224" t="s">
         <v>387</v>
@@ -47794,9 +47789,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I777"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D705" sqref="D705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -47819,7 +47814,7 @@
         <v>660</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>661</v>
@@ -57655,7 +57650,7 @@
         <v>471</v>
       </c>
       <c r="C679" s="19" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D679" s="12">
         <v>0</v>
@@ -58036,7 +58031,7 @@
         <v>498</v>
       </c>
       <c r="C706" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D706" s="203">
         <v>0</v>
@@ -58050,7 +58045,7 @@
         <v>498</v>
       </c>
       <c r="C707" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D707" s="203">
         <v>0</v>
@@ -58064,7 +58059,7 @@
         <v>498</v>
       </c>
       <c r="C708" s="208" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D708" s="228">
         <v>0</v>
@@ -58078,7 +58073,7 @@
         <v>498</v>
       </c>
       <c r="C709" s="208" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D709" s="203">
         <v>0</v>
@@ -58092,7 +58087,7 @@
         <v>498</v>
       </c>
       <c r="C710" s="208" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D710" s="203">
         <v>0</v>
@@ -58106,7 +58101,7 @@
         <v>498</v>
       </c>
       <c r="C711" s="208" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D711" s="206">
         <v>0</v>
@@ -58120,7 +58115,7 @@
         <v>498</v>
       </c>
       <c r="C712" s="208" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D712" s="206">
         <v>0</v>
@@ -58134,7 +58129,7 @@
         <v>498</v>
       </c>
       <c r="C713" s="208" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D713" s="206">
         <v>0</v>
@@ -58148,7 +58143,7 @@
         <v>498</v>
       </c>
       <c r="C714" s="208" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D714" s="206">
         <v>0</v>
@@ -58162,7 +58157,7 @@
         <v>499</v>
       </c>
       <c r="C715" s="211" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D715" s="209">
         <v>0</v>
@@ -58176,7 +58171,7 @@
         <v>499</v>
       </c>
       <c r="C716" s="211" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D716" s="212">
         <v>0</v>
@@ -58190,7 +58185,7 @@
         <v>499</v>
       </c>
       <c r="C717" s="211" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D717" s="212">
         <v>0</v>
@@ -58204,7 +58199,7 @@
         <v>499</v>
       </c>
       <c r="C718" s="211" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D718" s="212">
         <v>0</v>
@@ -58218,7 +58213,7 @@
         <v>499</v>
       </c>
       <c r="C719" s="211" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D719" s="212">
         <v>0</v>
@@ -58232,7 +58227,7 @@
         <v>499</v>
       </c>
       <c r="C720" s="211" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D720" s="209">
         <v>0</v>
@@ -58246,7 +58241,7 @@
         <v>499</v>
       </c>
       <c r="C721" s="211" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D721" s="209">
         <v>0</v>
@@ -58260,7 +58255,7 @@
         <v>499</v>
       </c>
       <c r="C722" s="211" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D722" s="209">
         <v>0</v>
@@ -58274,7 +58269,7 @@
         <v>499</v>
       </c>
       <c r="C723" s="211" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D723" s="209">
         <v>0</v>
@@ -58288,7 +58283,7 @@
         <v>500</v>
       </c>
       <c r="C724" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D724" s="203">
         <v>0</v>
@@ -58302,7 +58297,7 @@
         <v>500</v>
       </c>
       <c r="C725" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D725" s="203">
         <v>0</v>
@@ -58316,7 +58311,7 @@
         <v>500</v>
       </c>
       <c r="C726" s="208" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D726" s="203">
         <v>0</v>
@@ -58330,7 +58325,7 @@
         <v>500</v>
       </c>
       <c r="C727" s="208" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D727" s="203">
         <v>0</v>
@@ -58344,7 +58339,7 @@
         <v>500</v>
       </c>
       <c r="C728" s="208" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D728" s="203">
         <v>0</v>
@@ -58358,7 +58353,7 @@
         <v>500</v>
       </c>
       <c r="C729" s="208" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D729" s="203">
         <v>0</v>
@@ -58372,7 +58367,7 @@
         <v>500</v>
       </c>
       <c r="C730" s="208" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D730" s="203">
         <v>0</v>
@@ -58386,7 +58381,7 @@
         <v>500</v>
       </c>
       <c r="C731" s="208" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D731" s="203">
         <v>0</v>
@@ -58400,7 +58395,7 @@
         <v>500</v>
       </c>
       <c r="C732" s="208" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D732" s="203">
         <v>0</v>
@@ -58414,7 +58409,7 @@
         <v>501</v>
       </c>
       <c r="C733" s="211" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D733" s="209">
         <v>0</v>
@@ -58428,7 +58423,7 @@
         <v>501</v>
       </c>
       <c r="C734" s="211" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D734" s="209">
         <v>0</v>
@@ -58442,7 +58437,7 @@
         <v>501</v>
       </c>
       <c r="C735" s="211" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D735" s="209">
         <v>0</v>
@@ -58456,7 +58451,7 @@
         <v>501</v>
       </c>
       <c r="C736" s="211" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D736" s="209">
         <v>0</v>
@@ -58470,7 +58465,7 @@
         <v>501</v>
       </c>
       <c r="C737" s="211" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D737" s="209">
         <v>0</v>
@@ -58484,7 +58479,7 @@
         <v>501</v>
       </c>
       <c r="C738" s="211" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D738" s="209">
         <v>0</v>
@@ -58498,7 +58493,7 @@
         <v>501</v>
       </c>
       <c r="C739" s="211" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D739" s="209">
         <v>0</v>
@@ -58512,7 +58507,7 @@
         <v>501</v>
       </c>
       <c r="C740" s="211" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D740" s="209">
         <v>0</v>
@@ -58526,7 +58521,7 @@
         <v>501</v>
       </c>
       <c r="C741" s="211" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D741" s="209">
         <v>0</v>
@@ -58540,7 +58535,7 @@
         <v>502</v>
       </c>
       <c r="C742" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D742" s="203">
         <v>0</v>
@@ -58554,7 +58549,7 @@
         <v>502</v>
       </c>
       <c r="C743" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D743" s="203">
         <v>0</v>
@@ -58568,7 +58563,7 @@
         <v>502</v>
       </c>
       <c r="C744" s="208" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D744" s="203">
         <v>0</v>
@@ -58582,7 +58577,7 @@
         <v>502</v>
       </c>
       <c r="C745" s="208" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D745" s="203">
         <v>0</v>
@@ -58596,7 +58591,7 @@
         <v>502</v>
       </c>
       <c r="C746" s="208" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D746" s="203">
         <v>0</v>
@@ -58610,7 +58605,7 @@
         <v>502</v>
       </c>
       <c r="C747" s="208" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D747" s="203">
         <v>0</v>
@@ -58624,7 +58619,7 @@
         <v>502</v>
       </c>
       <c r="C748" s="208" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D748" s="203">
         <v>0</v>
@@ -58638,7 +58633,7 @@
         <v>502</v>
       </c>
       <c r="C749" s="208" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D749" s="203">
         <v>0</v>
@@ -58666,7 +58661,7 @@
         <v>503</v>
       </c>
       <c r="C751" s="211" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D751" s="209">
         <v>0</v>
@@ -58680,7 +58675,7 @@
         <v>503</v>
       </c>
       <c r="C752" s="211" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D752" s="209">
         <v>0</v>
@@ -58694,7 +58689,7 @@
         <v>503</v>
       </c>
       <c r="C753" s="211" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D753" s="209">
         <v>0</v>
@@ -58708,7 +58703,7 @@
         <v>503</v>
       </c>
       <c r="C754" s="211" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D754" s="209">
         <v>0</v>
@@ -58722,7 +58717,7 @@
         <v>503</v>
       </c>
       <c r="C755" s="211" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D755" s="209">
         <v>0</v>
@@ -58736,7 +58731,7 @@
         <v>503</v>
       </c>
       <c r="C756" s="211" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D756" s="209">
         <v>0</v>
@@ -58750,7 +58745,7 @@
         <v>503</v>
       </c>
       <c r="C757" s="211" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D757" s="209">
         <v>0</v>
@@ -58764,7 +58759,7 @@
         <v>503</v>
       </c>
       <c r="C758" s="211" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D758" s="209">
         <v>0</v>
@@ -58778,7 +58773,7 @@
         <v>503</v>
       </c>
       <c r="C759" s="211" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D759" s="209">
         <v>0</v>
@@ -58792,7 +58787,7 @@
         <v>504</v>
       </c>
       <c r="C760" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D760" s="203">
         <v>0</v>
@@ -58806,7 +58801,7 @@
         <v>504</v>
       </c>
       <c r="C761" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D761" s="203">
         <v>0</v>
@@ -58820,7 +58815,7 @@
         <v>504</v>
       </c>
       <c r="C762" s="208" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D762" s="203">
         <v>0</v>
@@ -58834,7 +58829,7 @@
         <v>504</v>
       </c>
       <c r="C763" s="208" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D763" s="203">
         <v>0</v>
@@ -58848,7 +58843,7 @@
         <v>504</v>
       </c>
       <c r="C764" s="208" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D764" s="203">
         <v>0</v>
@@ -58862,7 +58857,7 @@
         <v>504</v>
       </c>
       <c r="C765" s="208" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D765" s="203">
         <v>0</v>
@@ -58876,7 +58871,7 @@
         <v>504</v>
       </c>
       <c r="C766" s="208" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D766" s="203">
         <v>0</v>
@@ -58890,7 +58885,7 @@
         <v>504</v>
       </c>
       <c r="C767" s="208" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D767" s="203">
         <v>0</v>
@@ -58904,7 +58899,7 @@
         <v>504</v>
       </c>
       <c r="C768" s="208" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D768" s="203">
         <v>0</v>
@@ -58918,7 +58913,7 @@
         <v>505</v>
       </c>
       <c r="C769" s="211" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D769" s="209">
         <v>0</v>
@@ -58932,7 +58927,7 @@
         <v>505</v>
       </c>
       <c r="C770" s="211" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D770" s="209">
         <v>0</v>
@@ -58946,7 +58941,7 @@
         <v>505</v>
       </c>
       <c r="C771" s="211" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D771" s="209">
         <v>0</v>
@@ -58960,7 +58955,7 @@
         <v>505</v>
       </c>
       <c r="C772" s="211" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D772" s="209">
         <v>0</v>
@@ -58974,7 +58969,7 @@
         <v>505</v>
       </c>
       <c r="C773" s="211" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D773" s="209">
         <v>0</v>
@@ -58988,7 +58983,7 @@
         <v>505</v>
       </c>
       <c r="C774" s="211" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D774" s="209">
         <v>0</v>
@@ -59002,7 +58997,7 @@
         <v>505</v>
       </c>
       <c r="C775" s="211" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D775" s="209">
         <v>0</v>
@@ -59016,7 +59011,7 @@
         <v>505</v>
       </c>
       <c r="C776" s="211" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D776" s="209">
         <v>0</v>
@@ -59030,7 +59025,7 @@
         <v>505</v>
       </c>
       <c r="C777" s="211" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D777" s="209">
         <v>0</v>
@@ -59048,11 +59043,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M484"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C466" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C469" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C480" sqref="C480"/>
+      <selection pane="bottomRight" activeCell="D480" sqref="D480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -67871,7 +67866,7 @@
         <v>680</v>
       </c>
       <c r="D480" s="183" t="s">
-        <v>2013</v>
+        <v>2104</v>
       </c>
       <c r="E480" s="180">
         <v>2</v>
@@ -67900,7 +67895,7 @@
   <dimension ref="A1:W1245"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1205" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E1224" sqref="E1224"/>
@@ -92012,7 +92007,7 @@
       </c>
       <c r="C1182" s="155"/>
       <c r="D1182" s="157" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E1182" s="162" t="s">
         <v>1952</v>
@@ -92180,10 +92175,10 @@
       </c>
       <c r="C1190" s="93"/>
       <c r="D1190" s="94" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E1190" s="150" t="s">
         <v>2016</v>
-      </c>
-      <c r="E1190" s="150" t="s">
-        <v>2017</v>
       </c>
       <c r="F1190" s="93">
         <v>1</v>
@@ -92201,10 +92196,10 @@
       </c>
       <c r="C1191" s="93"/>
       <c r="D1191" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1191" s="150" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F1191" s="93">
         <v>1</v>
@@ -92222,10 +92217,10 @@
       </c>
       <c r="C1192" s="93"/>
       <c r="D1192" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1192" s="150" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F1192" s="93">
         <v>1</v>
@@ -92243,10 +92238,10 @@
       </c>
       <c r="C1193" s="93"/>
       <c r="D1193" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1193" s="150" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F1193" s="93">
         <v>1</v>
@@ -92264,10 +92259,10 @@
       </c>
       <c r="C1194" s="93"/>
       <c r="D1194" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1194" s="150" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F1194" s="93">
         <v>1</v>
@@ -92285,10 +92280,10 @@
       </c>
       <c r="C1195" s="93"/>
       <c r="D1195" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1195" s="150" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F1195" s="93">
         <v>1</v>
@@ -92306,10 +92301,10 @@
       </c>
       <c r="C1196" s="93"/>
       <c r="D1196" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1196" s="150" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F1196" s="93">
         <v>1</v>
@@ -92327,10 +92322,10 @@
       </c>
       <c r="C1197" s="216"/>
       <c r="D1197" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1197" s="218" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F1197" s="216">
         <v>1</v>
@@ -92348,10 +92343,10 @@
       </c>
       <c r="C1198" s="216"/>
       <c r="D1198" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1198" s="218" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F1198" s="216">
         <v>1</v>
@@ -92369,10 +92364,10 @@
       </c>
       <c r="C1199" s="216"/>
       <c r="D1199" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1199" s="218" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F1199" s="216">
         <v>1</v>
@@ -92390,10 +92385,10 @@
       </c>
       <c r="C1200" s="216"/>
       <c r="D1200" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1200" s="218" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F1200" s="216">
         <v>1</v>
@@ -92411,10 +92406,10 @@
       </c>
       <c r="C1201" s="216"/>
       <c r="D1201" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1201" s="218" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F1201" s="216">
         <v>1</v>
@@ -92432,10 +92427,10 @@
       </c>
       <c r="C1202" s="216"/>
       <c r="D1202" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1202" s="218" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1202" s="216">
         <v>1</v>
@@ -92453,10 +92448,10 @@
       </c>
       <c r="C1203" s="216"/>
       <c r="D1203" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1203" s="218" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F1203" s="216">
         <v>1</v>
@@ -92474,10 +92469,10 @@
       </c>
       <c r="C1204" s="93"/>
       <c r="D1204" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1204" s="150" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F1204" s="93">
         <v>1</v>
@@ -92495,10 +92490,10 @@
       </c>
       <c r="C1205" s="93"/>
       <c r="D1205" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1205" s="150" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F1205" s="93">
         <v>1</v>
@@ -92516,10 +92511,10 @@
       </c>
       <c r="C1206" s="93"/>
       <c r="D1206" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1206" s="150" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F1206" s="93">
         <v>1</v>
@@ -92537,10 +92532,10 @@
       </c>
       <c r="C1207" s="93"/>
       <c r="D1207" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1207" s="150" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F1207" s="93">
         <v>1</v>
@@ -92558,10 +92553,10 @@
       </c>
       <c r="C1208" s="93"/>
       <c r="D1208" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1208" s="150" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F1208" s="93">
         <v>1</v>
@@ -92579,10 +92574,10 @@
       </c>
       <c r="C1209" s="93"/>
       <c r="D1209" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1209" s="150" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F1209" s="93">
         <v>1</v>
@@ -92600,10 +92595,10 @@
       </c>
       <c r="C1210" s="93"/>
       <c r="D1210" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1210" s="150" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F1210" s="93">
         <v>1</v>
@@ -92621,10 +92616,10 @@
       </c>
       <c r="C1211" s="216"/>
       <c r="D1211" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1211" s="218" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F1211" s="216">
         <v>1</v>
@@ -92642,10 +92637,10 @@
       </c>
       <c r="C1212" s="216"/>
       <c r="D1212" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1212" s="218" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F1212" s="216">
         <v>1</v>
@@ -92663,10 +92658,10 @@
       </c>
       <c r="C1213" s="216"/>
       <c r="D1213" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1213" s="218" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F1213" s="216">
         <v>1</v>
@@ -92684,10 +92679,10 @@
       </c>
       <c r="C1214" s="216"/>
       <c r="D1214" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1214" s="218" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F1214" s="216">
         <v>1</v>
@@ -92705,10 +92700,10 @@
       </c>
       <c r="C1215" s="216"/>
       <c r="D1215" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1215" s="218" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F1215" s="216">
         <v>1</v>
@@ -92726,10 +92721,10 @@
       </c>
       <c r="C1216" s="216"/>
       <c r="D1216" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1216" s="218" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F1216" s="216">
         <v>1</v>
@@ -92747,10 +92742,10 @@
       </c>
       <c r="C1217" s="216"/>
       <c r="D1217" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1217" s="218" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F1217" s="216">
         <v>1</v>
@@ -92768,10 +92763,10 @@
       </c>
       <c r="C1218" s="93"/>
       <c r="D1218" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1218" s="150" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F1218" s="93">
         <v>1</v>
@@ -92789,10 +92784,10 @@
       </c>
       <c r="C1219" s="93"/>
       <c r="D1219" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1219" s="150" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F1219" s="93">
         <v>1</v>
@@ -92810,10 +92805,10 @@
       </c>
       <c r="C1220" s="93"/>
       <c r="D1220" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1220" s="150" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F1220" s="93">
         <v>1</v>
@@ -92831,10 +92826,10 @@
       </c>
       <c r="C1221" s="93"/>
       <c r="D1221" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1221" s="150" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F1221" s="93">
         <v>1</v>
@@ -92852,10 +92847,10 @@
       </c>
       <c r="C1222" s="93"/>
       <c r="D1222" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1222" s="150" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1222" s="93">
         <v>1</v>
@@ -92873,10 +92868,10 @@
       </c>
       <c r="C1223" s="93"/>
       <c r="D1223" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1223" s="150" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F1223" s="93">
         <v>1</v>
@@ -92894,10 +92889,10 @@
       </c>
       <c r="C1224" s="93"/>
       <c r="D1224" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1224" s="150" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F1224" s="93">
         <v>1</v>
@@ -92915,10 +92910,10 @@
       </c>
       <c r="C1225" s="216"/>
       <c r="D1225" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1225" s="218" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F1225" s="216">
         <v>1</v>
@@ -92936,10 +92931,10 @@
       </c>
       <c r="C1226" s="216"/>
       <c r="D1226" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1226" s="218" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F1226" s="216">
         <v>1</v>
@@ -92957,10 +92952,10 @@
       </c>
       <c r="C1227" s="216"/>
       <c r="D1227" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1227" s="218" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F1227" s="216">
         <v>1</v>
@@ -92978,10 +92973,10 @@
       </c>
       <c r="C1228" s="216"/>
       <c r="D1228" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1228" s="218" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="F1228" s="216">
         <v>1</v>
@@ -92999,10 +92994,10 @@
       </c>
       <c r="C1229" s="216"/>
       <c r="D1229" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1229" s="218" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="F1229" s="216">
         <v>1</v>
@@ -93020,10 +93015,10 @@
       </c>
       <c r="C1230" s="216"/>
       <c r="D1230" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1230" s="218" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="F1230" s="216">
         <v>1</v>
@@ -93041,10 +93036,10 @@
       </c>
       <c r="C1231" s="216"/>
       <c r="D1231" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1231" s="218" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F1231" s="216">
         <v>1</v>
@@ -93062,10 +93057,10 @@
       </c>
       <c r="C1232" s="93"/>
       <c r="D1232" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1232" s="150" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F1232" s="93">
         <v>1</v>
@@ -93083,10 +93078,10 @@
       </c>
       <c r="C1233" s="93"/>
       <c r="D1233" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1233" s="150" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="F1233" s="93">
         <v>1</v>
@@ -93104,10 +93099,10 @@
       </c>
       <c r="C1234" s="93"/>
       <c r="D1234" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1234" s="150" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="F1234" s="93">
         <v>1</v>
@@ -93125,10 +93120,10 @@
       </c>
       <c r="C1235" s="93"/>
       <c r="D1235" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1235" s="150" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F1235" s="93">
         <v>1</v>
@@ -93146,10 +93141,10 @@
       </c>
       <c r="C1236" s="93"/>
       <c r="D1236" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1236" s="150" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F1236" s="93">
         <v>1</v>
@@ -93167,10 +93162,10 @@
       </c>
       <c r="C1237" s="93"/>
       <c r="D1237" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1237" s="150" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="F1237" s="93">
         <v>1</v>
@@ -93188,10 +93183,10 @@
       </c>
       <c r="C1238" s="93"/>
       <c r="D1238" s="94" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1238" s="150" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F1238" s="93">
         <v>1</v>
@@ -93209,10 +93204,10 @@
       </c>
       <c r="C1239" s="216"/>
       <c r="D1239" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1239" s="218" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="F1239" s="216">
         <v>1</v>
@@ -93230,10 +93225,10 @@
       </c>
       <c r="C1240" s="216"/>
       <c r="D1240" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1240" s="218" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F1240" s="216">
         <v>1</v>
@@ -93251,10 +93246,10 @@
       </c>
       <c r="C1241" s="216"/>
       <c r="D1241" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1241" s="218" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F1241" s="216">
         <v>1</v>
@@ -93272,10 +93267,10 @@
       </c>
       <c r="C1242" s="216"/>
       <c r="D1242" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1242" s="218" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F1242" s="216">
         <v>1</v>
@@ -93293,10 +93288,10 @@
       </c>
       <c r="C1243" s="216"/>
       <c r="D1243" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1243" s="218" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="F1243" s="216">
         <v>1</v>
@@ -93314,10 +93309,10 @@
       </c>
       <c r="C1244" s="216"/>
       <c r="D1244" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1244" s="218" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F1244" s="216">
         <v>1</v>
@@ -93335,10 +93330,10 @@
       </c>
       <c r="C1245" s="216"/>
       <c r="D1245" s="217" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E1245" s="218" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F1245" s="216">
         <v>1</v>

--- a/config_11.17/task_zajindan_server.xlsx
+++ b/config_11.17/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -13389,7 +13389,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10393,10394,10395,10396,10397,10398,10399,10400</t>
+    <t>10384,10385,10386,10387,10388,10389</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -14678,11 +14678,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E500" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G510" sqref="G510"/>
+      <selection pane="bottomRight" activeCell="H517" sqref="H517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -34763,10 +34763,10 @@
   <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C495" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E495" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D510" sqref="D510"/>
+      <selection pane="bottomRight" activeCell="F517" sqref="F517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -47790,7 +47790,7 @@
   <dimension ref="A1:I777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A751" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D705" sqref="D705"/>
     </sheetView>
   </sheetViews>
@@ -59043,7 +59043,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M484"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C469" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_11.17/task_zajindan_server.xlsx
+++ b/config_11.17/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -13389,7 +13389,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10384,10385,10386,10387,10388,10389</t>
+    <t>10384,10385,10386,10387,10388,10389,10390,10391</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -14679,10 +14679,10 @@
   <dimension ref="A1:T526"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H482" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E494" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H517" sqref="H517"/>
+      <selection pane="bottomRight" activeCell="G510" sqref="G510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -34763,10 +34763,10 @@
   <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E495" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F495" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F517" sqref="F517"/>
+      <selection pane="bottomRight" activeCell="H510" sqref="H510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -47790,7 +47790,7 @@
   <dimension ref="A1:I777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A751" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D705" sqref="D705"/>
     </sheetView>
   </sheetViews>
@@ -59043,7 +59043,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M484"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C469" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -67894,8 +67894,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C980" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1007" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F1001" sqref="F1001:F1003"/>

--- a/config_11.17/task_zajindan_server.xlsx
+++ b/config_11.17/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="2105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="2106">
   <si>
     <t>id|任务id</t>
   </si>
@@ -13390,6 +13390,10 @@
   </si>
   <si>
     <t>10384,10385,10386,10387,10388,10389,10390,10391</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_charge_any</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -47789,9 +47793,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I777"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D705" sqref="D705"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C705" sqref="C705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -58017,7 +58021,7 @@
         <v>497</v>
       </c>
       <c r="C705" s="180" t="s">
-        <v>435</v>
+        <v>2105</v>
       </c>
       <c r="D705" s="180">
         <v>355</v>
@@ -59043,11 +59047,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M484"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C469" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D480" sqref="D480"/>
+      <selection pane="bottomRight" activeCell="C481" sqref="C481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_11.17/task_zajindan_server.xlsx
+++ b/config_11.17/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -14678,8 +14678,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H500" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H482" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H517" sqref="H517"/>
@@ -67894,11 +67894,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1245"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1229" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C980" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1224" sqref="E1224"/>
+      <selection pane="bottomRight" activeCell="F1001" sqref="F1001:F1003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -88033,8 +88033,8 @@
       <c r="E977" s="82" t="s">
         <v>1654</v>
       </c>
-      <c r="F977" s="10">
-        <v>20</v>
+      <c r="F977" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="978" spans="1:6">
@@ -88051,7 +88051,7 @@
       <c r="E978" s="82" t="s">
         <v>1655</v>
       </c>
-      <c r="F978" s="10">
+      <c r="F978" s="28">
         <v>30</v>
       </c>
     </row>
@@ -88069,8 +88069,8 @@
       <c r="E979" s="82" t="s">
         <v>1656</v>
       </c>
-      <c r="F979" s="10">
-        <v>50</v>
+      <c r="F979" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="980" spans="1:6">
@@ -88087,8 +88087,8 @@
       <c r="E980" s="32">
         <v>30</v>
       </c>
-      <c r="F980" s="10">
-        <v>20</v>
+      <c r="F980" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="981" spans="1:6">
@@ -88105,7 +88105,7 @@
       <c r="E981" s="32">
         <v>40</v>
       </c>
-      <c r="F981" s="10">
+      <c r="F981" s="28">
         <v>30</v>
       </c>
     </row>
@@ -88123,8 +88123,8 @@
       <c r="E982" s="32">
         <v>50</v>
       </c>
-      <c r="F982" s="10">
-        <v>50</v>
+      <c r="F982" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="983" spans="1:6">
@@ -88141,8 +88141,8 @@
       <c r="E983" s="32">
         <v>50</v>
       </c>
-      <c r="F983" s="10">
-        <v>20</v>
+      <c r="F983" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -88159,7 +88159,7 @@
       <c r="E984" s="32">
         <v>80</v>
       </c>
-      <c r="F984" s="10">
+      <c r="F984" s="28">
         <v>30</v>
       </c>
     </row>
@@ -88177,8 +88177,8 @@
       <c r="E985" s="32">
         <v>100</v>
       </c>
-      <c r="F985" s="10">
-        <v>50</v>
+      <c r="F985" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -88195,8 +88195,8 @@
       <c r="E986" s="32">
         <v>150</v>
       </c>
-      <c r="F986" s="10">
-        <v>20</v>
+      <c r="F986" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -88213,7 +88213,7 @@
       <c r="E987" s="32">
         <v>180</v>
       </c>
-      <c r="F987" s="10">
+      <c r="F987" s="28">
         <v>30</v>
       </c>
     </row>
@@ -88231,8 +88231,8 @@
       <c r="E988" s="32">
         <v>200</v>
       </c>
-      <c r="F988" s="10">
-        <v>50</v>
+      <c r="F988" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -88249,8 +88249,8 @@
       <c r="E989" s="32">
         <v>300</v>
       </c>
-      <c r="F989" s="10">
-        <v>20</v>
+      <c r="F989" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -88267,7 +88267,7 @@
       <c r="E990" s="32">
         <v>400</v>
       </c>
-      <c r="F990" s="10">
+      <c r="F990" s="28">
         <v>30</v>
       </c>
     </row>
@@ -88285,8 +88285,8 @@
       <c r="E991" s="32">
         <v>500</v>
       </c>
-      <c r="F991" s="10">
-        <v>50</v>
+      <c r="F991" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -88303,8 +88303,8 @@
       <c r="E992" s="32">
         <v>800</v>
       </c>
-      <c r="F992" s="10">
-        <v>20</v>
+      <c r="F992" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -88321,7 +88321,7 @@
       <c r="E993" s="32">
         <v>900</v>
       </c>
-      <c r="F993" s="10">
+      <c r="F993" s="28">
         <v>30</v>
       </c>
     </row>
@@ -88339,8 +88339,8 @@
       <c r="E994" s="32">
         <v>1000</v>
       </c>
-      <c r="F994" s="10">
-        <v>50</v>
+      <c r="F994" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="995" spans="1:6">
@@ -88357,8 +88357,8 @@
       <c r="E995" s="32">
         <v>4500</v>
       </c>
-      <c r="F995" s="10">
-        <v>20</v>
+      <c r="F995" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="996" spans="1:6">
@@ -88375,7 +88375,7 @@
       <c r="E996" s="32">
         <v>4800</v>
       </c>
-      <c r="F996" s="10">
+      <c r="F996" s="28">
         <v>30</v>
       </c>
     </row>
@@ -88393,8 +88393,8 @@
       <c r="E997" s="32">
         <v>5000</v>
       </c>
-      <c r="F997" s="10">
-        <v>50</v>
+      <c r="F997" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -88411,8 +88411,8 @@
       <c r="E998" s="32">
         <v>8000</v>
       </c>
-      <c r="F998" s="10">
-        <v>20</v>
+      <c r="F998" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -88429,7 +88429,7 @@
       <c r="E999" s="32">
         <v>9000</v>
       </c>
-      <c r="F999" s="10">
+      <c r="F999" s="28">
         <v>30</v>
       </c>
     </row>
@@ -88447,8 +88447,8 @@
       <c r="E1000" s="32">
         <v>10000</v>
       </c>
-      <c r="F1000" s="10">
-        <v>50</v>
+      <c r="F1000" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="1001" spans="1:6">
@@ -88465,8 +88465,8 @@
       <c r="E1001" s="32">
         <v>15000</v>
       </c>
-      <c r="F1001" s="10">
-        <v>20</v>
+      <c r="F1001" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="1002" spans="1:6">
@@ -88483,7 +88483,7 @@
       <c r="E1002" s="32">
         <v>18000</v>
       </c>
-      <c r="F1002" s="10">
+      <c r="F1002" s="28">
         <v>30</v>
       </c>
     </row>
@@ -88501,8 +88501,8 @@
       <c r="E1003" s="32">
         <v>20000</v>
       </c>
-      <c r="F1003" s="10">
-        <v>50</v>
+      <c r="F1003" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="1004" spans="1:6">
@@ -90449,7 +90449,7 @@
         <v>1809</v>
       </c>
       <c r="F1107" s="1">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1108" spans="1:9">
@@ -90466,7 +90466,7 @@
         <v>1810</v>
       </c>
       <c r="F1108" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1109" spans="1:9">
@@ -90483,7 +90483,7 @@
         <v>1811</v>
       </c>
       <c r="F1109" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1110" spans="1:9" s="133" customFormat="1">

--- a/config_11.17/task_zajindan_server.xlsx
+++ b/config_11.17/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -14682,11 +14682,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E494" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G494" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G510" sqref="G510"/>
+      <selection pane="bottomRight" activeCell="K507" sqref="K507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -34317,10 +34317,10 @@
         <v>1</v>
       </c>
       <c r="J507" s="185">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K507" s="185">
-        <v>1603123199</v>
+        <v>1606147199</v>
       </c>
       <c r="L507" s="185">
         <v>-1</v>
@@ -34355,10 +34355,10 @@
         <v>1</v>
       </c>
       <c r="J508" s="185">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K508" s="185">
-        <v>1603123199</v>
+        <v>1606147199</v>
       </c>
       <c r="L508" s="185">
         <v>-1</v>
@@ -34393,10 +34393,10 @@
         <v>1</v>
       </c>
       <c r="J509" s="185">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K509" s="185">
-        <v>1603123199</v>
+        <v>1606147199</v>
       </c>
       <c r="L509" s="185">
         <v>-1</v>
@@ -34431,7 +34431,7 @@
         <v>1</v>
       </c>
       <c r="J510" s="146">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K510" s="146">
         <v>32503651200</v>
@@ -34469,7 +34469,7 @@
         <v>1</v>
       </c>
       <c r="J511" s="181">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K511" s="181">
         <v>32503651200</v>
@@ -34507,7 +34507,7 @@
         <v>1</v>
       </c>
       <c r="J512" s="181">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K512" s="181">
         <v>32503651200</v>
@@ -34545,7 +34545,7 @@
         <v>1</v>
       </c>
       <c r="J513" s="181">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K513" s="181">
         <v>32503651200</v>
@@ -34583,7 +34583,7 @@
         <v>1</v>
       </c>
       <c r="J514" s="181">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K514" s="181">
         <v>32503651200</v>
@@ -34621,7 +34621,7 @@
         <v>1</v>
       </c>
       <c r="J515" s="181">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K515" s="181">
         <v>32503651200</v>
@@ -34659,7 +34659,7 @@
         <v>1</v>
       </c>
       <c r="J516" s="181">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K516" s="181">
         <v>32503651200</v>
@@ -34697,7 +34697,7 @@
         <v>1</v>
       </c>
       <c r="J517" s="146">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K517" s="146">
         <v>32503651200</v>
@@ -34735,7 +34735,7 @@
         <v>1</v>
       </c>
       <c r="J518" s="146">
-        <v>1602518400</v>
+        <v>1605571200</v>
       </c>
       <c r="K518" s="146">
         <v>32503651200</v>
@@ -47793,8 +47793,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I777"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C705" sqref="C705"/>
     </sheetView>
   </sheetViews>

--- a/config_11.17/task_zajindan_server.xlsx
+++ b/config_11.17/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -14682,8 +14682,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G494" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G470" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K507" sqref="K507"/>
@@ -67898,8 +67898,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1245"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1007" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C971" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F1001" sqref="F1001:F1003"/>
@@ -88038,7 +88038,7 @@
         <v>1654</v>
       </c>
       <c r="F977" s="28">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="978" spans="1:6">
@@ -88056,7 +88056,7 @@
         <v>1655</v>
       </c>
       <c r="F978" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="979" spans="1:6">
@@ -88074,7 +88074,7 @@
         <v>1656</v>
       </c>
       <c r="F979" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="980" spans="1:6">
@@ -88092,7 +88092,7 @@
         <v>30</v>
       </c>
       <c r="F980" s="28">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="981" spans="1:6">
@@ -88110,7 +88110,7 @@
         <v>40</v>
       </c>
       <c r="F981" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="982" spans="1:6">
@@ -88128,7 +88128,7 @@
         <v>50</v>
       </c>
       <c r="F982" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="983" spans="1:6">
@@ -88146,7 +88146,7 @@
         <v>50</v>
       </c>
       <c r="F983" s="28">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -88164,7 +88164,7 @@
         <v>80</v>
       </c>
       <c r="F984" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -88182,7 +88182,7 @@
         <v>100</v>
       </c>
       <c r="F985" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -88200,7 +88200,7 @@
         <v>150</v>
       </c>
       <c r="F986" s="28">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -88218,7 +88218,7 @@
         <v>180</v>
       </c>
       <c r="F987" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -88236,7 +88236,7 @@
         <v>200</v>
       </c>
       <c r="F988" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -88254,7 +88254,7 @@
         <v>300</v>
       </c>
       <c r="F989" s="28">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -88272,7 +88272,7 @@
         <v>400</v>
       </c>
       <c r="F990" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -88290,7 +88290,7 @@
         <v>500</v>
       </c>
       <c r="F991" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -88308,7 +88308,7 @@
         <v>800</v>
       </c>
       <c r="F992" s="28">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -88326,7 +88326,7 @@
         <v>900</v>
       </c>
       <c r="F993" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -88344,7 +88344,7 @@
         <v>1000</v>
       </c>
       <c r="F994" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="995" spans="1:6">
@@ -88362,7 +88362,7 @@
         <v>4500</v>
       </c>
       <c r="F995" s="28">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="996" spans="1:6">
@@ -88380,7 +88380,7 @@
         <v>4800</v>
       </c>
       <c r="F996" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -88398,7 +88398,7 @@
         <v>5000</v>
       </c>
       <c r="F997" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -88416,7 +88416,7 @@
         <v>8000</v>
       </c>
       <c r="F998" s="28">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -88434,7 +88434,7 @@
         <v>9000</v>
       </c>
       <c r="F999" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
@@ -88452,7 +88452,7 @@
         <v>10000</v>
       </c>
       <c r="F1000" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1001" spans="1:6">
@@ -88470,7 +88470,7 @@
         <v>15000</v>
       </c>
       <c r="F1001" s="28">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1002" spans="1:6">
@@ -88488,7 +88488,7 @@
         <v>18000</v>
       </c>
       <c r="F1002" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1003" spans="1:6">
@@ -88506,7 +88506,7 @@
         <v>20000</v>
       </c>
       <c r="F1003" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1004" spans="1:6">
@@ -90453,7 +90453,7 @@
         <v>1809</v>
       </c>
       <c r="F1107" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1108" spans="1:9">
@@ -90470,7 +90470,7 @@
         <v>1810</v>
       </c>
       <c r="F1108" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1109" spans="1:9">
@@ -90487,7 +90487,7 @@
         <v>1811</v>
       </c>
       <c r="F1109" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1110" spans="1:9" s="133" customFormat="1">
